--- a/volatility/src/xls/11_NZDUSD.xlsx
+++ b/volatility/src/xls/11_NZDUSD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.5</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>15103</v>
+        <v>37688</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.133</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.145</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.121</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.125</v>
+        <v>0.64599999999999991</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.113</v>
+        <v>0.6339999999999999</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.137</v>
+        <v>0.65799999999999992</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,6 +620,7 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -5447,6 +5448,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/11_NZDUSD.xlsx
+++ b/volatility/src/xls/11_NZDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="-20" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -528,7 +528,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.7</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,26 +554,26 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.2205000000000021</v>
+        <v>1.2039999999999995</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>37688</v>
+        <v>38667</v>
       </c>
       <c r="E6" s="5">
-        <v>65</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>0.65400000000000003</v>
+        <v>0.66300000000000014</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>0.66600000000000004</v>
+        <v>0.67500000000000016</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>0.64200000000000002</v>
+        <v>0.65100000000000013</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>0.64599999999999991</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>0.6339999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>0.65799999999999992</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -626,6 +626,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -639,7 +640,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -668,11 +669,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.7340000000000022</v>
+        <v>1.1809999999999987</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.2205000000000021</v>
+        <v>1.2039999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -680,23 +681,23 @@
         <v>11</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>0.66515000000000002</v>
+        <v>0.64907999999999999</v>
       </c>
       <c r="D2">
-        <v>0.66608000000000001</v>
+        <v>0.66034999999999999</v>
       </c>
       <c r="E2">
-        <v>0.64873999999999998</v>
+        <v>0.64854000000000001</v>
       </c>
       <c r="F2">
-        <v>0.64903999999999995</v>
+        <v>0.65849000000000002</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.5480000000000049</v>
+        <v>1.7340000000000022</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -704,23 +705,23 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>0.65268000000000004</v>
+        <v>0.66515000000000002</v>
       </c>
       <c r="D3">
-        <v>0.66807000000000005</v>
+        <v>0.66608000000000001</v>
       </c>
       <c r="E3">
-        <v>0.65259</v>
+        <v>0.64873999999999998</v>
       </c>
       <c r="F3">
-        <v>0.66585000000000005</v>
+        <v>0.64903999999999995</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.64400000000000013</v>
+        <v>1.5480000000000049</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -728,23 +729,23 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>0.65473999999999999</v>
+        <v>0.65268000000000004</v>
       </c>
       <c r="D4">
-        <v>0.65585000000000004</v>
+        <v>0.66807000000000005</v>
       </c>
       <c r="E4">
-        <v>0.64941000000000004</v>
+        <v>0.65259</v>
       </c>
       <c r="F4">
-        <v>0.65369999999999995</v>
+        <v>0.66585000000000005</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.73900000000000077</v>
+        <v>0.64400000000000013</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -752,23 +753,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>0.65264999999999995</v>
+        <v>0.65473999999999999</v>
       </c>
       <c r="D5">
-        <v>0.65549000000000002</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="E5">
-        <v>0.64810000000000001</v>
+        <v>0.64941000000000004</v>
       </c>
       <c r="F5">
-        <v>0.65512999999999999</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.8560000000000012</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -776,23 +777,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>0.65968000000000004</v>
+        <v>0.65264999999999995</v>
       </c>
       <c r="D6">
-        <v>0.65976999999999997</v>
+        <v>0.65549000000000002</v>
       </c>
       <c r="E6">
-        <v>0.65120999999999996</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="F6">
-        <v>0.65137999999999996</v>
+        <v>0.65512999999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>0.8560000000000012</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -800,23 +801,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>0.66130999999999995</v>
+        <v>0.65968000000000004</v>
       </c>
       <c r="D7">
-        <v>0.66286999999999996</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="E7">
-        <v>0.65244999999999997</v>
+        <v>0.65120999999999996</v>
       </c>
       <c r="F7">
-        <v>0.65954000000000002</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.78599999999999781</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -824,23 +825,23 @@
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>0.66559999999999997</v>
+        <v>0.66130999999999995</v>
       </c>
       <c r="D8">
-        <v>0.66839999999999999</v>
+        <v>0.66286999999999996</v>
       </c>
       <c r="E8">
-        <v>0.66054000000000002</v>
+        <v>0.65244999999999997</v>
       </c>
       <c r="F8">
-        <v>0.66412000000000004</v>
+        <v>0.65954000000000002</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.0880000000000001</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -848,23 +849,23 @@
         <v>11</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>0.66781000000000001</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="D9">
-        <v>0.66881999999999997</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="E9">
-        <v>0.65793999999999997</v>
+        <v>0.66054000000000002</v>
       </c>
       <c r="F9">
-        <v>0.66610999999999998</v>
+        <v>0.66412000000000004</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.1789999999999967</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -872,23 +873,23 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>0.67613000000000001</v>
+        <v>0.66781000000000001</v>
       </c>
       <c r="D10">
-        <v>0.67820999999999998</v>
+        <v>0.66881999999999997</v>
       </c>
       <c r="E10">
-        <v>0.66642000000000001</v>
+        <v>0.65793999999999997</v>
       </c>
       <c r="F10">
-        <v>0.66859999999999997</v>
+        <v>0.66610999999999998</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.68099999999999827</v>
+        <v>1.1789999999999967</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -896,23 +897,23 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>0.67279</v>
+        <v>0.67613000000000001</v>
       </c>
       <c r="D11">
-        <v>0.67808999999999997</v>
+        <v>0.67820999999999998</v>
       </c>
       <c r="E11">
-        <v>0.67127999999999999</v>
+        <v>0.66642000000000001</v>
       </c>
       <c r="F11">
-        <v>0.67608999999999997</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.1909999999999976</v>
+        <v>0.68099999999999827</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -920,23 +921,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>0.68118999999999996</v>
+        <v>0.67279</v>
       </c>
       <c r="D12">
-        <v>0.68367</v>
+        <v>0.67808999999999997</v>
       </c>
       <c r="E12">
-        <v>0.67176000000000002</v>
+        <v>0.67127999999999999</v>
       </c>
       <c r="F12">
-        <v>0.67293999999999998</v>
+        <v>0.67608999999999997</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.532</v>
+        <v>1.1909999999999976</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -944,23 +945,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>0.68813000000000002</v>
+        <v>0.68118999999999996</v>
       </c>
       <c r="D13">
-        <v>0.69240000000000002</v>
+        <v>0.68367</v>
       </c>
       <c r="E13">
-        <v>0.67708000000000002</v>
+        <v>0.67176000000000002</v>
       </c>
       <c r="F13">
-        <v>0.68030999999999997</v>
+        <v>0.67293999999999998</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.1089999999999933</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -968,23 +969,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>0.68408000000000002</v>
+        <v>0.68813000000000002</v>
       </c>
       <c r="D14">
-        <v>0.69377999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="E14">
-        <v>0.68269000000000002</v>
+        <v>0.67708000000000002</v>
       </c>
       <c r="F14">
-        <v>0.68733999999999995</v>
+        <v>0.68030999999999997</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.82800000000000651</v>
+        <v>1.1089999999999933</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -992,23 +993,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>0.67896000000000001</v>
+        <v>0.68408000000000002</v>
       </c>
       <c r="D15">
-        <v>0.68722000000000005</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="E15">
-        <v>0.67893999999999999</v>
+        <v>0.68269000000000002</v>
       </c>
       <c r="F15">
-        <v>0.68445</v>
+        <v>0.68733999999999995</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.83199999999999941</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1016,23 +1017,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>0.68230000000000002</v>
+        <v>0.67896000000000001</v>
       </c>
       <c r="D16">
-        <v>0.68272999999999995</v>
+        <v>0.68722000000000005</v>
       </c>
       <c r="E16">
-        <v>0.67440999999999995</v>
+        <v>0.67893999999999999</v>
       </c>
       <c r="F16">
-        <v>0.68035999999999996</v>
+        <v>0.68445</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>0.83199999999999941</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1040,23 +1041,23 @@
         <v>11</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>0.68577999999999995</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="D17">
-        <v>0.69023000000000001</v>
+        <v>0.68272999999999995</v>
       </c>
       <c r="E17">
-        <v>0.67932999999999999</v>
+        <v>0.67440999999999995</v>
       </c>
       <c r="F17">
-        <v>0.67964999999999998</v>
+        <v>0.68035999999999996</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.3590000000000102</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1064,23 +1065,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>0.68516999999999995</v>
+        <v>0.68577999999999995</v>
       </c>
       <c r="D18">
-        <v>0.68927000000000005</v>
+        <v>0.69023000000000001</v>
       </c>
       <c r="E18">
-        <v>0.67567999999999995</v>
+        <v>0.67932999999999999</v>
       </c>
       <c r="F18">
-        <v>0.68467999999999996</v>
+        <v>0.67964999999999998</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.5469999999999984</v>
+        <v>1.3590000000000102</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1088,23 +1089,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>0.67383999999999999</v>
+        <v>0.68516999999999995</v>
       </c>
       <c r="D19">
-        <v>0.68735999999999997</v>
+        <v>0.68927000000000005</v>
       </c>
       <c r="E19">
-        <v>0.67188999999999999</v>
+        <v>0.67567999999999995</v>
       </c>
       <c r="F19">
-        <v>0.68613999999999997</v>
+        <v>0.68467999999999996</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.7630000000000035</v>
+        <v>1.5469999999999984</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1112,23 +1113,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>0.68923999999999996</v>
+        <v>0.67383999999999999</v>
       </c>
       <c r="D20">
-        <v>0.69052000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E20">
-        <v>0.67288999999999999</v>
+        <v>0.67188999999999999</v>
       </c>
       <c r="F20">
-        <v>0.67476000000000003</v>
+        <v>0.68613999999999997</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.261000000000001</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1136,23 +1137,23 @@
         <v>11</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>0.68262</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="D21">
-        <v>0.69410000000000005</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="E21">
-        <v>0.68149000000000004</v>
+        <v>0.67288999999999999</v>
       </c>
       <c r="F21">
-        <v>0.68964999999999999</v>
+        <v>0.67476000000000003</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.261000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1160,23 +1161,23 @@
         <v>11</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>0.67522000000000004</v>
+        <v>0.68262</v>
       </c>
       <c r="D22">
-        <v>0.68501000000000001</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="E22">
-        <v>0.67059999999999997</v>
+        <v>0.68149000000000004</v>
       </c>
       <c r="F22">
-        <v>0.68388000000000004</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1184,23 +1185,23 @@
         <v>11</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>0.68220000000000003</v>
+        <v>0.67522000000000004</v>
       </c>
       <c r="D23">
-        <v>0.68479000000000001</v>
+        <v>0.68501000000000001</v>
       </c>
       <c r="E23">
-        <v>0.67269000000000001</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="F23">
-        <v>0.67413000000000001</v>
+        <v>0.68388000000000004</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.3630000000000031</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1208,23 +1209,23 @@
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>0.67396</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="D24">
-        <v>0.68430000000000002</v>
+        <v>0.68479000000000001</v>
       </c>
       <c r="E24">
-        <v>0.67066999999999999</v>
+        <v>0.67269000000000001</v>
       </c>
       <c r="F24">
-        <v>0.68335000000000001</v>
+        <v>0.67413000000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.2299999999999986</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1232,23 +1233,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>0.67086999999999997</v>
+        <v>0.67396</v>
       </c>
       <c r="D25">
-        <v>0.67513000000000001</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="E25">
-        <v>0.65283000000000002</v>
+        <v>0.67066999999999999</v>
       </c>
       <c r="F25">
-        <v>0.67393999999999998</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.53600000000000314</v>
+        <v>2.2299999999999986</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1256,23 +1257,23 @@
         <v>11</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
-        <v>0.67220000000000002</v>
+        <v>0.67086999999999997</v>
       </c>
       <c r="D26">
-        <v>0.67454000000000003</v>
+        <v>0.67513000000000001</v>
       </c>
       <c r="E26">
-        <v>0.66918</v>
+        <v>0.65283000000000002</v>
       </c>
       <c r="F26">
-        <v>0.67042999999999997</v>
+        <v>0.67393999999999998</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.7400000000000082</v>
+        <v>0.53600000000000314</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1280,23 +1281,23 @@
         <v>11</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>0.67930000000000001</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D27">
-        <v>0.68793000000000004</v>
+        <v>0.67454000000000003</v>
       </c>
       <c r="E27">
-        <v>0.67052999999999996</v>
+        <v>0.66918</v>
       </c>
       <c r="F27">
-        <v>0.67074</v>
+        <v>0.67042999999999997</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.3369999999999993</v>
+        <v>1.7400000000000082</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1304,23 +1305,23 @@
         <v>11</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>0.68659999999999999</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="D28">
-        <v>0.69108000000000003</v>
+        <v>0.68793000000000004</v>
       </c>
       <c r="E28">
-        <v>0.67771000000000003</v>
+        <v>0.67052999999999996</v>
       </c>
       <c r="F28">
-        <v>0.67974000000000001</v>
+        <v>0.67074</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.2310000000000043</v>
+        <v>1.3369999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1328,23 +1329,23 @@
         <v>11</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>0.69133</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="D29">
-        <v>0.69686999999999999</v>
+        <v>0.69108000000000003</v>
       </c>
       <c r="E29">
-        <v>0.68455999999999995</v>
+        <v>0.67771000000000003</v>
       </c>
       <c r="F29">
-        <v>0.68598000000000003</v>
+        <v>0.67974000000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.3509999999999911</v>
+        <v>1.2310000000000043</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1352,23 +1353,23 @@
         <v>11</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>0.67557</v>
+        <v>0.69133</v>
       </c>
       <c r="D30">
-        <v>0.68862999999999996</v>
+        <v>0.69686999999999999</v>
       </c>
       <c r="E30">
-        <v>0.67512000000000005</v>
+        <v>0.68455999999999995</v>
       </c>
       <c r="F30">
-        <v>0.6875</v>
+        <v>0.68598000000000003</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.0750000000000037</v>
+        <v>1.3509999999999911</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1376,23 +1377,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>0.68605000000000005</v>
+        <v>0.67557</v>
       </c>
       <c r="D31">
-        <v>0.68732000000000004</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="E31">
-        <v>0.67657</v>
+        <v>0.67512000000000005</v>
       </c>
       <c r="F31">
-        <v>0.67718</v>
+        <v>0.6875</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.7859999999999987</v>
+        <v>1.0750000000000037</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1400,23 +1401,23 @@
         <v>11</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>0.67235</v>
+        <v>0.68605000000000005</v>
       </c>
       <c r="D32">
-        <v>0.68830999999999998</v>
+        <v>0.68732000000000004</v>
       </c>
       <c r="E32">
-        <v>0.67044999999999999</v>
+        <v>0.67657</v>
       </c>
       <c r="F32">
-        <v>0.68777999999999995</v>
+        <v>0.67718</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7869999999999941</v>
+        <v>1.7859999999999987</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1424,23 +1425,23 @@
         <v>11</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>0.66310999999999998</v>
+        <v>0.67235</v>
       </c>
       <c r="D33">
-        <v>0.68096999999999996</v>
+        <v>0.68830999999999998</v>
       </c>
       <c r="E33">
-        <v>0.66310000000000002</v>
+        <v>0.67044999999999999</v>
       </c>
       <c r="F33">
-        <v>0.67384999999999995</v>
+        <v>0.68777999999999995</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7850000000000033</v>
+        <v>1.7869999999999941</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1448,23 +1449,23 @@
         <v>11</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>0.65188000000000001</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="D34">
-        <v>0.66888000000000003</v>
+        <v>0.68096999999999996</v>
       </c>
       <c r="E34">
-        <v>0.65103</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="F34">
-        <v>0.66457999999999995</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1472,23 +1473,23 @@
         <v>11</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>0.65971000000000002</v>
+        <v>0.65188000000000001</v>
       </c>
       <c r="D35">
-        <v>0.66030999999999995</v>
+        <v>0.66888000000000003</v>
       </c>
       <c r="E35">
-        <v>0.64642999999999995</v>
+        <v>0.65103</v>
       </c>
       <c r="F35">
-        <v>0.65207000000000004</v>
+        <v>0.66457999999999995</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1496,23 +1497,23 @@
         <v>11</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>0.64947999999999995</v>
+        <v>0.65971000000000002</v>
       </c>
       <c r="D36">
-        <v>0.66063000000000005</v>
+        <v>0.66030999999999995</v>
       </c>
       <c r="E36">
-        <v>0.64937</v>
+        <v>0.64642999999999995</v>
       </c>
       <c r="F36">
-        <v>0.65890000000000004</v>
+        <v>0.65207000000000004</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1520,23 +1521,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>0.64373000000000002</v>
+        <v>0.64947999999999995</v>
       </c>
       <c r="D37">
-        <v>0.65327000000000002</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="E37">
-        <v>0.64237</v>
+        <v>0.64937</v>
       </c>
       <c r="F37">
-        <v>0.65047999999999995</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.9639999999999991</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1544,23 +1545,23 @@
         <v>11</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>0.66151000000000004</v>
+        <v>0.64373000000000002</v>
       </c>
       <c r="D38">
-        <v>0.66278999999999999</v>
+        <v>0.65327000000000002</v>
       </c>
       <c r="E38">
-        <v>0.64315</v>
+        <v>0.64237</v>
       </c>
       <c r="F38">
-        <v>0.64431000000000005</v>
+        <v>0.65047999999999995</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0.97599999999999909</v>
+        <v>1.9639999999999991</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1568,23 +1569,23 @@
         <v>11</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>0.66657999999999995</v>
+        <v>0.66151000000000004</v>
       </c>
       <c r="D39">
-        <v>0.66952999999999996</v>
+        <v>0.66278999999999999</v>
       </c>
       <c r="E39">
-        <v>0.65976999999999997</v>
+        <v>0.64315</v>
       </c>
       <c r="F39">
-        <v>0.66224000000000005</v>
+        <v>0.64431000000000005</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.6050000000000009</v>
+        <v>0.97599999999999909</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1592,23 +1593,23 @@
         <v>11</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
-        <v>0.65481999999999996</v>
+        <v>0.66657999999999995</v>
       </c>
       <c r="D40">
-        <v>0.66983999999999999</v>
+        <v>0.66952999999999996</v>
       </c>
       <c r="E40">
-        <v>0.65378999999999998</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="F40">
-        <v>0.66793000000000002</v>
+        <v>0.66224000000000005</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>0.94699999999999784</v>
+        <v>1.6050000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1616,23 +1617,23 @@
         <v>11</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>0.65290000000000004</v>
+        <v>0.65481999999999996</v>
       </c>
       <c r="D41">
-        <v>0.65947999999999996</v>
+        <v>0.66983999999999999</v>
       </c>
       <c r="E41">
-        <v>0.65000999999999998</v>
+        <v>0.65378999999999998</v>
       </c>
       <c r="F41">
-        <v>0.65466000000000002</v>
+        <v>0.66793000000000002</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0.93300000000000605</v>
+        <v>0.94699999999999784</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1640,23 +1641,23 @@
         <v>11</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>0.66142999999999996</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="D42">
-        <v>0.66207000000000005</v>
+        <v>0.65947999999999996</v>
       </c>
       <c r="E42">
-        <v>0.65273999999999999</v>
+        <v>0.65000999999999998</v>
       </c>
       <c r="F42">
-        <v>0.65298</v>
+        <v>0.65466000000000002</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.1979999999999991</v>
+        <v>0.93300000000000605</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1664,23 +1665,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>0.66842999999999997</v>
+        <v>0.66142999999999996</v>
       </c>
       <c r="D43">
-        <v>0.67261000000000004</v>
+        <v>0.66207000000000005</v>
       </c>
       <c r="E43">
-        <v>0.66063000000000005</v>
+        <v>0.65273999999999999</v>
       </c>
       <c r="F43">
-        <v>0.66195999999999999</v>
+        <v>0.65298</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1979999999999991</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1688,23 +1689,23 @@
         <v>11</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>0.66266999999999998</v>
+        <v>0.66842999999999997</v>
       </c>
       <c r="D44">
-        <v>0.67191000000000001</v>
+        <v>0.67261000000000004</v>
       </c>
       <c r="E44">
-        <v>0.66100999999999999</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="F44">
-        <v>0.66920000000000002</v>
+        <v>0.66195999999999999</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.9020000000000028</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1712,23 +1713,23 @@
         <v>11</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>0.65742999999999996</v>
+        <v>0.66266999999999998</v>
       </c>
       <c r="D45">
-        <v>0.66339999999999999</v>
+        <v>0.67191000000000001</v>
       </c>
       <c r="E45">
-        <v>0.65437999999999996</v>
+        <v>0.66100999999999999</v>
       </c>
       <c r="F45">
-        <v>0.66303000000000001</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.9199999999999995</v>
+        <v>0.9020000000000028</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1736,23 +1737,23 @@
         <v>11</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>0.67410000000000003</v>
+        <v>0.65742999999999996</v>
       </c>
       <c r="D46">
-        <v>0.67617000000000005</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="E46">
-        <v>0.65697000000000005</v>
+        <v>0.65437999999999996</v>
       </c>
       <c r="F46">
-        <v>0.65791999999999995</v>
+        <v>0.66303000000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.1420000000000097</v>
+        <v>1.9199999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1760,23 +1761,23 @@
         <v>11</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>0.67908999999999997</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="D47">
-        <v>0.68339000000000005</v>
+        <v>0.67617000000000005</v>
       </c>
       <c r="E47">
-        <v>0.67196999999999996</v>
+        <v>0.65697000000000005</v>
       </c>
       <c r="F47">
-        <v>0.67464000000000002</v>
+        <v>0.65791999999999995</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.882000000000005</v>
+        <v>1.1420000000000097</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1784,23 +1785,23 @@
         <v>11</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>0.67949999999999999</v>
+        <v>0.67908999999999997</v>
       </c>
       <c r="D48">
-        <v>0.68500000000000005</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E48">
-        <v>0.67618</v>
+        <v>0.67196999999999996</v>
       </c>
       <c r="F48">
-        <v>0.6794</v>
+        <v>0.67464000000000002</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.2669999999999959</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1808,23 +1809,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>0.67573000000000005</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="D49">
-        <v>0.68398999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E49">
-        <v>0.67132000000000003</v>
+        <v>0.67618</v>
       </c>
       <c r="F49">
-        <v>0.68081999999999998</v>
+        <v>0.6794</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.3340000000000019</v>
+        <v>1.2669999999999959</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1832,23 +1833,23 @@
         <v>11</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>0.68332000000000004</v>
+        <v>0.67573000000000005</v>
       </c>
       <c r="D50">
-        <v>0.68581000000000003</v>
+        <v>0.68398999999999999</v>
       </c>
       <c r="E50">
-        <v>0.67247000000000001</v>
+        <v>0.67132000000000003</v>
       </c>
       <c r="F50">
-        <v>0.67673000000000005</v>
+        <v>0.68081999999999998</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.5610000000000013</v>
+        <v>1.3340000000000019</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1856,23 +1857,23 @@
         <v>11</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>0.67769999999999997</v>
+        <v>0.68332000000000004</v>
       </c>
       <c r="D51">
-        <v>0.68432999999999999</v>
+        <v>0.68581000000000003</v>
       </c>
       <c r="E51">
-        <v>0.66871999999999998</v>
+        <v>0.67247000000000001</v>
       </c>
       <c r="F51">
-        <v>0.68430000000000002</v>
+        <v>0.67673000000000005</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.8580000000000041</v>
+        <v>1.5610000000000013</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1880,23 +1881,23 @@
         <v>11</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>0.69106000000000001</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="D52">
-        <v>0.69211</v>
+        <v>0.68432999999999999</v>
       </c>
       <c r="E52">
-        <v>0.67352999999999996</v>
+        <v>0.66871999999999998</v>
       </c>
       <c r="F52">
-        <v>0.67834000000000005</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.3009999999999966</v>
+        <v>1.8580000000000041</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1904,23 +1905,23 @@
         <v>11</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>0.69313000000000002</v>
+        <v>0.69106000000000001</v>
       </c>
       <c r="D53">
-        <v>0.69550999999999996</v>
+        <v>0.69211</v>
       </c>
       <c r="E53">
-        <v>0.6825</v>
+        <v>0.67352999999999996</v>
       </c>
       <c r="F53">
-        <v>0.69128999999999996</v>
+        <v>0.67834000000000005</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.258999999999999</v>
+        <v>1.3009999999999966</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1928,23 +1929,23 @@
         <v>11</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>0.70225000000000004</v>
+        <v>0.69313000000000002</v>
       </c>
       <c r="D54">
-        <v>0.70528000000000002</v>
+        <v>0.69550999999999996</v>
       </c>
       <c r="E54">
-        <v>0.69269000000000003</v>
+        <v>0.6825</v>
       </c>
       <c r="F54">
-        <v>0.69404999999999994</v>
+        <v>0.69128999999999996</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0.82900000000000196</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1952,23 +1953,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
-        <v>0.69825000000000004</v>
+        <v>0.70225000000000004</v>
       </c>
       <c r="D55">
-        <v>0.70594000000000001</v>
+        <v>0.70528000000000002</v>
       </c>
       <c r="E55">
-        <v>0.69764999999999999</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="F55">
-        <v>0.70308999999999999</v>
+        <v>0.69404999999999994</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.4070000000000027</v>
+        <v>0.82900000000000196</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1976,23 +1977,23 @@
         <v>11</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>0.69225000000000003</v>
+        <v>0.69825000000000004</v>
       </c>
       <c r="D56">
-        <v>0.70230000000000004</v>
+        <v>0.70594000000000001</v>
       </c>
       <c r="E56">
-        <v>0.68823000000000001</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="F56">
-        <v>0.6986</v>
+        <v>0.70308999999999999</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0.9040000000000048</v>
+        <v>1.4070000000000027</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2000,23 +2001,23 @@
         <v>11</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>0.69254000000000004</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="D57">
-        <v>0.69737000000000005</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="E57">
-        <v>0.68833</v>
+        <v>0.68823000000000001</v>
       </c>
       <c r="F57">
-        <v>0.69167999999999996</v>
+        <v>0.6986</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.2319999999999998</v>
+        <v>0.9040000000000048</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2024,23 +2025,23 @@
         <v>11</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>0.69584999999999997</v>
+        <v>0.69254000000000004</v>
       </c>
       <c r="D58">
-        <v>0.69735999999999998</v>
+        <v>0.69737000000000005</v>
       </c>
       <c r="E58">
-        <v>0.68503999999999998</v>
+        <v>0.68833</v>
       </c>
       <c r="F58">
-        <v>0.69203000000000003</v>
+        <v>0.69167999999999996</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.2319999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2048,23 +2049,23 @@
         <v>11</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>0.70132000000000005</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="D59">
-        <v>0.70406000000000002</v>
+        <v>0.69735999999999998</v>
       </c>
       <c r="E59">
-        <v>0.69018000000000002</v>
+        <v>0.68503999999999998</v>
       </c>
       <c r="F59">
-        <v>0.69681999999999999</v>
+        <v>0.69203000000000003</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.041000000000003</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2072,23 +2073,23 @@
         <v>11</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>0.70796000000000003</v>
+        <v>0.70132000000000005</v>
       </c>
       <c r="D60">
-        <v>0.70884000000000003</v>
+        <v>0.70406000000000002</v>
       </c>
       <c r="E60">
-        <v>0.69843</v>
+        <v>0.69018000000000002</v>
       </c>
       <c r="F60">
-        <v>0.70193000000000005</v>
+        <v>0.69681999999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.041000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2096,23 +2097,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>0.72123999999999999</v>
+        <v>0.70796000000000003</v>
       </c>
       <c r="D61">
-        <v>0.72174000000000005</v>
+        <v>0.70884000000000003</v>
       </c>
       <c r="E61">
-        <v>0.70354000000000005</v>
+        <v>0.69843</v>
       </c>
       <c r="F61">
-        <v>0.70855000000000001</v>
+        <v>0.70193000000000005</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.7159999999999953</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2120,23 +2121,23 @@
         <v>11</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>0.73485999999999996</v>
+        <v>0.72123999999999999</v>
       </c>
       <c r="D62">
-        <v>0.73716999999999999</v>
+        <v>0.72174000000000005</v>
       </c>
       <c r="E62">
-        <v>0.72001000000000004</v>
+        <v>0.70354000000000005</v>
       </c>
       <c r="F62">
-        <v>0.72092999999999996</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.7159999999999953</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2144,23 +2145,23 @@
         <v>11</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>0.72662000000000004</v>
+        <v>0.73485999999999996</v>
       </c>
       <c r="D63">
-        <v>0.73945000000000005</v>
+        <v>0.73716999999999999</v>
       </c>
       <c r="E63">
-        <v>0.72652000000000005</v>
+        <v>0.72001000000000004</v>
       </c>
       <c r="F63">
-        <v>0.73516999999999999</v>
+        <v>0.72092999999999996</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.2709999999999999</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2168,23 +2169,23 @@
         <v>11</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>0.72345000000000004</v>
+        <v>0.72662000000000004</v>
       </c>
       <c r="D64">
-        <v>0.73214000000000001</v>
+        <v>0.73945000000000005</v>
       </c>
       <c r="E64">
-        <v>0.71943000000000001</v>
+        <v>0.72652000000000005</v>
       </c>
       <c r="F64">
-        <v>0.72772999999999999</v>
+        <v>0.73516999999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.1539999999999995</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2192,23 +2193,23 @@
         <v>11</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>0.72299000000000002</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="D65">
-        <v>0.73028000000000004</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E65">
-        <v>0.71874000000000005</v>
+        <v>0.71943000000000001</v>
       </c>
       <c r="F65">
-        <v>0.72382999999999997</v>
+        <v>0.72772999999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.2049999999999894</v>
+        <v>1.1539999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2216,23 +2217,23 @@
         <v>11</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>0.72124999999999995</v>
+        <v>0.72299000000000002</v>
       </c>
       <c r="D66">
-        <v>0.72729999999999995</v>
+        <v>0.73028000000000004</v>
       </c>
       <c r="E66">
-        <v>0.71525000000000005</v>
+        <v>0.71874000000000005</v>
       </c>
       <c r="F66">
-        <v>0.72394999999999998</v>
+        <v>0.72382999999999997</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.4670000000000072</v>
+        <v>1.2049999999999894</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2240,23 +2241,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>0.72836000000000001</v>
+        <v>0.72124999999999995</v>
       </c>
       <c r="D67">
-        <v>0.73540000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="E67">
-        <v>0.72072999999999998</v>
+        <v>0.71525000000000005</v>
       </c>
       <c r="F67">
-        <v>0.72138000000000002</v>
+        <v>0.72394999999999998</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.0800000000000032</v>
+        <v>1.4670000000000072</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2264,23 +2265,23 @@
         <v>11</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>0.72318000000000005</v>
+        <v>0.72836000000000001</v>
       </c>
       <c r="D68">
-        <v>0.73101000000000005</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="E68">
-        <v>0.72021000000000002</v>
+        <v>0.72072999999999998</v>
       </c>
       <c r="F68">
-        <v>0.72889000000000004</v>
+        <v>0.72138000000000002</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.588999999999996</v>
+        <v>1.0800000000000032</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2288,23 +2289,23 @@
         <v>11</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>0.72884000000000004</v>
+        <v>0.72318000000000005</v>
       </c>
       <c r="D69">
-        <v>0.73443999999999998</v>
+        <v>0.73101000000000005</v>
       </c>
       <c r="E69">
-        <v>0.71855000000000002</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="F69">
-        <v>0.72360000000000002</v>
+        <v>0.72889000000000004</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.3869999999999938</v>
+        <v>1.588999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2312,23 +2313,23 @@
         <v>11</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>0.73736999999999997</v>
+        <v>0.72884000000000004</v>
       </c>
       <c r="D70">
-        <v>0.74087999999999998</v>
+        <v>0.73443999999999998</v>
       </c>
       <c r="E70">
-        <v>0.72701000000000005</v>
+        <v>0.71855000000000002</v>
       </c>
       <c r="F70">
-        <v>0.72897999999999996</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.0489999999999897</v>
+        <v>1.3869999999999938</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2336,23 +2337,23 @@
         <v>11</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>0.72375999999999996</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D71">
-        <v>0.74361999999999995</v>
+        <v>0.74087999999999998</v>
       </c>
       <c r="E71">
-        <v>0.72313000000000005</v>
+        <v>0.72701000000000005</v>
       </c>
       <c r="F71">
-        <v>0.73928000000000005</v>
+        <v>0.72897999999999996</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.7460000000000031</v>
+        <v>2.0489999999999897</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2360,23 +2361,23 @@
         <v>11</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>0.72857000000000005</v>
+        <v>0.72375999999999996</v>
       </c>
       <c r="D72">
-        <v>0.73507</v>
+        <v>0.74361999999999995</v>
       </c>
       <c r="E72">
-        <v>0.71760999999999997</v>
+        <v>0.72313000000000005</v>
       </c>
       <c r="F72">
-        <v>0.72558</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.4050000000000007</v>
+        <v>1.7460000000000031</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2384,23 +2385,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>0.7339</v>
+        <v>0.72857000000000005</v>
       </c>
       <c r="D73">
-        <v>0.74192999999999998</v>
+        <v>0.73507</v>
       </c>
       <c r="E73">
-        <v>0.72787999999999997</v>
+        <v>0.71760999999999997</v>
       </c>
       <c r="F73">
-        <v>0.73016999999999999</v>
+        <v>0.72558</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.6920000000000046</v>
+        <v>1.4050000000000007</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2408,23 +2409,23 @@
         <v>11</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>0.72809999999999997</v>
+        <v>0.7339</v>
       </c>
       <c r="D74">
-        <v>0.74360999999999999</v>
+        <v>0.74192999999999998</v>
       </c>
       <c r="E74">
-        <v>0.72668999999999995</v>
+        <v>0.72787999999999997</v>
       </c>
       <c r="F74">
-        <v>0.73543999999999998</v>
+        <v>0.73016999999999999</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>0.97199999999999509</v>
+        <v>1.6920000000000046</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2432,23 +2433,23 @@
         <v>11</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>0.72336</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D75">
-        <v>0.73307999999999995</v>
+        <v>0.74360999999999999</v>
       </c>
       <c r="E75">
-        <v>0.72336</v>
+        <v>0.72668999999999995</v>
       </c>
       <c r="F75">
-        <v>0.72809999999999997</v>
+        <v>0.73543999999999998</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.3630000000000031</v>
+        <v>0.97199999999999509</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2456,23 +2457,23 @@
         <v>11</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>0.71603000000000006</v>
+        <v>0.72336</v>
       </c>
       <c r="D76">
-        <v>0.72755999999999998</v>
+        <v>0.73307999999999995</v>
       </c>
       <c r="E76">
-        <v>0.71392999999999995</v>
+        <v>0.72336</v>
       </c>
       <c r="F76">
-        <v>0.72570999999999997</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2480,23 +2481,23 @@
         <v>11</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>0.71016000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="D77">
-        <v>0.71860000000000002</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="E77">
-        <v>0.69908999999999999</v>
+        <v>0.71392999999999995</v>
       </c>
       <c r="F77">
-        <v>0.71677999999999997</v>
+        <v>0.72570999999999997</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.2519999999999976</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2504,23 +2505,23 @@
         <v>11</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>0.69979000000000002</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D78">
-        <v>0.71231</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E78">
-        <v>0.69979000000000002</v>
+        <v>0.69908999999999999</v>
       </c>
       <c r="F78">
-        <v>0.7087</v>
+        <v>0.71677999999999997</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0.73799999999999422</v>
+        <v>1.2519999999999976</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2528,23 +2529,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>0.69943999999999995</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D79">
-        <v>0.70272999999999997</v>
+        <v>0.71231</v>
       </c>
       <c r="E79">
-        <v>0.69535000000000002</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="F79">
-        <v>0.70248999999999995</v>
+        <v>0.7087</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.0020000000000038</v>
+        <v>0.73799999999999422</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2552,23 +2553,23 @@
         <v>11</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>0.68362000000000001</v>
+        <v>0.69943999999999995</v>
       </c>
       <c r="D80">
-        <v>0.70330999999999999</v>
+        <v>0.70272999999999997</v>
       </c>
       <c r="E80">
-        <v>0.68328999999999995</v>
+        <v>0.69535000000000002</v>
       </c>
       <c r="F80">
-        <v>0.69911000000000001</v>
+        <v>0.70248999999999995</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0.94499999999999584</v>
+        <v>2.0020000000000038</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2576,23 +2577,23 @@
         <v>11</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>0.68579999999999997</v>
+        <v>0.68362000000000001</v>
       </c>
       <c r="D81">
-        <v>0.69160999999999995</v>
+        <v>0.70330999999999999</v>
       </c>
       <c r="E81">
-        <v>0.68215999999999999</v>
+        <v>0.68328999999999995</v>
       </c>
       <c r="F81">
-        <v>0.68357999999999997</v>
+        <v>0.69911000000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.2839999999999963</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2600,23 +2601,23 @@
         <v>11</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>0.68781000000000003</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="D82">
-        <v>0.69447999999999999</v>
+        <v>0.69160999999999995</v>
       </c>
       <c r="E82">
-        <v>0.68164000000000002</v>
+        <v>0.68215999999999999</v>
       </c>
       <c r="F82">
-        <v>0.68866000000000005</v>
+        <v>0.68357999999999997</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.1600000000000055</v>
+        <v>1.2839999999999963</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2624,23 +2625,23 @@
         <v>11</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>0.68015999999999999</v>
+        <v>0.68781000000000003</v>
       </c>
       <c r="D83">
-        <v>0.69045000000000001</v>
+        <v>0.69447999999999999</v>
       </c>
       <c r="E83">
-        <v>0.67884999999999995</v>
+        <v>0.68164000000000002</v>
       </c>
       <c r="F83">
-        <v>0.68779999999999997</v>
+        <v>0.68866000000000005</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.5689999999999982</v>
+        <v>1.1600000000000055</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2648,23 +2649,23 @@
         <v>11</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>0.69210000000000005</v>
+        <v>0.68015999999999999</v>
       </c>
       <c r="D84">
-        <v>0.69367999999999996</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="E84">
-        <v>0.67798999999999998</v>
+        <v>0.67884999999999995</v>
       </c>
       <c r="F84">
-        <v>0.68142999999999998</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.0499999999999954</v>
+        <v>1.5689999999999982</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2672,23 +2673,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>0.69038999999999995</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="D85">
-        <v>0.69791999999999998</v>
+        <v>0.69367999999999996</v>
       </c>
       <c r="E85">
-        <v>0.68742000000000003</v>
+        <v>0.67798999999999998</v>
       </c>
       <c r="F85">
-        <v>0.69277</v>
+        <v>0.68142999999999998</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.2029999999999985</v>
+        <v>1.0499999999999954</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2696,23 +2697,23 @@
         <v>11</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>0.68622000000000005</v>
+        <v>0.69038999999999995</v>
       </c>
       <c r="D86">
-        <v>0.69506999999999997</v>
+        <v>0.69791999999999998</v>
       </c>
       <c r="E86">
-        <v>0.68303999999999998</v>
+        <v>0.68742000000000003</v>
       </c>
       <c r="F86">
-        <v>0.69052000000000002</v>
+        <v>0.69277</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.857999999999993</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2720,23 +2721,23 @@
         <v>11</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>0.69428000000000001</v>
+        <v>0.68622000000000005</v>
       </c>
       <c r="D87">
-        <v>0.70035999999999998</v>
+        <v>0.69506999999999997</v>
       </c>
       <c r="E87">
-        <v>0.68178000000000005</v>
+        <v>0.68303999999999998</v>
       </c>
       <c r="F87">
-        <v>0.68718999999999997</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>2.5389999999999913</v>
+        <v>1.857999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2744,23 +2745,23 @@
         <v>11</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>0.71731999999999996</v>
+        <v>0.69428000000000001</v>
       </c>
       <c r="D88">
-        <v>0.72070999999999996</v>
+        <v>0.70035999999999998</v>
       </c>
       <c r="E88">
-        <v>0.69532000000000005</v>
+        <v>0.68178000000000005</v>
       </c>
       <c r="F88">
-        <v>0.69630000000000003</v>
+        <v>0.68718999999999997</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.4090000000000047</v>
+        <v>2.5389999999999913</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2768,23 +2769,23 @@
         <v>11</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>0.70626</v>
+        <v>0.71731999999999996</v>
       </c>
       <c r="D89">
-        <v>0.71960000000000002</v>
+        <v>0.72070999999999996</v>
       </c>
       <c r="E89">
-        <v>0.70550999999999997</v>
+        <v>0.69532000000000005</v>
       </c>
       <c r="F89">
-        <v>0.71862999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.6710000000000003</v>
+        <v>1.4090000000000047</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2792,23 +2793,23 @@
         <v>11</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>0.72075</v>
+        <v>0.70626</v>
       </c>
       <c r="D90">
-        <v>0.72253999999999996</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="E90">
-        <v>0.70582999999999996</v>
+        <v>0.70550999999999997</v>
       </c>
       <c r="F90">
-        <v>0.70882000000000001</v>
+        <v>0.71862999999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.5809999999999991</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2816,23 +2817,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>0.73228000000000004</v>
+        <v>0.72075</v>
       </c>
       <c r="D91">
-        <v>0.73241000000000001</v>
+        <v>0.72253999999999996</v>
       </c>
       <c r="E91">
-        <v>0.71660000000000001</v>
+        <v>0.70582999999999996</v>
       </c>
       <c r="F91">
-        <v>0.72182000000000002</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.8789999999999973</v>
+        <v>1.5809999999999991</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2840,23 +2841,23 @@
         <v>11</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>0.72833000000000003</v>
+        <v>0.73228000000000004</v>
       </c>
       <c r="D92">
-        <v>0.74348999999999998</v>
+        <v>0.73241000000000001</v>
       </c>
       <c r="E92">
-        <v>0.72470000000000001</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="F92">
-        <v>0.73255999999999999</v>
+        <v>0.72182000000000002</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>1.8789999999999973</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2864,23 +2865,23 @@
         <v>11</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>0.72552000000000005</v>
+        <v>0.72833000000000003</v>
       </c>
       <c r="D93">
-        <v>0.73202</v>
+        <v>0.74348999999999998</v>
       </c>
       <c r="E93">
-        <v>0.71828999999999998</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="F93">
-        <v>0.72912999999999994</v>
+        <v>0.73255999999999999</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.8569999999999975</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2888,23 +2889,23 @@
         <v>11</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>0.71514</v>
+        <v>0.72552000000000005</v>
       </c>
       <c r="D94">
-        <v>0.73370999999999997</v>
+        <v>0.73202</v>
       </c>
       <c r="E94">
-        <v>0.71514</v>
+        <v>0.71828999999999998</v>
       </c>
       <c r="F94">
-        <v>0.72667999999999999</v>
+        <v>0.72912999999999994</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.698999999999995</v>
+        <v>1.8569999999999975</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2912,23 +2913,23 @@
         <v>11</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>0.72343000000000002</v>
+        <v>0.71514</v>
       </c>
       <c r="D95">
-        <v>0.7298</v>
+        <v>0.73370999999999997</v>
       </c>
       <c r="E95">
-        <v>0.71281000000000005</v>
+        <v>0.71514</v>
       </c>
       <c r="F95">
-        <v>0.71604000000000001</v>
+        <v>0.72667999999999999</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.4560000000000017</v>
+        <v>1.698999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2936,23 +2937,23 @@
         <v>11</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>0.73097999999999996</v>
+        <v>0.72343000000000002</v>
       </c>
       <c r="D96">
-        <v>0.73365999999999998</v>
+        <v>0.7298</v>
       </c>
       <c r="E96">
-        <v>0.71909999999999996</v>
+        <v>0.71281000000000005</v>
       </c>
       <c r="F96">
-        <v>0.72406000000000004</v>
+        <v>0.71604000000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.1190000000000033</v>
+        <v>1.4560000000000017</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2960,23 +2961,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>0.73126999999999998</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="D97">
-        <v>0.73346</v>
+        <v>0.73365999999999998</v>
       </c>
       <c r="E97">
-        <v>0.72226999999999997</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="F97">
-        <v>0.73134999999999994</v>
+        <v>0.72406000000000004</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.646000000000003</v>
+        <v>1.1190000000000033</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2984,23 +2985,23 @@
         <v>11</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>0.74012</v>
+        <v>0.73126999999999998</v>
       </c>
       <c r="D98">
-        <v>0.74158000000000002</v>
+        <v>0.73346</v>
       </c>
       <c r="E98">
-        <v>0.72511999999999999</v>
+        <v>0.72226999999999997</v>
       </c>
       <c r="F98">
-        <v>0.73209000000000002</v>
+        <v>0.73134999999999994</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.3379999999999947</v>
+        <v>1.646000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3008,23 +3009,23 @@
         <v>11</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>0.74985999999999997</v>
+        <v>0.74012</v>
       </c>
       <c r="D99">
-        <v>0.75239999999999996</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="E99">
-        <v>0.73902000000000001</v>
+        <v>0.72511999999999999</v>
       </c>
       <c r="F99">
-        <v>0.74175000000000002</v>
+        <v>0.73209000000000002</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.5679999999999916</v>
+        <v>1.3379999999999947</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3032,23 +3033,23 @@
         <v>11</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>0.74424999999999997</v>
+        <v>0.74985999999999997</v>
       </c>
       <c r="D100">
-        <v>0.75573999999999997</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E100">
-        <v>0.74006000000000005</v>
+        <v>0.73902000000000001</v>
       </c>
       <c r="F100">
-        <v>0.75194000000000005</v>
+        <v>0.74175000000000002</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.5679999999999916</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3056,23 +3057,23 @@
         <v>11</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>0.73424999999999996</v>
+        <v>0.74424999999999997</v>
       </c>
       <c r="D101">
-        <v>0.74575999999999998</v>
+        <v>0.75573999999999997</v>
       </c>
       <c r="E101">
-        <v>0.72619999999999996</v>
+        <v>0.74006000000000005</v>
       </c>
       <c r="F101">
-        <v>0.74563000000000001</v>
+        <v>0.75194000000000005</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.6689999999999983</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3080,23 +3081,23 @@
         <v>11</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>0.72690999999999995</v>
+        <v>0.73424999999999996</v>
       </c>
       <c r="D102">
-        <v>0.73678999999999994</v>
+        <v>0.74575999999999998</v>
       </c>
       <c r="E102">
-        <v>0.72009999999999996</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="F102">
-        <v>0.73412999999999995</v>
+        <v>0.74563000000000001</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.0109999999999952</v>
+        <v>1.6689999999999983</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3104,23 +3105,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>0.73212999999999995</v>
+        <v>0.72690999999999995</v>
       </c>
       <c r="D103">
-        <v>0.73446</v>
+        <v>0.73678999999999994</v>
       </c>
       <c r="E103">
-        <v>0.72435000000000005</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="F103">
-        <v>0.72750000000000004</v>
+        <v>0.73412999999999995</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0.93100000000000405</v>
+        <v>1.0109999999999952</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3128,23 +3129,23 @@
         <v>11</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>0.72755999999999998</v>
+        <v>0.73212999999999995</v>
       </c>
       <c r="D104">
-        <v>0.73458000000000001</v>
+        <v>0.73446</v>
       </c>
       <c r="E104">
-        <v>0.72526999999999997</v>
+        <v>0.72435000000000005</v>
       </c>
       <c r="F104">
-        <v>0.73243000000000003</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.9199999999999986</v>
+        <v>0.93100000000000405</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3152,23 +3153,23 @@
         <v>11</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>0.72470000000000001</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="D105">
-        <v>0.72975999999999996</v>
+        <v>0.73458000000000001</v>
       </c>
       <c r="E105">
-        <v>0.72055999999999998</v>
+        <v>0.72526999999999997</v>
       </c>
       <c r="F105">
-        <v>0.72829999999999995</v>
+        <v>0.73243000000000003</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.4839999999999964</v>
+        <v>0.9199999999999986</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3176,23 +3177,23 @@
         <v>11</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>0.72026000000000001</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="D106">
-        <v>0.73185</v>
+        <v>0.72975999999999996</v>
       </c>
       <c r="E106">
-        <v>0.71701000000000004</v>
+        <v>0.72055999999999998</v>
       </c>
       <c r="F106">
-        <v>0.72531999999999996</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.0900000000000021</v>
+        <v>1.4839999999999964</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3200,23 +3201,23 @@
         <v>11</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>0.71318000000000004</v>
+        <v>0.72026000000000001</v>
       </c>
       <c r="D107">
-        <v>0.72223000000000004</v>
+        <v>0.73185</v>
       </c>
       <c r="E107">
-        <v>0.71133000000000002</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="F107">
-        <v>0.72104999999999997</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.1199999999999988</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3224,23 +3225,23 @@
         <v>11</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>0.70515000000000005</v>
+        <v>0.71318000000000004</v>
       </c>
       <c r="D108">
-        <v>0.71462999999999999</v>
+        <v>0.72223000000000004</v>
       </c>
       <c r="E108">
-        <v>0.70343</v>
+        <v>0.71133000000000002</v>
       </c>
       <c r="F108">
-        <v>0.71458999999999995</v>
+        <v>0.72104999999999997</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.5979999999999994</v>
+        <v>1.1199999999999988</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3248,23 +3249,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>0.69162000000000001</v>
+        <v>0.70515000000000005</v>
       </c>
       <c r="D109">
-        <v>0.70760000000000001</v>
+        <v>0.71462999999999999</v>
       </c>
       <c r="E109">
-        <v>0.69162000000000001</v>
+        <v>0.70343</v>
       </c>
       <c r="F109">
-        <v>0.70647000000000004</v>
+        <v>0.71458999999999995</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.1149999999999993</v>
+        <v>1.5979999999999994</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3272,23 +3273,23 @@
         <v>11</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>0.68542999999999998</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="D110">
-        <v>0.69493000000000005</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="E110">
-        <v>0.68378000000000005</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="F110">
-        <v>0.69294999999999995</v>
+        <v>0.70647000000000004</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.3299999999999979</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3296,23 +3297,23 @@
         <v>11</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>0.68998000000000004</v>
+        <v>0.68542999999999998</v>
       </c>
       <c r="D111">
-        <v>0.69501000000000002</v>
+        <v>0.69493000000000005</v>
       </c>
       <c r="E111">
-        <v>0.68171000000000004</v>
+        <v>0.68378000000000005</v>
       </c>
       <c r="F111">
-        <v>0.68606999999999996</v>
+        <v>0.69294999999999995</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.2979999999999992</v>
+        <v>1.3299999999999979</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3320,23 +3321,23 @@
         <v>11</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>0.68608000000000002</v>
+        <v>0.68998000000000004</v>
       </c>
       <c r="D112">
-        <v>0.69681000000000004</v>
+        <v>0.69501000000000002</v>
       </c>
       <c r="E112">
-        <v>0.68383000000000005</v>
+        <v>0.68171000000000004</v>
       </c>
       <c r="F112">
-        <v>0.69237000000000004</v>
+        <v>0.68606999999999996</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.9880000000000009</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3344,23 +3345,23 @@
         <v>11</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>0.7026</v>
+        <v>0.68608000000000002</v>
       </c>
       <c r="D113">
-        <v>0.70464000000000004</v>
+        <v>0.69681000000000004</v>
       </c>
       <c r="E113">
-        <v>0.68476000000000004</v>
+        <v>0.68383000000000005</v>
       </c>
       <c r="F113">
-        <v>0.68632000000000004</v>
+        <v>0.69237000000000004</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0.69200000000000372</v>
+        <v>1.9880000000000009</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3368,23 +3369,23 @@
         <v>11</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>0.69986999999999999</v>
+        <v>0.7026</v>
       </c>
       <c r="D114">
-        <v>0.70521</v>
+        <v>0.70464000000000004</v>
       </c>
       <c r="E114">
-        <v>0.69828999999999997</v>
+        <v>0.68476000000000004</v>
       </c>
       <c r="F114">
-        <v>0.70306000000000002</v>
+        <v>0.68632000000000004</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>1.0589999999999988</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3392,23 +3393,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>0.69335000000000002</v>
+        <v>0.69986999999999999</v>
       </c>
       <c r="D115">
-        <v>0.70143999999999995</v>
+        <v>0.70521</v>
       </c>
       <c r="E115">
-        <v>0.69084999999999996</v>
+        <v>0.69828999999999997</v>
       </c>
       <c r="F115">
-        <v>0.70028000000000001</v>
+        <v>0.70306000000000002</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.96100000000000074</v>
+        <v>1.0589999999999988</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3416,23 +3417,23 @@
         <v>11</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>0.70004999999999995</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="D116">
-        <v>0.70213999999999999</v>
+        <v>0.70143999999999995</v>
       </c>
       <c r="E116">
-        <v>0.69252999999999998</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="F116">
-        <v>0.69303999999999999</v>
+        <v>0.70028000000000001</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.92599999999999349</v>
+        <v>0.96100000000000074</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3440,23 +3441,23 @@
         <v>11</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>0.70326999999999995</v>
+        <v>0.70004999999999995</v>
       </c>
       <c r="D117">
-        <v>0.70670999999999995</v>
+        <v>0.70213999999999999</v>
       </c>
       <c r="E117">
-        <v>0.69745000000000001</v>
+        <v>0.69252999999999998</v>
       </c>
       <c r="F117">
-        <v>0.70109999999999995</v>
+        <v>0.69303999999999999</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.95300000000000384</v>
+        <v>0.92599999999999349</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3464,23 +3465,23 @@
         <v>11</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>0.70133999999999996</v>
+        <v>0.70326999999999995</v>
       </c>
       <c r="D118">
-        <v>0.70891000000000004</v>
+        <v>0.70670999999999995</v>
       </c>
       <c r="E118">
-        <v>0.69938</v>
+        <v>0.69745000000000001</v>
       </c>
       <c r="F118">
-        <v>0.70296000000000003</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.5539999999999998</v>
+        <v>0.95300000000000384</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3488,23 +3489,23 @@
         <v>11</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>0.69291000000000003</v>
+        <v>0.70133999999999996</v>
       </c>
       <c r="D119">
-        <v>0.70484999999999998</v>
+        <v>0.70891000000000004</v>
       </c>
       <c r="E119">
-        <v>0.68930999999999998</v>
+        <v>0.69938</v>
       </c>
       <c r="F119">
-        <v>0.70118999999999998</v>
+        <v>0.70296000000000003</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.5510000000000024</v>
+        <v>1.5539999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3512,23 +3513,23 @@
         <v>11</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>0.70189999999999997</v>
+        <v>0.69291000000000003</v>
       </c>
       <c r="D120">
-        <v>0.70447000000000004</v>
+        <v>0.70484999999999998</v>
       </c>
       <c r="E120">
-        <v>0.68896000000000002</v>
+        <v>0.68930999999999998</v>
       </c>
       <c r="F120">
-        <v>0.69264999999999999</v>
+        <v>0.70118999999999998</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.3720000000000074</v>
+        <v>1.5510000000000024</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3536,23 +3537,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>0.71955000000000002</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="D121">
-        <v>0.72367000000000004</v>
+        <v>0.70447000000000004</v>
       </c>
       <c r="E121">
-        <v>0.69994999999999996</v>
+        <v>0.68896000000000002</v>
       </c>
       <c r="F121">
-        <v>0.70386000000000004</v>
+        <v>0.69264999999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.1660000000000004</v>
+        <v>2.3720000000000074</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3560,23 +3561,23 @@
         <v>11</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>0.71914999999999996</v>
+        <v>0.71955000000000002</v>
       </c>
       <c r="D122">
-        <v>0.72458999999999996</v>
+        <v>0.72367000000000004</v>
       </c>
       <c r="E122">
-        <v>0.71292999999999995</v>
+        <v>0.69994999999999996</v>
       </c>
       <c r="F122">
-        <v>0.71945000000000003</v>
+        <v>0.70386000000000004</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.0830000000000006</v>
+        <v>1.1660000000000004</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3584,23 +3585,23 @@
         <v>11</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>0.71987999999999996</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="D123">
-        <v>0.72421000000000002</v>
+        <v>0.72458999999999996</v>
       </c>
       <c r="E123">
-        <v>0.71338000000000001</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="F123">
-        <v>0.71828000000000003</v>
+        <v>0.71945000000000003</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.0299999999999985</v>
+        <v>1.0830000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3608,23 +3609,23 @@
         <v>11</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>0.73029999999999995</v>
+        <v>0.71987999999999996</v>
       </c>
       <c r="D124">
-        <v>0.73753000000000002</v>
+        <v>0.72421000000000002</v>
       </c>
       <c r="E124">
-        <v>0.71723000000000003</v>
+        <v>0.71338000000000001</v>
       </c>
       <c r="F124">
-        <v>0.71967999999999999</v>
+        <v>0.71828000000000003</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.21</v>
+        <v>2.0299999999999985</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3632,23 +3633,23 @@
         <v>11</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>0.72675000000000001</v>
+        <v>0.73029999999999995</v>
       </c>
       <c r="D125">
-        <v>0.73494000000000004</v>
+        <v>0.73753000000000002</v>
       </c>
       <c r="E125">
-        <v>0.72284000000000004</v>
+        <v>0.71723000000000003</v>
       </c>
       <c r="F125">
-        <v>0.73080000000000001</v>
+        <v>0.71967999999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>1.5919999999999934</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3656,23 +3657,23 @@
         <v>11</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>0.71508000000000005</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="D126">
-        <v>0.73099999999999998</v>
+        <v>0.73494000000000004</v>
       </c>
       <c r="E126">
-        <v>0.71508000000000005</v>
+        <v>0.72284000000000004</v>
       </c>
       <c r="F126">
-        <v>0.72636999999999996</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.4880000000000004</v>
+        <v>1.5919999999999934</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3680,23 +3681,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>0.70909</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="D127">
-        <v>0.72243000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E127">
-        <v>0.70755000000000001</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="F127">
-        <v>0.71657999999999999</v>
+        <v>0.72636999999999996</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.4880000000000004</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3704,23 +3705,23 @@
         <v>11</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>0.69610000000000005</v>
+        <v>0.70909</v>
       </c>
       <c r="D128">
-        <v>0.71438000000000001</v>
+        <v>0.72243000000000002</v>
       </c>
       <c r="E128">
-        <v>0.69481999999999999</v>
+        <v>0.70755000000000001</v>
       </c>
       <c r="F128">
-        <v>0.71253999999999995</v>
+        <v>0.71657999999999999</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.5859999999999985</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3728,23 +3729,23 @@
         <v>11</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>0.69096999999999997</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="D129">
-        <v>0.70426</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E129">
-        <v>0.68840000000000001</v>
+        <v>0.69481999999999999</v>
       </c>
       <c r="F129">
-        <v>0.69571000000000005</v>
+        <v>0.71253999999999995</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.2419999999999987</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3752,23 +3753,23 @@
         <v>11</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>0.68532000000000004</v>
+        <v>0.69096999999999997</v>
       </c>
       <c r="D130">
-        <v>0.6976</v>
+        <v>0.70426</v>
       </c>
       <c r="E130">
-        <v>0.68518000000000001</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="F130">
-        <v>0.69323000000000001</v>
+        <v>0.69571000000000005</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.2700000000000045</v>
+        <v>1.2419999999999987</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3776,23 +3777,23 @@
         <v>11</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>0.69633999999999996</v>
+        <v>0.68532000000000004</v>
       </c>
       <c r="D131">
-        <v>0.69882</v>
+        <v>0.6976</v>
       </c>
       <c r="E131">
-        <v>0.68611999999999995</v>
+        <v>0.68518000000000001</v>
       </c>
       <c r="F131">
-        <v>0.68783000000000005</v>
+        <v>0.69323000000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>3.0759999999999899</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3800,23 +3801,23 @@
         <v>11</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>0.71235999999999999</v>
+        <v>0.69633999999999996</v>
       </c>
       <c r="D132">
-        <v>0.72380999999999995</v>
+        <v>0.69882</v>
       </c>
       <c r="E132">
-        <v>0.69305000000000005</v>
+        <v>0.68611999999999995</v>
       </c>
       <c r="F132">
-        <v>0.69547000000000003</v>
+        <v>0.68783000000000005</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>1.529999999999998</v>
+        <v>3.0759999999999899</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3824,23 +3825,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>0.71306000000000003</v>
+        <v>0.71235999999999999</v>
       </c>
       <c r="D133">
-        <v>0.72216999999999998</v>
+        <v>0.72380999999999995</v>
       </c>
       <c r="E133">
-        <v>0.70687</v>
+        <v>0.69305000000000005</v>
       </c>
       <c r="F133">
-        <v>0.71350000000000002</v>
+        <v>0.69547000000000003</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>1.3639999999999985</v>
+        <v>1.529999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3848,23 +3849,23 @@
         <v>11</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>0.70416999999999996</v>
+        <v>0.71306000000000003</v>
       </c>
       <c r="D134">
-        <v>0.71687999999999996</v>
+        <v>0.72216999999999998</v>
       </c>
       <c r="E134">
-        <v>0.70323999999999998</v>
+        <v>0.70687</v>
       </c>
       <c r="F134">
-        <v>0.71379000000000004</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.140999999999992</v>
+        <v>1.3639999999999985</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3872,23 +3873,23 @@
         <v>11</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>0.69879999999999998</v>
+        <v>0.70416999999999996</v>
       </c>
       <c r="D135">
-        <v>0.70848999999999995</v>
+        <v>0.71687999999999996</v>
       </c>
       <c r="E135">
-        <v>0.69708000000000003</v>
+        <v>0.70323999999999998</v>
       </c>
       <c r="F135">
-        <v>0.70420000000000005</v>
+        <v>0.71379000000000004</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.4399999999999968</v>
+        <v>1.140999999999992</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3896,23 +3897,23 @@
         <v>11</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>0.71365999999999996</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="D136">
-        <v>0.71438000000000001</v>
+        <v>0.70848999999999995</v>
       </c>
       <c r="E136">
-        <v>0.69998000000000005</v>
+        <v>0.69708000000000003</v>
       </c>
       <c r="F136">
-        <v>0.70084000000000002</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>2.9460000000000042</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3920,23 +3921,23 @@
         <v>11</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>0.73316999999999999</v>
+        <v>0.71365999999999996</v>
       </c>
       <c r="D137">
-        <v>0.74023000000000005</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E137">
-        <v>0.71077000000000001</v>
+        <v>0.69998000000000005</v>
       </c>
       <c r="F137">
-        <v>0.71277999999999997</v>
+        <v>0.70084000000000002</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.0140000000000047</v>
+        <v>2.9460000000000042</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3944,23 +3945,23 @@
         <v>11</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>0.71547000000000005</v>
+        <v>0.73316999999999999</v>
       </c>
       <c r="D138">
-        <v>0.73382000000000003</v>
+        <v>0.74023000000000005</v>
       </c>
       <c r="E138">
-        <v>0.71367999999999998</v>
+        <v>0.71077000000000001</v>
       </c>
       <c r="F138">
-        <v>0.73285999999999996</v>
+        <v>0.71277999999999997</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>0.75799999999999201</v>
+        <v>2.0140000000000047</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3968,23 +3969,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>0.71538999999999997</v>
+        <v>0.71547000000000005</v>
       </c>
       <c r="D139">
-        <v>0.71831999999999996</v>
+        <v>0.73382000000000003</v>
       </c>
       <c r="E139">
-        <v>0.71074000000000004</v>
+        <v>0.71367999999999998</v>
       </c>
       <c r="F139">
-        <v>0.71608000000000005</v>
+        <v>0.73285999999999996</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.8869999999999942</v>
+        <v>0.75799999999999201</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3992,23 +3993,23 @@
         <v>11</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>0.70882000000000001</v>
+        <v>0.71538999999999997</v>
       </c>
       <c r="D140">
-        <v>0.72655999999999998</v>
+        <v>0.71831999999999996</v>
       </c>
       <c r="E140">
-        <v>0.70769000000000004</v>
+        <v>0.71074000000000004</v>
       </c>
       <c r="F140">
-        <v>0.71603000000000006</v>
+        <v>0.71608000000000005</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.415999999999995</v>
+        <v>1.8869999999999942</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4016,23 +4017,23 @@
         <v>11</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>0.71433999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="D141">
-        <v>0.71753999999999996</v>
+        <v>0.72655999999999998</v>
       </c>
       <c r="E141">
-        <v>0.70338000000000001</v>
+        <v>0.70769000000000004</v>
       </c>
       <c r="F141">
-        <v>0.70882000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.0060000000000078</v>
+        <v>1.415999999999995</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4040,23 +4041,23 @@
         <v>11</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>0.72813000000000005</v>
+        <v>0.71433999999999997</v>
       </c>
       <c r="D142">
-        <v>0.73099000000000003</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="E142">
-        <v>0.71092999999999995</v>
+        <v>0.70338000000000001</v>
       </c>
       <c r="F142">
-        <v>0.71655999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.1109999999999953</v>
+        <v>2.0060000000000078</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4064,23 +4065,23 @@
         <v>11</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>0.72243999999999997</v>
+        <v>0.72813000000000005</v>
       </c>
       <c r="D143">
-        <v>0.73297999999999996</v>
+        <v>0.73099000000000003</v>
       </c>
       <c r="E143">
-        <v>0.72187000000000001</v>
+        <v>0.71092999999999995</v>
       </c>
       <c r="F143">
-        <v>0.72816999999999998</v>
+        <v>0.71655999999999997</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.4510000000000023</v>
+        <v>1.1109999999999953</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4088,23 +4089,23 @@
         <v>11</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>0.72550999999999999</v>
+        <v>0.72243999999999997</v>
       </c>
       <c r="D144">
-        <v>0.73682000000000003</v>
+        <v>0.73297999999999996</v>
       </c>
       <c r="E144">
-        <v>0.72231000000000001</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="F144">
-        <v>0.72431000000000001</v>
+        <v>0.72816999999999998</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.2900000000000023</v>
+        <v>1.4510000000000023</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4112,23 +4113,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>0.73224999999999996</v>
+        <v>0.72550999999999999</v>
       </c>
       <c r="D145">
-        <v>0.73633999999999999</v>
+        <v>0.73682000000000003</v>
       </c>
       <c r="E145">
-        <v>0.72343999999999997</v>
+        <v>0.72231000000000001</v>
       </c>
       <c r="F145">
-        <v>0.72663999999999995</v>
+        <v>0.72431000000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.0170000000000021</v>
+        <v>1.2900000000000023</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4136,23 +4137,23 @@
         <v>11</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>0.72841</v>
+        <v>0.73224999999999996</v>
       </c>
       <c r="D146">
-        <v>0.74848000000000003</v>
+        <v>0.73633999999999999</v>
       </c>
       <c r="E146">
-        <v>0.72831000000000001</v>
+        <v>0.72343999999999997</v>
       </c>
       <c r="F146">
-        <v>0.73233999999999999</v>
+        <v>0.72663999999999995</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.5599999999999947</v>
+        <v>2.0170000000000021</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4160,23 +4161,23 @@
         <v>11</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>0.72187000000000001</v>
+        <v>0.72841</v>
       </c>
       <c r="D147">
-        <v>0.73594999999999999</v>
+        <v>0.74848000000000003</v>
       </c>
       <c r="E147">
-        <v>0.72035000000000005</v>
+        <v>0.72831000000000001</v>
       </c>
       <c r="F147">
-        <v>0.72909000000000002</v>
+        <v>0.73233999999999999</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.7100000000000004</v>
+        <v>1.5599999999999947</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4184,23 +4185,23 @@
         <v>11</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>0.72502999999999995</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="D148">
-        <v>0.73797999999999997</v>
+        <v>0.73594999999999999</v>
       </c>
       <c r="E148">
-        <v>0.72087999999999997</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="F148">
-        <v>0.72333000000000003</v>
+        <v>0.72909000000000002</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.5730000000000022</v>
+        <v>1.7100000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4208,23 +4209,23 @@
         <v>11</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>0.71886000000000005</v>
+        <v>0.72502999999999995</v>
       </c>
       <c r="D149">
-        <v>0.73214000000000001</v>
+        <v>0.73797999999999997</v>
       </c>
       <c r="E149">
-        <v>0.71640999999999999</v>
+        <v>0.72087999999999997</v>
       </c>
       <c r="F149">
-        <v>0.72694000000000003</v>
+        <v>0.72333000000000003</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>2.2150000000000003</v>
+        <v>1.5730000000000022</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4232,23 +4233,23 @@
         <v>11</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>0.71126999999999996</v>
+        <v>0.71886000000000005</v>
       </c>
       <c r="D150">
-        <v>0.73082000000000003</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E150">
-        <v>0.70867000000000002</v>
+        <v>0.71640999999999999</v>
       </c>
       <c r="F150">
-        <v>0.72009999999999996</v>
+        <v>0.72694000000000003</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.3479999999999936</v>
+        <v>2.2150000000000003</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4256,23 +4257,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>0.71984000000000004</v>
+        <v>0.71126999999999996</v>
       </c>
       <c r="D151">
-        <v>0.72558999999999996</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="E151">
-        <v>0.71211000000000002</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F151">
-        <v>0.71357000000000004</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.7290000000000036</v>
+        <v>1.3479999999999936</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4280,23 +4281,23 @@
         <v>11</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>0.69916</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="D152">
-        <v>0.72291000000000005</v>
+        <v>0.72558999999999996</v>
       </c>
       <c r="E152">
-        <v>0.69562000000000002</v>
+        <v>0.71211000000000002</v>
       </c>
       <c r="F152">
-        <v>0.72157000000000004</v>
+        <v>0.71357000000000004</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.0090000000000052</v>
+        <v>2.7290000000000036</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4304,23 +4305,23 @@
         <v>11</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>0.71360000000000001</v>
+        <v>0.69916</v>
       </c>
       <c r="D153">
-        <v>0.71506000000000003</v>
+        <v>0.72291000000000005</v>
       </c>
       <c r="E153">
-        <v>0.69496999999999998</v>
+        <v>0.69562000000000002</v>
       </c>
       <c r="F153">
-        <v>0.70004</v>
+        <v>0.72157000000000004</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.1000000000000019</v>
+        <v>2.0090000000000052</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4328,23 +4329,23 @@
         <v>11</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>0.72850000000000004</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="D154">
-        <v>0.73238999999999999</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="E154">
-        <v>0.71138999999999997</v>
+        <v>0.69496999999999998</v>
       </c>
       <c r="F154">
-        <v>0.71257000000000004</v>
+        <v>0.70004</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.2680000000000033</v>
+        <v>2.1000000000000019</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4352,23 +4353,23 @@
         <v>11</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>0.71706000000000003</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="D155">
-        <v>0.73060000000000003</v>
+        <v>0.73238999999999999</v>
       </c>
       <c r="E155">
-        <v>0.70791999999999999</v>
+        <v>0.71138999999999997</v>
       </c>
       <c r="F155">
-        <v>0.73016000000000003</v>
+        <v>0.71257000000000004</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.1690000000000098</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4376,23 +4377,23 @@
         <v>11</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>0.70628999999999997</v>
+        <v>0.71706000000000003</v>
       </c>
       <c r="D156">
-        <v>0.71969000000000005</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="E156">
-        <v>0.69799999999999995</v>
+        <v>0.70791999999999999</v>
       </c>
       <c r="F156">
-        <v>0.71635000000000004</v>
+        <v>0.73016000000000003</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>3.3590000000000009</v>
+        <v>2.1690000000000098</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4400,23 +4401,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>0.70665999999999995</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="D157">
-        <v>0.72736000000000001</v>
+        <v>0.71969000000000005</v>
       </c>
       <c r="E157">
-        <v>0.69377</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="F157">
-        <v>0.71240000000000003</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>1.2979999999999992</v>
+        <v>3.3590000000000009</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4424,23 +4425,23 @@
         <v>11</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>0.70416000000000001</v>
+        <v>0.70665999999999995</v>
       </c>
       <c r="D158">
-        <v>0.70926999999999996</v>
+        <v>0.72736000000000001</v>
       </c>
       <c r="E158">
-        <v>0.69628999999999996</v>
+        <v>0.69377</v>
       </c>
       <c r="F158">
-        <v>0.70562000000000002</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>2.5480000000000058</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4448,23 +4449,23 @@
         <v>11</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>0.69396000000000002</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="D159">
-        <v>0.71472000000000002</v>
+        <v>0.70926999999999996</v>
       </c>
       <c r="E159">
-        <v>0.68923999999999996</v>
+        <v>0.69628999999999996</v>
       </c>
       <c r="F159">
-        <v>0.70630000000000004</v>
+        <v>0.70562000000000002</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.8469999999999995</v>
+        <v>2.5480000000000058</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4472,23 +4473,23 @@
         <v>11</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>0.66922000000000004</v>
+        <v>0.69396000000000002</v>
       </c>
       <c r="D160">
-        <v>0.69599999999999995</v>
+        <v>0.71472000000000002</v>
       </c>
       <c r="E160">
-        <v>0.66752999999999996</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="F160">
-        <v>0.69528999999999996</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>1.1929999999999996</v>
+        <v>2.8469999999999995</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4496,23 +4497,23 @@
         <v>11</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>0.67669000000000001</v>
+        <v>0.66922000000000004</v>
       </c>
       <c r="D161">
-        <v>0.68059999999999998</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E161">
-        <v>0.66866999999999999</v>
+        <v>0.66752999999999996</v>
       </c>
       <c r="F161">
-        <v>0.67013</v>
+        <v>0.69528999999999996</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.3229999999999964</v>
+        <v>1.1929999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4520,23 +4521,23 @@
         <v>11</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>0.67618999999999996</v>
+        <v>0.67669000000000001</v>
       </c>
       <c r="D162">
-        <v>0.68418999999999996</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="E162">
-        <v>0.67096</v>
+        <v>0.66866999999999999</v>
       </c>
       <c r="F162">
-        <v>0.67678000000000005</v>
+        <v>0.67013</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.317999999999997</v>
+        <v>1.3229999999999964</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4544,23 +4545,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>0.68247000000000002</v>
+        <v>0.67618999999999996</v>
       </c>
       <c r="D163">
-        <v>0.68472999999999995</v>
+        <v>0.68418999999999996</v>
       </c>
       <c r="E163">
-        <v>0.67154999999999998</v>
+        <v>0.67096</v>
       </c>
       <c r="F163">
-        <v>0.67713999999999996</v>
+        <v>0.67678000000000005</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>2.4660000000000015</v>
+        <v>1.317999999999997</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4568,23 +4569,23 @@
         <v>11</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>0.69789000000000001</v>
+        <v>0.68247000000000002</v>
       </c>
       <c r="D164">
-        <v>0.70530000000000004</v>
+        <v>0.68472999999999995</v>
       </c>
       <c r="E164">
-        <v>0.68064000000000002</v>
+        <v>0.67154999999999998</v>
       </c>
       <c r="F164">
-        <v>0.68411</v>
+        <v>0.67713999999999996</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.0240000000000036</v>
+        <v>2.4660000000000015</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4592,23 +4593,23 @@
         <v>11</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>0.68518999999999997</v>
+        <v>0.69789000000000001</v>
       </c>
       <c r="D165">
-        <v>0.69984000000000002</v>
+        <v>0.70530000000000004</v>
       </c>
       <c r="E165">
-        <v>0.67959999999999998</v>
+        <v>0.68064000000000002</v>
       </c>
       <c r="F165">
-        <v>0.69862999999999997</v>
+        <v>0.68411</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.189999999999992</v>
+        <v>2.0240000000000036</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4616,23 +4617,23 @@
         <v>11</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>0.68859000000000004</v>
+        <v>0.68518999999999997</v>
       </c>
       <c r="D166">
-        <v>0.70531999999999995</v>
+        <v>0.69984000000000002</v>
       </c>
       <c r="E166">
-        <v>0.68342000000000003</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="F166">
-        <v>0.68559000000000003</v>
+        <v>0.69862999999999997</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>1.6120000000000023</v>
+        <v>2.189999999999992</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4640,23 +4641,23 @@
         <v>11</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>0.6804</v>
+        <v>0.68859000000000004</v>
       </c>
       <c r="D167">
-        <v>0.69515000000000005</v>
+        <v>0.70531999999999995</v>
       </c>
       <c r="E167">
-        <v>0.67903000000000002</v>
+        <v>0.68342000000000003</v>
       </c>
       <c r="F167">
-        <v>0.69152999999999998</v>
+        <v>0.68559000000000003</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>1.4499999999999957</v>
+        <v>1.6120000000000023</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4664,23 +4665,23 @@
         <v>11</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>0.68894</v>
+        <v>0.6804</v>
       </c>
       <c r="D168">
-        <v>0.69033999999999995</v>
+        <v>0.69515000000000005</v>
       </c>
       <c r="E168">
-        <v>0.67584</v>
+        <v>0.67903000000000002</v>
       </c>
       <c r="F168">
-        <v>0.68117000000000005</v>
+        <v>0.69152999999999998</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.9800000000000049</v>
+        <v>1.4499999999999957</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4688,23 +4689,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>0.66771000000000003</v>
+        <v>0.68894</v>
       </c>
       <c r="D169">
-        <v>0.69657000000000002</v>
+        <v>0.69033999999999995</v>
       </c>
       <c r="E169">
-        <v>0.66676999999999997</v>
+        <v>0.67584</v>
       </c>
       <c r="F169">
-        <v>0.68979999999999997</v>
+        <v>0.68117000000000005</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>1.203999999999994</v>
+        <v>2.9800000000000049</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4712,23 +4713,23 @@
         <v>11</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
-        <v>0.67849000000000004</v>
+        <v>0.66771000000000003</v>
       </c>
       <c r="D170">
-        <v>0.67911999999999995</v>
+        <v>0.69657000000000002</v>
       </c>
       <c r="E170">
-        <v>0.66708000000000001</v>
+        <v>0.66676999999999997</v>
       </c>
       <c r="F170">
-        <v>0.66847999999999996</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.9889999999999972</v>
+        <v>1.203999999999994</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4736,23 +4737,23 @@
         <v>11</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>0.67249000000000003</v>
+        <v>0.67849000000000004</v>
       </c>
       <c r="D171">
-        <v>0.68735999999999997</v>
+        <v>0.67911999999999995</v>
       </c>
       <c r="E171">
-        <v>0.65747</v>
+        <v>0.66708000000000001</v>
       </c>
       <c r="F171">
-        <v>0.67923</v>
+        <v>0.66847999999999996</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>1.9610000000000016</v>
+        <v>2.9889999999999972</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4760,23 +4761,23 @@
         <v>11</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>0.67825000000000002</v>
+        <v>0.67249000000000003</v>
       </c>
       <c r="D172">
-        <v>0.68147000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E172">
-        <v>0.66186</v>
+        <v>0.65747</v>
       </c>
       <c r="F172">
-        <v>0.67437000000000002</v>
+        <v>0.67923</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.5359999999999938</v>
+        <v>1.9610000000000016</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4784,23 +4785,23 @@
         <v>11</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>0.65854000000000001</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="D173">
-        <v>0.68184999999999996</v>
+        <v>0.68147000000000002</v>
       </c>
       <c r="E173">
-        <v>0.65649000000000002</v>
+        <v>0.66186</v>
       </c>
       <c r="F173">
-        <v>0.68130000000000002</v>
+        <v>0.67437000000000002</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.8819999999999948</v>
+        <v>2.5359999999999938</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4808,23 +4809,23 @@
         <v>11</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>0.66435</v>
+        <v>0.65854000000000001</v>
       </c>
       <c r="D174">
-        <v>0.67742999999999998</v>
+        <v>0.68184999999999996</v>
       </c>
       <c r="E174">
-        <v>0.65861000000000003</v>
+        <v>0.65649000000000002</v>
       </c>
       <c r="F174">
-        <v>0.66269999999999996</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.3140000000000041</v>
+        <v>1.8819999999999948</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4832,23 +4833,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>0.66120000000000001</v>
+        <v>0.66435</v>
       </c>
       <c r="D175">
-        <v>0.66757</v>
+        <v>0.67742999999999998</v>
       </c>
       <c r="E175">
-        <v>0.65442999999999996</v>
+        <v>0.65861000000000003</v>
       </c>
       <c r="F175">
-        <v>0.66310999999999998</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.7500000000000071</v>
+        <v>1.3140000000000041</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4856,23 +4857,23 @@
         <v>11</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>0.66066000000000003</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="D176">
-        <v>0.67373000000000005</v>
+        <v>0.66757</v>
       </c>
       <c r="E176">
-        <v>0.65622999999999998</v>
+        <v>0.65442999999999996</v>
       </c>
       <c r="F176">
-        <v>0.66222999999999999</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>2.9679999999999929</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4880,23 +4881,23 @@
         <v>11</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>0.64739999999999998</v>
+        <v>0.66066000000000003</v>
       </c>
       <c r="D177">
-        <v>0.67452999999999996</v>
+        <v>0.67373000000000005</v>
       </c>
       <c r="E177">
-        <v>0.64485000000000003</v>
+        <v>0.65622999999999998</v>
       </c>
       <c r="F177">
-        <v>0.66293000000000002</v>
+        <v>0.66222999999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>1.2700000000000045</v>
+        <v>2.9679999999999929</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4904,23 +4905,23 @@
         <v>11</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>0.64832999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="D178">
-        <v>0.65429999999999999</v>
+        <v>0.67452999999999996</v>
       </c>
       <c r="E178">
-        <v>0.64159999999999995</v>
+        <v>0.64485000000000003</v>
       </c>
       <c r="F178">
-        <v>0.64795000000000003</v>
+        <v>0.66293000000000002</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.1190000000000042</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4928,23 +4929,23 @@
         <v>11</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>0.64</v>
+        <v>0.64832999999999996</v>
       </c>
       <c r="D179">
-        <v>0.65581</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="E179">
-        <v>0.63461999999999996</v>
+        <v>0.64159999999999995</v>
       </c>
       <c r="F179">
-        <v>0.64880000000000004</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.1040000000000059</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4952,23 +4953,23 @@
         <v>11</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>0.65485000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="D180">
-        <v>0.65885000000000005</v>
+        <v>0.65581</v>
       </c>
       <c r="E180">
-        <v>0.63780999999999999</v>
+        <v>0.63461999999999996</v>
       </c>
       <c r="F180">
-        <v>0.64676</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.9339999999999922</v>
+        <v>2.1040000000000059</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4976,23 +4977,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>0.68196000000000001</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="D181">
-        <v>0.68347999999999998</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="E181">
-        <v>0.65414000000000005</v>
+        <v>0.63780999999999999</v>
       </c>
       <c r="F181">
-        <v>0.65525</v>
+        <v>0.64676</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>0.65100000000000158</v>
+        <v>2.9339999999999922</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5000,23 +5001,23 @@
         <v>11</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>0.68213999999999997</v>
+        <v>0.68196000000000001</v>
       </c>
       <c r="D182">
-        <v>0.68827000000000005</v>
+        <v>0.68347999999999998</v>
       </c>
       <c r="E182">
-        <v>0.68176000000000003</v>
+        <v>0.65414000000000005</v>
       </c>
       <c r="F182">
-        <v>0.68300000000000005</v>
+        <v>0.65525</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.2510000000000021</v>
+        <v>0.65100000000000158</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5024,23 +5025,23 @@
         <v>11</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>0.67186000000000001</v>
+        <v>0.68213999999999997</v>
       </c>
       <c r="D183">
-        <v>0.68422000000000005</v>
+        <v>0.68827000000000005</v>
       </c>
       <c r="E183">
-        <v>0.67171000000000003</v>
+        <v>0.68176000000000003</v>
       </c>
       <c r="F183">
-        <v>0.68305000000000005</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.5750000000000042</v>
+        <v>1.2510000000000021</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5048,23 +5049,23 @@
         <v>11</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>0.67125999999999997</v>
+        <v>0.67186000000000001</v>
       </c>
       <c r="D184">
-        <v>0.68339000000000005</v>
+        <v>0.68422000000000005</v>
       </c>
       <c r="E184">
-        <v>0.66764000000000001</v>
+        <v>0.67171000000000003</v>
       </c>
       <c r="F184">
-        <v>0.67306999999999995</v>
+        <v>0.68305000000000005</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>2.2120000000000029</v>
+        <v>1.5750000000000042</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5072,23 +5073,23 @@
         <v>11</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>0.67362999999999995</v>
+        <v>0.67125999999999997</v>
       </c>
       <c r="D185">
-        <v>0.67813000000000001</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E185">
-        <v>0.65600999999999998</v>
+        <v>0.66764000000000001</v>
       </c>
       <c r="F185">
-        <v>0.67196</v>
+        <v>0.67306999999999995</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>2.7310000000000056</v>
+        <v>2.2120000000000029</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5096,23 +5097,23 @@
         <v>11</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>0.65307999999999999</v>
+        <v>0.67362999999999995</v>
       </c>
       <c r="D186">
-        <v>0.67869000000000002</v>
+        <v>0.67813000000000001</v>
       </c>
       <c r="E186">
-        <v>0.65137999999999996</v>
+        <v>0.65600999999999998</v>
       </c>
       <c r="F186">
-        <v>0.67410999999999999</v>
+        <v>0.67196</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.032999999999995</v>
+        <v>2.7310000000000056</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5120,23 +5121,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>0.65568000000000004</v>
+        <v>0.65307999999999999</v>
       </c>
       <c r="D187">
-        <v>0.65959999999999996</v>
+        <v>0.67869000000000002</v>
       </c>
       <c r="E187">
-        <v>0.64927000000000001</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="F187">
-        <v>0.65317999999999998</v>
+        <v>0.67410999999999999</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.7970000000000041</v>
+        <v>1.032999999999995</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5144,23 +5145,23 @@
         <v>11</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>0.65395999999999999</v>
+        <v>0.65568000000000004</v>
       </c>
       <c r="D188">
-        <v>0.66049000000000002</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="E188">
-        <v>0.64251999999999998</v>
+        <v>0.64927000000000001</v>
       </c>
       <c r="F188">
-        <v>0.65637000000000001</v>
+        <v>0.65317999999999998</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>0.880000000000003</v>
+        <v>1.7970000000000041</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5168,23 +5169,23 @@
         <v>11</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>0.65122000000000002</v>
+        <v>0.65395999999999999</v>
       </c>
       <c r="D189">
-        <v>0.65873000000000004</v>
+        <v>0.66049000000000002</v>
       </c>
       <c r="E189">
-        <v>0.64993000000000001</v>
+        <v>0.64251999999999998</v>
       </c>
       <c r="F189">
-        <v>0.65349000000000002</v>
+        <v>0.65637000000000001</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>2.8680000000000039</v>
+        <v>0.880000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5192,23 +5193,23 @@
         <v>11</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>0.67329000000000006</v>
+        <v>0.65122000000000002</v>
       </c>
       <c r="D190">
-        <v>0.67849999999999999</v>
+        <v>0.65873000000000004</v>
       </c>
       <c r="E190">
-        <v>0.64981999999999995</v>
+        <v>0.64993000000000001</v>
       </c>
       <c r="F190">
-        <v>0.65200000000000002</v>
+        <v>0.65349000000000002</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.9380000000000064</v>
+        <v>2.8680000000000039</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5216,23 +5217,23 @@
         <v>11</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>0.67391000000000001</v>
+        <v>0.67329000000000006</v>
       </c>
       <c r="D191">
-        <v>0.68122000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="E191">
-        <v>0.66183999999999998</v>
+        <v>0.64981999999999995</v>
       </c>
       <c r="F191">
-        <v>0.67737000000000003</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.6710000000000003</v>
+        <v>1.9380000000000064</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5240,23 +5241,23 @@
         <v>11</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>0.68032000000000004</v>
+        <v>0.67391000000000001</v>
       </c>
       <c r="D192">
-        <v>0.68647999999999998</v>
+        <v>0.68122000000000005</v>
       </c>
       <c r="E192">
-        <v>0.66976999999999998</v>
+        <v>0.66183999999999998</v>
       </c>
       <c r="F192">
-        <v>0.67532999999999999</v>
+        <v>0.67737000000000003</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>2.795000000000003</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5264,23 +5265,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>0.66801999999999995</v>
+        <v>0.68032000000000004</v>
       </c>
       <c r="D193">
-        <v>0.68959000000000004</v>
+        <v>0.68647999999999998</v>
       </c>
       <c r="E193">
-        <v>0.66164000000000001</v>
+        <v>0.66976999999999998</v>
       </c>
       <c r="F193">
-        <v>0.68130000000000002</v>
+        <v>0.67532999999999999</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>2.8420000000000001</v>
+        <v>2.795000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5288,23 +5289,23 @@
         <v>11</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>0.64498</v>
+        <v>0.66801999999999995</v>
       </c>
       <c r="D194">
-        <v>0.67210999999999999</v>
+        <v>0.68959000000000004</v>
       </c>
       <c r="E194">
-        <v>0.64368999999999998</v>
+        <v>0.66164000000000001</v>
       </c>
       <c r="F194">
-        <v>0.66939000000000004</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>1.6679999999999917</v>
+        <v>2.8420000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5312,23 +5313,23 @@
         <v>11</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>0.63619999999999999</v>
+        <v>0.64498</v>
       </c>
       <c r="D195">
-        <v>0.64549999999999996</v>
+        <v>0.67210999999999999</v>
       </c>
       <c r="E195">
-        <v>0.62882000000000005</v>
+        <v>0.64368999999999998</v>
       </c>
       <c r="F195">
-        <v>0.64402999999999999</v>
+        <v>0.66939000000000004</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>1.6400000000000081</v>
+        <v>1.6679999999999917</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5336,23 +5337,23 @@
         <v>11</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>0.63821000000000006</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="D196">
-        <v>0.63997000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="E196">
-        <v>0.62356999999999996</v>
+        <v>0.62882000000000005</v>
       </c>
       <c r="F196">
-        <v>0.63832999999999995</v>
+        <v>0.64402999999999999</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.6369999999999996</v>
+        <v>1.6400000000000081</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5360,23 +5361,23 @@
         <v>11</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>0.63210999999999995</v>
+        <v>0.63821000000000006</v>
       </c>
       <c r="D197">
-        <v>0.64561000000000002</v>
+        <v>0.63997000000000004</v>
       </c>
       <c r="E197">
-        <v>0.62924000000000002</v>
+        <v>0.62356999999999996</v>
       </c>
       <c r="F197">
-        <v>0.64056000000000002</v>
+        <v>0.63832999999999995</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.8129999999999979</v>
+        <v>1.6369999999999996</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5384,23 +5385,23 @@
         <v>11</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>0.62829000000000002</v>
+        <v>0.63210999999999995</v>
       </c>
       <c r="D198">
-        <v>0.64246999999999999</v>
+        <v>0.64561000000000002</v>
       </c>
       <c r="E198">
-        <v>0.62434000000000001</v>
+        <v>0.62924000000000002</v>
       </c>
       <c r="F198">
-        <v>0.63166999999999995</v>
+        <v>0.64056000000000002</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.9749999999999934</v>
+        <v>1.8129999999999979</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5408,23 +5409,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>0.64549999999999996</v>
+        <v>0.62829000000000002</v>
       </c>
       <c r="D199">
-        <v>0.64666999999999997</v>
+        <v>0.64246999999999999</v>
       </c>
       <c r="E199">
-        <v>0.62692000000000003</v>
+        <v>0.62434000000000001</v>
       </c>
       <c r="F199">
-        <v>0.62892000000000003</v>
+        <v>0.63166999999999995</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>5.4989999999999988</v>
+        <v>1.9749999999999934</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5432,19 +5433,19 @@
         <v>11</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>0.66652999999999996</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="D200">
-        <v>0.66825000000000001</v>
+        <v>0.64666999999999997</v>
       </c>
       <c r="E200">
-        <v>0.61326000000000003</v>
+        <v>0.62692000000000003</v>
       </c>
       <c r="F200">
-        <v>0.64524999999999999</v>
+        <v>0.62892000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/11_NZDUSD.xlsx
+++ b/volatility/src/xls/11_NZDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="13520" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>107.4</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>38667</v>
+        <v>46015</v>
       </c>
       <c r="E6" s="5">
-        <v>65.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>0.66300000000000014</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>0.67500000000000016</v>
+        <v>0.68800000000000006</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>0.65100000000000013</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>0.65500000000000003</v>
+        <v>0.66799999999999993</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>0.64300000000000002</v>
+        <v>0.65599999999999992</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>0.66700000000000004</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,13 +620,11 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -669,7 +667,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.1809999999999987</v>
+        <v>1.3809999999999989</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -681,23 +679,23 @@
         <v>11</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>0.64907999999999999</v>
+        <v>0.65824000000000005</v>
       </c>
       <c r="D2">
-        <v>0.66034999999999999</v>
+        <v>0.67201999999999995</v>
       </c>
       <c r="E2">
-        <v>0.64854000000000001</v>
+        <v>0.65820999999999996</v>
       </c>
       <c r="F2">
-        <v>0.65849000000000002</v>
+        <v>0.67166000000000003</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.7340000000000022</v>
+        <v>1.1809999999999987</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -705,23 +703,23 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>0.66515000000000002</v>
+        <v>0.64907999999999999</v>
       </c>
       <c r="D3">
-        <v>0.66608000000000001</v>
+        <v>0.66034999999999999</v>
       </c>
       <c r="E3">
-        <v>0.64873999999999998</v>
+        <v>0.64854000000000001</v>
       </c>
       <c r="F3">
-        <v>0.64903999999999995</v>
+        <v>0.65849000000000002</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.5480000000000049</v>
+        <v>1.7340000000000022</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -729,23 +727,23 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>0.65268000000000004</v>
+        <v>0.66515000000000002</v>
       </c>
       <c r="D4">
-        <v>0.66807000000000005</v>
+        <v>0.66608000000000001</v>
       </c>
       <c r="E4">
-        <v>0.65259</v>
+        <v>0.64873999999999998</v>
       </c>
       <c r="F4">
-        <v>0.66585000000000005</v>
+        <v>0.64903999999999995</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.64400000000000013</v>
+        <v>1.5480000000000049</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -753,23 +751,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>0.65473999999999999</v>
+        <v>0.65268000000000004</v>
       </c>
       <c r="D5">
-        <v>0.65585000000000004</v>
+        <v>0.66807000000000005</v>
       </c>
       <c r="E5">
-        <v>0.64941000000000004</v>
+        <v>0.65259</v>
       </c>
       <c r="F5">
-        <v>0.65369999999999995</v>
+        <v>0.66585000000000005</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.73900000000000077</v>
+        <v>0.64400000000000013</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -777,23 +775,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>0.65264999999999995</v>
+        <v>0.65473999999999999</v>
       </c>
       <c r="D6">
-        <v>0.65549000000000002</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="E6">
-        <v>0.64810000000000001</v>
+        <v>0.64941000000000004</v>
       </c>
       <c r="F6">
-        <v>0.65512999999999999</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.8560000000000012</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -801,23 +799,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>0.65968000000000004</v>
+        <v>0.65264999999999995</v>
       </c>
       <c r="D7">
-        <v>0.65976999999999997</v>
+        <v>0.65549000000000002</v>
       </c>
       <c r="E7">
-        <v>0.65120999999999996</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="F7">
-        <v>0.65137999999999996</v>
+        <v>0.65512999999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>0.8560000000000012</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -825,23 +823,23 @@
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>0.66130999999999995</v>
+        <v>0.65968000000000004</v>
       </c>
       <c r="D8">
-        <v>0.66286999999999996</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="E8">
-        <v>0.65244999999999997</v>
+        <v>0.65120999999999996</v>
       </c>
       <c r="F8">
-        <v>0.65954000000000002</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.78599999999999781</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -849,23 +847,23 @@
         <v>11</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>0.66559999999999997</v>
+        <v>0.66130999999999995</v>
       </c>
       <c r="D9">
-        <v>0.66839999999999999</v>
+        <v>0.66286999999999996</v>
       </c>
       <c r="E9">
-        <v>0.66054000000000002</v>
+        <v>0.65244999999999997</v>
       </c>
       <c r="F9">
-        <v>0.66412000000000004</v>
+        <v>0.65954000000000002</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.0880000000000001</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -873,23 +871,23 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>0.66781000000000001</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="D10">
-        <v>0.66881999999999997</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="E10">
-        <v>0.65793999999999997</v>
+        <v>0.66054000000000002</v>
       </c>
       <c r="F10">
-        <v>0.66610999999999998</v>
+        <v>0.66412000000000004</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.1789999999999967</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -897,23 +895,23 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>0.67613000000000001</v>
+        <v>0.66781000000000001</v>
       </c>
       <c r="D11">
-        <v>0.67820999999999998</v>
+        <v>0.66881999999999997</v>
       </c>
       <c r="E11">
-        <v>0.66642000000000001</v>
+        <v>0.65793999999999997</v>
       </c>
       <c r="F11">
-        <v>0.66859999999999997</v>
+        <v>0.66610999999999998</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.68099999999999827</v>
+        <v>1.1789999999999967</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -921,23 +919,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>0.67279</v>
+        <v>0.67613000000000001</v>
       </c>
       <c r="D12">
-        <v>0.67808999999999997</v>
+        <v>0.67820999999999998</v>
       </c>
       <c r="E12">
-        <v>0.67127999999999999</v>
+        <v>0.66642000000000001</v>
       </c>
       <c r="F12">
-        <v>0.67608999999999997</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.1909999999999976</v>
+        <v>0.68099999999999827</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -945,23 +943,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>0.68118999999999996</v>
+        <v>0.67279</v>
       </c>
       <c r="D13">
-        <v>0.68367</v>
+        <v>0.67808999999999997</v>
       </c>
       <c r="E13">
-        <v>0.67176000000000002</v>
+        <v>0.67127999999999999</v>
       </c>
       <c r="F13">
-        <v>0.67293999999999998</v>
+        <v>0.67608999999999997</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.532</v>
+        <v>1.1909999999999976</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -969,23 +967,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>0.68813000000000002</v>
+        <v>0.68118999999999996</v>
       </c>
       <c r="D14">
-        <v>0.69240000000000002</v>
+        <v>0.68367</v>
       </c>
       <c r="E14">
-        <v>0.67708000000000002</v>
+        <v>0.67176000000000002</v>
       </c>
       <c r="F14">
-        <v>0.68030999999999997</v>
+        <v>0.67293999999999998</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.1089999999999933</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -993,23 +991,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>0.68408000000000002</v>
+        <v>0.68813000000000002</v>
       </c>
       <c r="D15">
-        <v>0.69377999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="E15">
-        <v>0.68269000000000002</v>
+        <v>0.67708000000000002</v>
       </c>
       <c r="F15">
-        <v>0.68733999999999995</v>
+        <v>0.68030999999999997</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.82800000000000651</v>
+        <v>1.1089999999999933</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1017,23 +1015,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>0.67896000000000001</v>
+        <v>0.68408000000000002</v>
       </c>
       <c r="D16">
-        <v>0.68722000000000005</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="E16">
-        <v>0.67893999999999999</v>
+        <v>0.68269000000000002</v>
       </c>
       <c r="F16">
-        <v>0.68445</v>
+        <v>0.68733999999999995</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.83199999999999941</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1041,23 +1039,23 @@
         <v>11</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>0.68230000000000002</v>
+        <v>0.67896000000000001</v>
       </c>
       <c r="D17">
-        <v>0.68272999999999995</v>
+        <v>0.68722000000000005</v>
       </c>
       <c r="E17">
-        <v>0.67440999999999995</v>
+        <v>0.67893999999999999</v>
       </c>
       <c r="F17">
-        <v>0.68035999999999996</v>
+        <v>0.68445</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>0.83199999999999941</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1065,23 +1063,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>0.68577999999999995</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="D18">
-        <v>0.69023000000000001</v>
+        <v>0.68272999999999995</v>
       </c>
       <c r="E18">
-        <v>0.67932999999999999</v>
+        <v>0.67440999999999995</v>
       </c>
       <c r="F18">
-        <v>0.67964999999999998</v>
+        <v>0.68035999999999996</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.3590000000000102</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1089,23 +1087,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>0.68516999999999995</v>
+        <v>0.68577999999999995</v>
       </c>
       <c r="D19">
-        <v>0.68927000000000005</v>
+        <v>0.69023000000000001</v>
       </c>
       <c r="E19">
-        <v>0.67567999999999995</v>
+        <v>0.67932999999999999</v>
       </c>
       <c r="F19">
-        <v>0.68467999999999996</v>
+        <v>0.67964999999999998</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.5469999999999984</v>
+        <v>1.3590000000000102</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1113,23 +1111,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>0.67383999999999999</v>
+        <v>0.68516999999999995</v>
       </c>
       <c r="D20">
-        <v>0.68735999999999997</v>
+        <v>0.68927000000000005</v>
       </c>
       <c r="E20">
-        <v>0.67188999999999999</v>
+        <v>0.67567999999999995</v>
       </c>
       <c r="F20">
-        <v>0.68613999999999997</v>
+        <v>0.68467999999999996</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.7630000000000035</v>
+        <v>1.5469999999999984</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1137,23 +1135,23 @@
         <v>11</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>0.68923999999999996</v>
+        <v>0.67383999999999999</v>
       </c>
       <c r="D21">
-        <v>0.69052000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E21">
-        <v>0.67288999999999999</v>
+        <v>0.67188999999999999</v>
       </c>
       <c r="F21">
-        <v>0.67476000000000003</v>
+        <v>0.68613999999999997</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.261000000000001</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1161,23 +1159,23 @@
         <v>11</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>0.68262</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="D22">
-        <v>0.69410000000000005</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="E22">
-        <v>0.68149000000000004</v>
+        <v>0.67288999999999999</v>
       </c>
       <c r="F22">
-        <v>0.68964999999999999</v>
+        <v>0.67476000000000003</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.261000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1185,23 +1183,23 @@
         <v>11</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>0.67522000000000004</v>
+        <v>0.68262</v>
       </c>
       <c r="D23">
-        <v>0.68501000000000001</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="E23">
-        <v>0.67059999999999997</v>
+        <v>0.68149000000000004</v>
       </c>
       <c r="F23">
-        <v>0.68388000000000004</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1209,23 +1207,23 @@
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>0.68220000000000003</v>
+        <v>0.67522000000000004</v>
       </c>
       <c r="D24">
-        <v>0.68479000000000001</v>
+        <v>0.68501000000000001</v>
       </c>
       <c r="E24">
-        <v>0.67269000000000001</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="F24">
-        <v>0.67413000000000001</v>
+        <v>0.68388000000000004</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.3630000000000031</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1233,23 +1231,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>0.67396</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="D25">
-        <v>0.68430000000000002</v>
+        <v>0.68479000000000001</v>
       </c>
       <c r="E25">
-        <v>0.67066999999999999</v>
+        <v>0.67269000000000001</v>
       </c>
       <c r="F25">
-        <v>0.68335000000000001</v>
+        <v>0.67413000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.2299999999999986</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1257,23 +1255,23 @@
         <v>11</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>0.67086999999999997</v>
+        <v>0.67396</v>
       </c>
       <c r="D26">
-        <v>0.67513000000000001</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="E26">
-        <v>0.65283000000000002</v>
+        <v>0.67066999999999999</v>
       </c>
       <c r="F26">
-        <v>0.67393999999999998</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0.53600000000000314</v>
+        <v>2.2299999999999986</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1281,23 +1279,23 @@
         <v>11</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
-        <v>0.67220000000000002</v>
+        <v>0.67086999999999997</v>
       </c>
       <c r="D27">
-        <v>0.67454000000000003</v>
+        <v>0.67513000000000001</v>
       </c>
       <c r="E27">
-        <v>0.66918</v>
+        <v>0.65283000000000002</v>
       </c>
       <c r="F27">
-        <v>0.67042999999999997</v>
+        <v>0.67393999999999998</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.7400000000000082</v>
+        <v>0.53600000000000314</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1305,23 +1303,23 @@
         <v>11</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>0.67930000000000001</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D28">
-        <v>0.68793000000000004</v>
+        <v>0.67454000000000003</v>
       </c>
       <c r="E28">
-        <v>0.67052999999999996</v>
+        <v>0.66918</v>
       </c>
       <c r="F28">
-        <v>0.67074</v>
+        <v>0.67042999999999997</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.3369999999999993</v>
+        <v>1.7400000000000082</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1329,23 +1327,23 @@
         <v>11</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>0.68659999999999999</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="D29">
-        <v>0.69108000000000003</v>
+        <v>0.68793000000000004</v>
       </c>
       <c r="E29">
-        <v>0.67771000000000003</v>
+        <v>0.67052999999999996</v>
       </c>
       <c r="F29">
-        <v>0.67974000000000001</v>
+        <v>0.67074</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.2310000000000043</v>
+        <v>1.3369999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1353,23 +1351,23 @@
         <v>11</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>0.69133</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="D30">
-        <v>0.69686999999999999</v>
+        <v>0.69108000000000003</v>
       </c>
       <c r="E30">
-        <v>0.68455999999999995</v>
+        <v>0.67771000000000003</v>
       </c>
       <c r="F30">
-        <v>0.68598000000000003</v>
+        <v>0.67974000000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.3509999999999911</v>
+        <v>1.2310000000000043</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1377,23 +1375,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>0.67557</v>
+        <v>0.69133</v>
       </c>
       <c r="D31">
-        <v>0.68862999999999996</v>
+        <v>0.69686999999999999</v>
       </c>
       <c r="E31">
-        <v>0.67512000000000005</v>
+        <v>0.68455999999999995</v>
       </c>
       <c r="F31">
-        <v>0.6875</v>
+        <v>0.68598000000000003</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.0750000000000037</v>
+        <v>1.3509999999999911</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1401,23 +1399,23 @@
         <v>11</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>0.68605000000000005</v>
+        <v>0.67557</v>
       </c>
       <c r="D32">
-        <v>0.68732000000000004</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="E32">
-        <v>0.67657</v>
+        <v>0.67512000000000005</v>
       </c>
       <c r="F32">
-        <v>0.67718</v>
+        <v>0.6875</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7859999999999987</v>
+        <v>1.0750000000000037</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1425,23 +1423,23 @@
         <v>11</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>0.67235</v>
+        <v>0.68605000000000005</v>
       </c>
       <c r="D33">
-        <v>0.68830999999999998</v>
+        <v>0.68732000000000004</v>
       </c>
       <c r="E33">
-        <v>0.67044999999999999</v>
+        <v>0.67657</v>
       </c>
       <c r="F33">
-        <v>0.68777999999999995</v>
+        <v>0.67718</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7869999999999941</v>
+        <v>1.7859999999999987</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1449,23 +1447,23 @@
         <v>11</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>0.66310999999999998</v>
+        <v>0.67235</v>
       </c>
       <c r="D34">
-        <v>0.68096999999999996</v>
+        <v>0.68830999999999998</v>
       </c>
       <c r="E34">
-        <v>0.66310000000000002</v>
+        <v>0.67044999999999999</v>
       </c>
       <c r="F34">
-        <v>0.67384999999999995</v>
+        <v>0.68777999999999995</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.7850000000000033</v>
+        <v>1.7869999999999941</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1473,23 +1471,23 @@
         <v>11</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>0.65188000000000001</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="D35">
-        <v>0.66888000000000003</v>
+        <v>0.68096999999999996</v>
       </c>
       <c r="E35">
-        <v>0.65103</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="F35">
-        <v>0.66457999999999995</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1497,23 +1495,23 @@
         <v>11</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>0.65971000000000002</v>
+        <v>0.65188000000000001</v>
       </c>
       <c r="D36">
-        <v>0.66030999999999995</v>
+        <v>0.66888000000000003</v>
       </c>
       <c r="E36">
-        <v>0.64642999999999995</v>
+        <v>0.65103</v>
       </c>
       <c r="F36">
-        <v>0.65207000000000004</v>
+        <v>0.66457999999999995</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1521,23 +1519,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>0.64947999999999995</v>
+        <v>0.65971000000000002</v>
       </c>
       <c r="D37">
-        <v>0.66063000000000005</v>
+        <v>0.66030999999999995</v>
       </c>
       <c r="E37">
-        <v>0.64937</v>
+        <v>0.64642999999999995</v>
       </c>
       <c r="F37">
-        <v>0.65890000000000004</v>
+        <v>0.65207000000000004</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1545,23 +1543,23 @@
         <v>11</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>0.64373000000000002</v>
+        <v>0.64947999999999995</v>
       </c>
       <c r="D38">
-        <v>0.65327000000000002</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="E38">
-        <v>0.64237</v>
+        <v>0.64937</v>
       </c>
       <c r="F38">
-        <v>0.65047999999999995</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.9639999999999991</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1569,23 +1567,23 @@
         <v>11</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>0.66151000000000004</v>
+        <v>0.64373000000000002</v>
       </c>
       <c r="D39">
-        <v>0.66278999999999999</v>
+        <v>0.65327000000000002</v>
       </c>
       <c r="E39">
-        <v>0.64315</v>
+        <v>0.64237</v>
       </c>
       <c r="F39">
-        <v>0.64431000000000005</v>
+        <v>0.65047999999999995</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>0.97599999999999909</v>
+        <v>1.9639999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1593,23 +1591,23 @@
         <v>11</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>0.66657999999999995</v>
+        <v>0.66151000000000004</v>
       </c>
       <c r="D40">
-        <v>0.66952999999999996</v>
+        <v>0.66278999999999999</v>
       </c>
       <c r="E40">
-        <v>0.65976999999999997</v>
+        <v>0.64315</v>
       </c>
       <c r="F40">
-        <v>0.66224000000000005</v>
+        <v>0.64431000000000005</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.6050000000000009</v>
+        <v>0.97599999999999909</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1617,23 +1615,23 @@
         <v>11</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
-        <v>0.65481999999999996</v>
+        <v>0.66657999999999995</v>
       </c>
       <c r="D41">
-        <v>0.66983999999999999</v>
+        <v>0.66952999999999996</v>
       </c>
       <c r="E41">
-        <v>0.65378999999999998</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="F41">
-        <v>0.66793000000000002</v>
+        <v>0.66224000000000005</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0.94699999999999784</v>
+        <v>1.6050000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1641,23 +1639,23 @@
         <v>11</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>0.65290000000000004</v>
+        <v>0.65481999999999996</v>
       </c>
       <c r="D42">
-        <v>0.65947999999999996</v>
+        <v>0.66983999999999999</v>
       </c>
       <c r="E42">
-        <v>0.65000999999999998</v>
+        <v>0.65378999999999998</v>
       </c>
       <c r="F42">
-        <v>0.65466000000000002</v>
+        <v>0.66793000000000002</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>0.93300000000000605</v>
+        <v>0.94699999999999784</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1665,23 +1663,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>0.66142999999999996</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="D43">
-        <v>0.66207000000000005</v>
+        <v>0.65947999999999996</v>
       </c>
       <c r="E43">
-        <v>0.65273999999999999</v>
+        <v>0.65000999999999998</v>
       </c>
       <c r="F43">
-        <v>0.65298</v>
+        <v>0.65466000000000002</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.1979999999999991</v>
+        <v>0.93300000000000605</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1689,23 +1687,23 @@
         <v>11</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>0.66842999999999997</v>
+        <v>0.66142999999999996</v>
       </c>
       <c r="D44">
-        <v>0.67261000000000004</v>
+        <v>0.66207000000000005</v>
       </c>
       <c r="E44">
-        <v>0.66063000000000005</v>
+        <v>0.65273999999999999</v>
       </c>
       <c r="F44">
-        <v>0.66195999999999999</v>
+        <v>0.65298</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1979999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1713,23 +1711,23 @@
         <v>11</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>0.66266999999999998</v>
+        <v>0.66842999999999997</v>
       </c>
       <c r="D45">
-        <v>0.67191000000000001</v>
+        <v>0.67261000000000004</v>
       </c>
       <c r="E45">
-        <v>0.66100999999999999</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="F45">
-        <v>0.66920000000000002</v>
+        <v>0.66195999999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0.9020000000000028</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1737,23 +1735,23 @@
         <v>11</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>0.65742999999999996</v>
+        <v>0.66266999999999998</v>
       </c>
       <c r="D46">
-        <v>0.66339999999999999</v>
+        <v>0.67191000000000001</v>
       </c>
       <c r="E46">
-        <v>0.65437999999999996</v>
+        <v>0.66100999999999999</v>
       </c>
       <c r="F46">
-        <v>0.66303000000000001</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.9199999999999995</v>
+        <v>0.9020000000000028</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1761,23 +1759,23 @@
         <v>11</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>0.67410000000000003</v>
+        <v>0.65742999999999996</v>
       </c>
       <c r="D47">
-        <v>0.67617000000000005</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="E47">
-        <v>0.65697000000000005</v>
+        <v>0.65437999999999996</v>
       </c>
       <c r="F47">
-        <v>0.65791999999999995</v>
+        <v>0.66303000000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.1420000000000097</v>
+        <v>1.9199999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1785,23 +1783,23 @@
         <v>11</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>0.67908999999999997</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="D48">
-        <v>0.68339000000000005</v>
+        <v>0.67617000000000005</v>
       </c>
       <c r="E48">
-        <v>0.67196999999999996</v>
+        <v>0.65697000000000005</v>
       </c>
       <c r="F48">
-        <v>0.67464000000000002</v>
+        <v>0.65791999999999995</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0.882000000000005</v>
+        <v>1.1420000000000097</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1809,23 +1807,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>0.67949999999999999</v>
+        <v>0.67908999999999997</v>
       </c>
       <c r="D49">
-        <v>0.68500000000000005</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E49">
-        <v>0.67618</v>
+        <v>0.67196999999999996</v>
       </c>
       <c r="F49">
-        <v>0.6794</v>
+        <v>0.67464000000000002</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.2669999999999959</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1833,23 +1831,23 @@
         <v>11</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>0.67573000000000005</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="D50">
-        <v>0.68398999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E50">
-        <v>0.67132000000000003</v>
+        <v>0.67618</v>
       </c>
       <c r="F50">
-        <v>0.68081999999999998</v>
+        <v>0.6794</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.3340000000000019</v>
+        <v>1.2669999999999959</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1857,23 +1855,23 @@
         <v>11</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>0.68332000000000004</v>
+        <v>0.67573000000000005</v>
       </c>
       <c r="D51">
-        <v>0.68581000000000003</v>
+        <v>0.68398999999999999</v>
       </c>
       <c r="E51">
-        <v>0.67247000000000001</v>
+        <v>0.67132000000000003</v>
       </c>
       <c r="F51">
-        <v>0.67673000000000005</v>
+        <v>0.68081999999999998</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.5610000000000013</v>
+        <v>1.3340000000000019</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1881,23 +1879,23 @@
         <v>11</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>0.67769999999999997</v>
+        <v>0.68332000000000004</v>
       </c>
       <c r="D52">
-        <v>0.68432999999999999</v>
+        <v>0.68581000000000003</v>
       </c>
       <c r="E52">
-        <v>0.66871999999999998</v>
+        <v>0.67247000000000001</v>
       </c>
       <c r="F52">
-        <v>0.68430000000000002</v>
+        <v>0.67673000000000005</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.8580000000000041</v>
+        <v>1.5610000000000013</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1905,23 +1903,23 @@
         <v>11</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>0.69106000000000001</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="D53">
-        <v>0.69211</v>
+        <v>0.68432999999999999</v>
       </c>
       <c r="E53">
-        <v>0.67352999999999996</v>
+        <v>0.66871999999999998</v>
       </c>
       <c r="F53">
-        <v>0.67834000000000005</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.3009999999999966</v>
+        <v>1.8580000000000041</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1929,23 +1927,23 @@
         <v>11</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>0.69313000000000002</v>
+        <v>0.69106000000000001</v>
       </c>
       <c r="D54">
-        <v>0.69550999999999996</v>
+        <v>0.69211</v>
       </c>
       <c r="E54">
-        <v>0.6825</v>
+        <v>0.67352999999999996</v>
       </c>
       <c r="F54">
-        <v>0.69128999999999996</v>
+        <v>0.67834000000000005</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.258999999999999</v>
+        <v>1.3009999999999966</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1953,23 +1951,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>0.70225000000000004</v>
+        <v>0.69313000000000002</v>
       </c>
       <c r="D55">
-        <v>0.70528000000000002</v>
+        <v>0.69550999999999996</v>
       </c>
       <c r="E55">
-        <v>0.69269000000000003</v>
+        <v>0.6825</v>
       </c>
       <c r="F55">
-        <v>0.69404999999999994</v>
+        <v>0.69128999999999996</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0.82900000000000196</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1977,23 +1975,23 @@
         <v>11</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
-        <v>0.69825000000000004</v>
+        <v>0.70225000000000004</v>
       </c>
       <c r="D56">
-        <v>0.70594000000000001</v>
+        <v>0.70528000000000002</v>
       </c>
       <c r="E56">
-        <v>0.69764999999999999</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="F56">
-        <v>0.70308999999999999</v>
+        <v>0.69404999999999994</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.4070000000000027</v>
+        <v>0.82900000000000196</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2001,23 +1999,23 @@
         <v>11</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>0.69225000000000003</v>
+        <v>0.69825000000000004</v>
       </c>
       <c r="D57">
-        <v>0.70230000000000004</v>
+        <v>0.70594000000000001</v>
       </c>
       <c r="E57">
-        <v>0.68823000000000001</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="F57">
-        <v>0.6986</v>
+        <v>0.70308999999999999</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>0.9040000000000048</v>
+        <v>1.4070000000000027</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2025,23 +2023,23 @@
         <v>11</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>0.69254000000000004</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="D58">
-        <v>0.69737000000000005</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="E58">
-        <v>0.68833</v>
+        <v>0.68823000000000001</v>
       </c>
       <c r="F58">
-        <v>0.69167999999999996</v>
+        <v>0.6986</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.2319999999999998</v>
+        <v>0.9040000000000048</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2049,23 +2047,23 @@
         <v>11</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>0.69584999999999997</v>
+        <v>0.69254000000000004</v>
       </c>
       <c r="D59">
-        <v>0.69735999999999998</v>
+        <v>0.69737000000000005</v>
       </c>
       <c r="E59">
-        <v>0.68503999999999998</v>
+        <v>0.68833</v>
       </c>
       <c r="F59">
-        <v>0.69203000000000003</v>
+        <v>0.69167999999999996</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.2319999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2073,23 +2071,23 @@
         <v>11</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>0.70132000000000005</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="D60">
-        <v>0.70406000000000002</v>
+        <v>0.69735999999999998</v>
       </c>
       <c r="E60">
-        <v>0.69018000000000002</v>
+        <v>0.68503999999999998</v>
       </c>
       <c r="F60">
-        <v>0.69681999999999999</v>
+        <v>0.69203000000000003</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.041000000000003</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2097,23 +2095,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>0.70796000000000003</v>
+        <v>0.70132000000000005</v>
       </c>
       <c r="D61">
-        <v>0.70884000000000003</v>
+        <v>0.70406000000000002</v>
       </c>
       <c r="E61">
-        <v>0.69843</v>
+        <v>0.69018000000000002</v>
       </c>
       <c r="F61">
-        <v>0.70193000000000005</v>
+        <v>0.69681999999999999</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.041000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2121,23 +2119,23 @@
         <v>11</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>0.72123999999999999</v>
+        <v>0.70796000000000003</v>
       </c>
       <c r="D62">
-        <v>0.72174000000000005</v>
+        <v>0.70884000000000003</v>
       </c>
       <c r="E62">
-        <v>0.70354000000000005</v>
+        <v>0.69843</v>
       </c>
       <c r="F62">
-        <v>0.70855000000000001</v>
+        <v>0.70193000000000005</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.7159999999999953</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2145,23 +2143,23 @@
         <v>11</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>0.73485999999999996</v>
+        <v>0.72123999999999999</v>
       </c>
       <c r="D63">
-        <v>0.73716999999999999</v>
+        <v>0.72174000000000005</v>
       </c>
       <c r="E63">
-        <v>0.72001000000000004</v>
+        <v>0.70354000000000005</v>
       </c>
       <c r="F63">
-        <v>0.72092999999999996</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.7159999999999953</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2169,23 +2167,23 @@
         <v>11</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>0.72662000000000004</v>
+        <v>0.73485999999999996</v>
       </c>
       <c r="D64">
-        <v>0.73945000000000005</v>
+        <v>0.73716999999999999</v>
       </c>
       <c r="E64">
-        <v>0.72652000000000005</v>
+        <v>0.72001000000000004</v>
       </c>
       <c r="F64">
-        <v>0.73516999999999999</v>
+        <v>0.72092999999999996</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.2709999999999999</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2193,23 +2191,23 @@
         <v>11</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>0.72345000000000004</v>
+        <v>0.72662000000000004</v>
       </c>
       <c r="D65">
-        <v>0.73214000000000001</v>
+        <v>0.73945000000000005</v>
       </c>
       <c r="E65">
-        <v>0.71943000000000001</v>
+        <v>0.72652000000000005</v>
       </c>
       <c r="F65">
-        <v>0.72772999999999999</v>
+        <v>0.73516999999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.1539999999999995</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2217,23 +2215,23 @@
         <v>11</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>0.72299000000000002</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="D66">
-        <v>0.73028000000000004</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E66">
-        <v>0.71874000000000005</v>
+        <v>0.71943000000000001</v>
       </c>
       <c r="F66">
-        <v>0.72382999999999997</v>
+        <v>0.72772999999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.2049999999999894</v>
+        <v>1.1539999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2241,23 +2239,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>0.72124999999999995</v>
+        <v>0.72299000000000002</v>
       </c>
       <c r="D67">
-        <v>0.72729999999999995</v>
+        <v>0.73028000000000004</v>
       </c>
       <c r="E67">
-        <v>0.71525000000000005</v>
+        <v>0.71874000000000005</v>
       </c>
       <c r="F67">
-        <v>0.72394999999999998</v>
+        <v>0.72382999999999997</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.4670000000000072</v>
+        <v>1.2049999999999894</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2265,23 +2263,23 @@
         <v>11</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>0.72836000000000001</v>
+        <v>0.72124999999999995</v>
       </c>
       <c r="D68">
-        <v>0.73540000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="E68">
-        <v>0.72072999999999998</v>
+        <v>0.71525000000000005</v>
       </c>
       <c r="F68">
-        <v>0.72138000000000002</v>
+        <v>0.72394999999999998</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.0800000000000032</v>
+        <v>1.4670000000000072</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2289,23 +2287,23 @@
         <v>11</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>0.72318000000000005</v>
+        <v>0.72836000000000001</v>
       </c>
       <c r="D69">
-        <v>0.73101000000000005</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="E69">
-        <v>0.72021000000000002</v>
+        <v>0.72072999999999998</v>
       </c>
       <c r="F69">
-        <v>0.72889000000000004</v>
+        <v>0.72138000000000002</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.588999999999996</v>
+        <v>1.0800000000000032</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2313,23 +2311,23 @@
         <v>11</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>0.72884000000000004</v>
+        <v>0.72318000000000005</v>
       </c>
       <c r="D70">
-        <v>0.73443999999999998</v>
+        <v>0.73101000000000005</v>
       </c>
       <c r="E70">
-        <v>0.71855000000000002</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="F70">
-        <v>0.72360000000000002</v>
+        <v>0.72889000000000004</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.3869999999999938</v>
+        <v>1.588999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2337,23 +2335,23 @@
         <v>11</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>0.73736999999999997</v>
+        <v>0.72884000000000004</v>
       </c>
       <c r="D71">
-        <v>0.74087999999999998</v>
+        <v>0.73443999999999998</v>
       </c>
       <c r="E71">
-        <v>0.72701000000000005</v>
+        <v>0.71855000000000002</v>
       </c>
       <c r="F71">
-        <v>0.72897999999999996</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.0489999999999897</v>
+        <v>1.3869999999999938</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2361,23 +2359,23 @@
         <v>11</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>0.72375999999999996</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D72">
-        <v>0.74361999999999995</v>
+        <v>0.74087999999999998</v>
       </c>
       <c r="E72">
-        <v>0.72313000000000005</v>
+        <v>0.72701000000000005</v>
       </c>
       <c r="F72">
-        <v>0.73928000000000005</v>
+        <v>0.72897999999999996</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.7460000000000031</v>
+        <v>2.0489999999999897</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2385,23 +2383,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>0.72857000000000005</v>
+        <v>0.72375999999999996</v>
       </c>
       <c r="D73">
-        <v>0.73507</v>
+        <v>0.74361999999999995</v>
       </c>
       <c r="E73">
-        <v>0.71760999999999997</v>
+        <v>0.72313000000000005</v>
       </c>
       <c r="F73">
-        <v>0.72558</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.4050000000000007</v>
+        <v>1.7460000000000031</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2409,23 +2407,23 @@
         <v>11</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>0.7339</v>
+        <v>0.72857000000000005</v>
       </c>
       <c r="D74">
-        <v>0.74192999999999998</v>
+        <v>0.73507</v>
       </c>
       <c r="E74">
-        <v>0.72787999999999997</v>
+        <v>0.71760999999999997</v>
       </c>
       <c r="F74">
-        <v>0.73016999999999999</v>
+        <v>0.72558</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.6920000000000046</v>
+        <v>1.4050000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2433,23 +2431,23 @@
         <v>11</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>0.72809999999999997</v>
+        <v>0.7339</v>
       </c>
       <c r="D75">
-        <v>0.74360999999999999</v>
+        <v>0.74192999999999998</v>
       </c>
       <c r="E75">
-        <v>0.72668999999999995</v>
+        <v>0.72787999999999997</v>
       </c>
       <c r="F75">
-        <v>0.73543999999999998</v>
+        <v>0.73016999999999999</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>0.97199999999999509</v>
+        <v>1.6920000000000046</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2457,23 +2455,23 @@
         <v>11</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>0.72336</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D76">
-        <v>0.73307999999999995</v>
+        <v>0.74360999999999999</v>
       </c>
       <c r="E76">
-        <v>0.72336</v>
+        <v>0.72668999999999995</v>
       </c>
       <c r="F76">
-        <v>0.72809999999999997</v>
+        <v>0.73543999999999998</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.3630000000000031</v>
+        <v>0.97199999999999509</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2481,23 +2479,23 @@
         <v>11</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>0.71603000000000006</v>
+        <v>0.72336</v>
       </c>
       <c r="D77">
-        <v>0.72755999999999998</v>
+        <v>0.73307999999999995</v>
       </c>
       <c r="E77">
-        <v>0.71392999999999995</v>
+        <v>0.72336</v>
       </c>
       <c r="F77">
-        <v>0.72570999999999997</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2505,23 +2503,23 @@
         <v>11</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>0.71016000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="D78">
-        <v>0.71860000000000002</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="E78">
-        <v>0.69908999999999999</v>
+        <v>0.71392999999999995</v>
       </c>
       <c r="F78">
-        <v>0.71677999999999997</v>
+        <v>0.72570999999999997</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.2519999999999976</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2529,23 +2527,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>0.69979000000000002</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D79">
-        <v>0.71231</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E79">
-        <v>0.69979000000000002</v>
+        <v>0.69908999999999999</v>
       </c>
       <c r="F79">
-        <v>0.7087</v>
+        <v>0.71677999999999997</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0.73799999999999422</v>
+        <v>1.2519999999999976</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2553,23 +2551,23 @@
         <v>11</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>0.69943999999999995</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D80">
-        <v>0.70272999999999997</v>
+        <v>0.71231</v>
       </c>
       <c r="E80">
-        <v>0.69535000000000002</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="F80">
-        <v>0.70248999999999995</v>
+        <v>0.7087</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.0020000000000038</v>
+        <v>0.73799999999999422</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2577,23 +2575,23 @@
         <v>11</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>0.68362000000000001</v>
+        <v>0.69943999999999995</v>
       </c>
       <c r="D81">
-        <v>0.70330999999999999</v>
+        <v>0.70272999999999997</v>
       </c>
       <c r="E81">
-        <v>0.68328999999999995</v>
+        <v>0.69535000000000002</v>
       </c>
       <c r="F81">
-        <v>0.69911000000000001</v>
+        <v>0.70248999999999995</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0.94499999999999584</v>
+        <v>2.0020000000000038</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2601,23 +2599,23 @@
         <v>11</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>0.68579999999999997</v>
+        <v>0.68362000000000001</v>
       </c>
       <c r="D82">
-        <v>0.69160999999999995</v>
+        <v>0.70330999999999999</v>
       </c>
       <c r="E82">
-        <v>0.68215999999999999</v>
+        <v>0.68328999999999995</v>
       </c>
       <c r="F82">
-        <v>0.68357999999999997</v>
+        <v>0.69911000000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.2839999999999963</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2625,23 +2623,23 @@
         <v>11</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>0.68781000000000003</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="D83">
-        <v>0.69447999999999999</v>
+        <v>0.69160999999999995</v>
       </c>
       <c r="E83">
-        <v>0.68164000000000002</v>
+        <v>0.68215999999999999</v>
       </c>
       <c r="F83">
-        <v>0.68866000000000005</v>
+        <v>0.68357999999999997</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.1600000000000055</v>
+        <v>1.2839999999999963</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2649,23 +2647,23 @@
         <v>11</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>0.68015999999999999</v>
+        <v>0.68781000000000003</v>
       </c>
       <c r="D84">
-        <v>0.69045000000000001</v>
+        <v>0.69447999999999999</v>
       </c>
       <c r="E84">
-        <v>0.67884999999999995</v>
+        <v>0.68164000000000002</v>
       </c>
       <c r="F84">
-        <v>0.68779999999999997</v>
+        <v>0.68866000000000005</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.5689999999999982</v>
+        <v>1.1600000000000055</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2673,23 +2671,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>0.69210000000000005</v>
+        <v>0.68015999999999999</v>
       </c>
       <c r="D85">
-        <v>0.69367999999999996</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="E85">
-        <v>0.67798999999999998</v>
+        <v>0.67884999999999995</v>
       </c>
       <c r="F85">
-        <v>0.68142999999999998</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.0499999999999954</v>
+        <v>1.5689999999999982</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2697,23 +2695,23 @@
         <v>11</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>0.69038999999999995</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="D86">
-        <v>0.69791999999999998</v>
+        <v>0.69367999999999996</v>
       </c>
       <c r="E86">
-        <v>0.68742000000000003</v>
+        <v>0.67798999999999998</v>
       </c>
       <c r="F86">
-        <v>0.69277</v>
+        <v>0.68142999999999998</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.2029999999999985</v>
+        <v>1.0499999999999954</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2721,23 +2719,23 @@
         <v>11</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>0.68622000000000005</v>
+        <v>0.69038999999999995</v>
       </c>
       <c r="D87">
-        <v>0.69506999999999997</v>
+        <v>0.69791999999999998</v>
       </c>
       <c r="E87">
-        <v>0.68303999999999998</v>
+        <v>0.68742000000000003</v>
       </c>
       <c r="F87">
-        <v>0.69052000000000002</v>
+        <v>0.69277</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.857999999999993</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2745,23 +2743,23 @@
         <v>11</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>0.69428000000000001</v>
+        <v>0.68622000000000005</v>
       </c>
       <c r="D88">
-        <v>0.70035999999999998</v>
+        <v>0.69506999999999997</v>
       </c>
       <c r="E88">
-        <v>0.68178000000000005</v>
+        <v>0.68303999999999998</v>
       </c>
       <c r="F88">
-        <v>0.68718999999999997</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>2.5389999999999913</v>
+        <v>1.857999999999993</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2769,23 +2767,23 @@
         <v>11</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>0.71731999999999996</v>
+        <v>0.69428000000000001</v>
       </c>
       <c r="D89">
-        <v>0.72070999999999996</v>
+        <v>0.70035999999999998</v>
       </c>
       <c r="E89">
-        <v>0.69532000000000005</v>
+        <v>0.68178000000000005</v>
       </c>
       <c r="F89">
-        <v>0.69630000000000003</v>
+        <v>0.68718999999999997</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.4090000000000047</v>
+        <v>2.5389999999999913</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2793,23 +2791,23 @@
         <v>11</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>0.70626</v>
+        <v>0.71731999999999996</v>
       </c>
       <c r="D90">
-        <v>0.71960000000000002</v>
+        <v>0.72070999999999996</v>
       </c>
       <c r="E90">
-        <v>0.70550999999999997</v>
+        <v>0.69532000000000005</v>
       </c>
       <c r="F90">
-        <v>0.71862999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.6710000000000003</v>
+        <v>1.4090000000000047</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2817,23 +2815,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>0.72075</v>
+        <v>0.70626</v>
       </c>
       <c r="D91">
-        <v>0.72253999999999996</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="E91">
-        <v>0.70582999999999996</v>
+        <v>0.70550999999999997</v>
       </c>
       <c r="F91">
-        <v>0.70882000000000001</v>
+        <v>0.71862999999999999</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.5809999999999991</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2841,23 +2839,23 @@
         <v>11</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>0.73228000000000004</v>
+        <v>0.72075</v>
       </c>
       <c r="D92">
-        <v>0.73241000000000001</v>
+        <v>0.72253999999999996</v>
       </c>
       <c r="E92">
-        <v>0.71660000000000001</v>
+        <v>0.70582999999999996</v>
       </c>
       <c r="F92">
-        <v>0.72182000000000002</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.8789999999999973</v>
+        <v>1.5809999999999991</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2865,23 +2863,23 @@
         <v>11</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>0.72833000000000003</v>
+        <v>0.73228000000000004</v>
       </c>
       <c r="D93">
-        <v>0.74348999999999998</v>
+        <v>0.73241000000000001</v>
       </c>
       <c r="E93">
-        <v>0.72470000000000001</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="F93">
-        <v>0.73255999999999999</v>
+        <v>0.72182000000000002</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>1.8789999999999973</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2889,23 +2887,23 @@
         <v>11</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>0.72552000000000005</v>
+        <v>0.72833000000000003</v>
       </c>
       <c r="D94">
-        <v>0.73202</v>
+        <v>0.74348999999999998</v>
       </c>
       <c r="E94">
-        <v>0.71828999999999998</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="F94">
-        <v>0.72912999999999994</v>
+        <v>0.73255999999999999</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.8569999999999975</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2913,23 +2911,23 @@
         <v>11</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>0.71514</v>
+        <v>0.72552000000000005</v>
       </c>
       <c r="D95">
-        <v>0.73370999999999997</v>
+        <v>0.73202</v>
       </c>
       <c r="E95">
-        <v>0.71514</v>
+        <v>0.71828999999999998</v>
       </c>
       <c r="F95">
-        <v>0.72667999999999999</v>
+        <v>0.72912999999999994</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.698999999999995</v>
+        <v>1.8569999999999975</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2937,23 +2935,23 @@
         <v>11</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>0.72343000000000002</v>
+        <v>0.71514</v>
       </c>
       <c r="D96">
-        <v>0.7298</v>
+        <v>0.73370999999999997</v>
       </c>
       <c r="E96">
-        <v>0.71281000000000005</v>
+        <v>0.71514</v>
       </c>
       <c r="F96">
-        <v>0.71604000000000001</v>
+        <v>0.72667999999999999</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.4560000000000017</v>
+        <v>1.698999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2961,23 +2959,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>0.73097999999999996</v>
+        <v>0.72343000000000002</v>
       </c>
       <c r="D97">
-        <v>0.73365999999999998</v>
+        <v>0.7298</v>
       </c>
       <c r="E97">
-        <v>0.71909999999999996</v>
+        <v>0.71281000000000005</v>
       </c>
       <c r="F97">
-        <v>0.72406000000000004</v>
+        <v>0.71604000000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.1190000000000033</v>
+        <v>1.4560000000000017</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2985,23 +2983,23 @@
         <v>11</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>0.73126999999999998</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="D98">
-        <v>0.73346</v>
+        <v>0.73365999999999998</v>
       </c>
       <c r="E98">
-        <v>0.72226999999999997</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="F98">
-        <v>0.73134999999999994</v>
+        <v>0.72406000000000004</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.646000000000003</v>
+        <v>1.1190000000000033</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3009,23 +3007,23 @@
         <v>11</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>0.74012</v>
+        <v>0.73126999999999998</v>
       </c>
       <c r="D99">
-        <v>0.74158000000000002</v>
+        <v>0.73346</v>
       </c>
       <c r="E99">
-        <v>0.72511999999999999</v>
+        <v>0.72226999999999997</v>
       </c>
       <c r="F99">
-        <v>0.73209000000000002</v>
+        <v>0.73134999999999994</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.3379999999999947</v>
+        <v>1.646000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3033,23 +3031,23 @@
         <v>11</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>0.74985999999999997</v>
+        <v>0.74012</v>
       </c>
       <c r="D100">
-        <v>0.75239999999999996</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="E100">
-        <v>0.73902000000000001</v>
+        <v>0.72511999999999999</v>
       </c>
       <c r="F100">
-        <v>0.74175000000000002</v>
+        <v>0.73209000000000002</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.5679999999999916</v>
+        <v>1.3379999999999947</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3057,23 +3055,23 @@
         <v>11</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>0.74424999999999997</v>
+        <v>0.74985999999999997</v>
       </c>
       <c r="D101">
-        <v>0.75573999999999997</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E101">
-        <v>0.74006000000000005</v>
+        <v>0.73902000000000001</v>
       </c>
       <c r="F101">
-        <v>0.75194000000000005</v>
+        <v>0.74175000000000002</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.5679999999999916</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3081,23 +3079,23 @@
         <v>11</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>0.73424999999999996</v>
+        <v>0.74424999999999997</v>
       </c>
       <c r="D102">
-        <v>0.74575999999999998</v>
+        <v>0.75573999999999997</v>
       </c>
       <c r="E102">
-        <v>0.72619999999999996</v>
+        <v>0.74006000000000005</v>
       </c>
       <c r="F102">
-        <v>0.74563000000000001</v>
+        <v>0.75194000000000005</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.6689999999999983</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3105,23 +3103,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>0.72690999999999995</v>
+        <v>0.73424999999999996</v>
       </c>
       <c r="D103">
-        <v>0.73678999999999994</v>
+        <v>0.74575999999999998</v>
       </c>
       <c r="E103">
-        <v>0.72009999999999996</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="F103">
-        <v>0.73412999999999995</v>
+        <v>0.74563000000000001</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.0109999999999952</v>
+        <v>1.6689999999999983</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3129,23 +3127,23 @@
         <v>11</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>0.73212999999999995</v>
+        <v>0.72690999999999995</v>
       </c>
       <c r="D104">
-        <v>0.73446</v>
+        <v>0.73678999999999994</v>
       </c>
       <c r="E104">
-        <v>0.72435000000000005</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="F104">
-        <v>0.72750000000000004</v>
+        <v>0.73412999999999995</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.93100000000000405</v>
+        <v>1.0109999999999952</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3153,23 +3151,23 @@
         <v>11</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>0.72755999999999998</v>
+        <v>0.73212999999999995</v>
       </c>
       <c r="D105">
-        <v>0.73458000000000001</v>
+        <v>0.73446</v>
       </c>
       <c r="E105">
-        <v>0.72526999999999997</v>
+        <v>0.72435000000000005</v>
       </c>
       <c r="F105">
-        <v>0.73243000000000003</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.9199999999999986</v>
+        <v>0.93100000000000405</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3177,23 +3175,23 @@
         <v>11</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>0.72470000000000001</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="D106">
-        <v>0.72975999999999996</v>
+        <v>0.73458000000000001</v>
       </c>
       <c r="E106">
-        <v>0.72055999999999998</v>
+        <v>0.72526999999999997</v>
       </c>
       <c r="F106">
-        <v>0.72829999999999995</v>
+        <v>0.73243000000000003</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.4839999999999964</v>
+        <v>0.9199999999999986</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3201,23 +3199,23 @@
         <v>11</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>0.72026000000000001</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="D107">
-        <v>0.73185</v>
+        <v>0.72975999999999996</v>
       </c>
       <c r="E107">
-        <v>0.71701000000000004</v>
+        <v>0.72055999999999998</v>
       </c>
       <c r="F107">
-        <v>0.72531999999999996</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.0900000000000021</v>
+        <v>1.4839999999999964</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3225,23 +3223,23 @@
         <v>11</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>0.71318000000000004</v>
+        <v>0.72026000000000001</v>
       </c>
       <c r="D108">
-        <v>0.72223000000000004</v>
+        <v>0.73185</v>
       </c>
       <c r="E108">
-        <v>0.71133000000000002</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="F108">
-        <v>0.72104999999999997</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.1199999999999988</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3249,23 +3247,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>0.70515000000000005</v>
+        <v>0.71318000000000004</v>
       </c>
       <c r="D109">
-        <v>0.71462999999999999</v>
+        <v>0.72223000000000004</v>
       </c>
       <c r="E109">
-        <v>0.70343</v>
+        <v>0.71133000000000002</v>
       </c>
       <c r="F109">
-        <v>0.71458999999999995</v>
+        <v>0.72104999999999997</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.5979999999999994</v>
+        <v>1.1199999999999988</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3273,23 +3271,23 @@
         <v>11</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>0.69162000000000001</v>
+        <v>0.70515000000000005</v>
       </c>
       <c r="D110">
-        <v>0.70760000000000001</v>
+        <v>0.71462999999999999</v>
       </c>
       <c r="E110">
-        <v>0.69162000000000001</v>
+        <v>0.70343</v>
       </c>
       <c r="F110">
-        <v>0.70647000000000004</v>
+        <v>0.71458999999999995</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.1149999999999993</v>
+        <v>1.5979999999999994</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3297,23 +3295,23 @@
         <v>11</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>0.68542999999999998</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="D111">
-        <v>0.69493000000000005</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="E111">
-        <v>0.68378000000000005</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="F111">
-        <v>0.69294999999999995</v>
+        <v>0.70647000000000004</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.3299999999999979</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3321,23 +3319,23 @@
         <v>11</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>0.68998000000000004</v>
+        <v>0.68542999999999998</v>
       </c>
       <c r="D112">
-        <v>0.69501000000000002</v>
+        <v>0.69493000000000005</v>
       </c>
       <c r="E112">
-        <v>0.68171000000000004</v>
+        <v>0.68378000000000005</v>
       </c>
       <c r="F112">
-        <v>0.68606999999999996</v>
+        <v>0.69294999999999995</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.2979999999999992</v>
+        <v>1.3299999999999979</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3345,23 +3343,23 @@
         <v>11</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>0.68608000000000002</v>
+        <v>0.68998000000000004</v>
       </c>
       <c r="D113">
-        <v>0.69681000000000004</v>
+        <v>0.69501000000000002</v>
       </c>
       <c r="E113">
-        <v>0.68383000000000005</v>
+        <v>0.68171000000000004</v>
       </c>
       <c r="F113">
-        <v>0.69237000000000004</v>
+        <v>0.68606999999999996</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.9880000000000009</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3369,23 +3367,23 @@
         <v>11</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>0.7026</v>
+        <v>0.68608000000000002</v>
       </c>
       <c r="D114">
-        <v>0.70464000000000004</v>
+        <v>0.69681000000000004</v>
       </c>
       <c r="E114">
-        <v>0.68476000000000004</v>
+        <v>0.68383000000000005</v>
       </c>
       <c r="F114">
-        <v>0.68632000000000004</v>
+        <v>0.69237000000000004</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0.69200000000000372</v>
+        <v>1.9880000000000009</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3393,23 +3391,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>0.69986999999999999</v>
+        <v>0.7026</v>
       </c>
       <c r="D115">
-        <v>0.70521</v>
+        <v>0.70464000000000004</v>
       </c>
       <c r="E115">
-        <v>0.69828999999999997</v>
+        <v>0.68476000000000004</v>
       </c>
       <c r="F115">
-        <v>0.70306000000000002</v>
+        <v>0.68632000000000004</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>1.0589999999999988</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3417,23 +3415,23 @@
         <v>11</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>0.69335000000000002</v>
+        <v>0.69986999999999999</v>
       </c>
       <c r="D116">
-        <v>0.70143999999999995</v>
+        <v>0.70521</v>
       </c>
       <c r="E116">
-        <v>0.69084999999999996</v>
+        <v>0.69828999999999997</v>
       </c>
       <c r="F116">
-        <v>0.70028000000000001</v>
+        <v>0.70306000000000002</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.96100000000000074</v>
+        <v>1.0589999999999988</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3441,23 +3439,23 @@
         <v>11</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>0.70004999999999995</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="D117">
-        <v>0.70213999999999999</v>
+        <v>0.70143999999999995</v>
       </c>
       <c r="E117">
-        <v>0.69252999999999998</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="F117">
-        <v>0.69303999999999999</v>
+        <v>0.70028000000000001</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.92599999999999349</v>
+        <v>0.96100000000000074</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3465,23 +3463,23 @@
         <v>11</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>0.70326999999999995</v>
+        <v>0.70004999999999995</v>
       </c>
       <c r="D118">
-        <v>0.70670999999999995</v>
+        <v>0.70213999999999999</v>
       </c>
       <c r="E118">
-        <v>0.69745000000000001</v>
+        <v>0.69252999999999998</v>
       </c>
       <c r="F118">
-        <v>0.70109999999999995</v>
+        <v>0.69303999999999999</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.95300000000000384</v>
+        <v>0.92599999999999349</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3489,23 +3487,23 @@
         <v>11</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>0.70133999999999996</v>
+        <v>0.70326999999999995</v>
       </c>
       <c r="D119">
-        <v>0.70891000000000004</v>
+        <v>0.70670999999999995</v>
       </c>
       <c r="E119">
-        <v>0.69938</v>
+        <v>0.69745000000000001</v>
       </c>
       <c r="F119">
-        <v>0.70296000000000003</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.5539999999999998</v>
+        <v>0.95300000000000384</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3513,23 +3511,23 @@
         <v>11</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>0.69291000000000003</v>
+        <v>0.70133999999999996</v>
       </c>
       <c r="D120">
-        <v>0.70484999999999998</v>
+        <v>0.70891000000000004</v>
       </c>
       <c r="E120">
-        <v>0.68930999999999998</v>
+        <v>0.69938</v>
       </c>
       <c r="F120">
-        <v>0.70118999999999998</v>
+        <v>0.70296000000000003</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.5510000000000024</v>
+        <v>1.5539999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3537,23 +3535,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>0.70189999999999997</v>
+        <v>0.69291000000000003</v>
       </c>
       <c r="D121">
-        <v>0.70447000000000004</v>
+        <v>0.70484999999999998</v>
       </c>
       <c r="E121">
-        <v>0.68896000000000002</v>
+        <v>0.68930999999999998</v>
       </c>
       <c r="F121">
-        <v>0.69264999999999999</v>
+        <v>0.70118999999999998</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.3720000000000074</v>
+        <v>1.5510000000000024</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3561,23 +3559,23 @@
         <v>11</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>0.71955000000000002</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="D122">
-        <v>0.72367000000000004</v>
+        <v>0.70447000000000004</v>
       </c>
       <c r="E122">
-        <v>0.69994999999999996</v>
+        <v>0.68896000000000002</v>
       </c>
       <c r="F122">
-        <v>0.70386000000000004</v>
+        <v>0.69264999999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.1660000000000004</v>
+        <v>2.3720000000000074</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3585,23 +3583,23 @@
         <v>11</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>0.71914999999999996</v>
+        <v>0.71955000000000002</v>
       </c>
       <c r="D123">
-        <v>0.72458999999999996</v>
+        <v>0.72367000000000004</v>
       </c>
       <c r="E123">
-        <v>0.71292999999999995</v>
+        <v>0.69994999999999996</v>
       </c>
       <c r="F123">
-        <v>0.71945000000000003</v>
+        <v>0.70386000000000004</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.0830000000000006</v>
+        <v>1.1660000000000004</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3609,23 +3607,23 @@
         <v>11</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>0.71987999999999996</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="D124">
-        <v>0.72421000000000002</v>
+        <v>0.72458999999999996</v>
       </c>
       <c r="E124">
-        <v>0.71338000000000001</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="F124">
-        <v>0.71828000000000003</v>
+        <v>0.71945000000000003</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.0299999999999985</v>
+        <v>1.0830000000000006</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3633,23 +3631,23 @@
         <v>11</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>0.73029999999999995</v>
+        <v>0.71987999999999996</v>
       </c>
       <c r="D125">
-        <v>0.73753000000000002</v>
+        <v>0.72421000000000002</v>
       </c>
       <c r="E125">
-        <v>0.71723000000000003</v>
+        <v>0.71338000000000001</v>
       </c>
       <c r="F125">
-        <v>0.71967999999999999</v>
+        <v>0.71828000000000003</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>1.21</v>
+        <v>2.0299999999999985</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3657,23 +3655,23 @@
         <v>11</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>0.72675000000000001</v>
+        <v>0.73029999999999995</v>
       </c>
       <c r="D126">
-        <v>0.73494000000000004</v>
+        <v>0.73753000000000002</v>
       </c>
       <c r="E126">
-        <v>0.72284000000000004</v>
+        <v>0.71723000000000003</v>
       </c>
       <c r="F126">
-        <v>0.73080000000000001</v>
+        <v>0.71967999999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.5919999999999934</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3681,23 +3679,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>0.71508000000000005</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="D127">
-        <v>0.73099999999999998</v>
+        <v>0.73494000000000004</v>
       </c>
       <c r="E127">
-        <v>0.71508000000000005</v>
+        <v>0.72284000000000004</v>
       </c>
       <c r="F127">
-        <v>0.72636999999999996</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.4880000000000004</v>
+        <v>1.5919999999999934</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3705,23 +3703,23 @@
         <v>11</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>0.70909</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="D128">
-        <v>0.72243000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E128">
-        <v>0.70755000000000001</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="F128">
-        <v>0.71657999999999999</v>
+        <v>0.72636999999999996</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.4880000000000004</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3729,23 +3727,23 @@
         <v>11</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>0.69610000000000005</v>
+        <v>0.70909</v>
       </c>
       <c r="D129">
-        <v>0.71438000000000001</v>
+        <v>0.72243000000000002</v>
       </c>
       <c r="E129">
-        <v>0.69481999999999999</v>
+        <v>0.70755000000000001</v>
       </c>
       <c r="F129">
-        <v>0.71253999999999995</v>
+        <v>0.71657999999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.5859999999999985</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3753,23 +3751,23 @@
         <v>11</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>0.69096999999999997</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="D130">
-        <v>0.70426</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E130">
-        <v>0.68840000000000001</v>
+        <v>0.69481999999999999</v>
       </c>
       <c r="F130">
-        <v>0.69571000000000005</v>
+        <v>0.71253999999999995</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.2419999999999987</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3777,23 +3775,23 @@
         <v>11</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>0.68532000000000004</v>
+        <v>0.69096999999999997</v>
       </c>
       <c r="D131">
-        <v>0.6976</v>
+        <v>0.70426</v>
       </c>
       <c r="E131">
-        <v>0.68518000000000001</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="F131">
-        <v>0.69323000000000001</v>
+        <v>0.69571000000000005</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>1.2700000000000045</v>
+        <v>1.2419999999999987</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3801,23 +3799,23 @@
         <v>11</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>0.69633999999999996</v>
+        <v>0.68532000000000004</v>
       </c>
       <c r="D132">
-        <v>0.69882</v>
+        <v>0.6976</v>
       </c>
       <c r="E132">
-        <v>0.68611999999999995</v>
+        <v>0.68518000000000001</v>
       </c>
       <c r="F132">
-        <v>0.68783000000000005</v>
+        <v>0.69323000000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.0759999999999899</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3825,23 +3823,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>0.71235999999999999</v>
+        <v>0.69633999999999996</v>
       </c>
       <c r="D133">
-        <v>0.72380999999999995</v>
+        <v>0.69882</v>
       </c>
       <c r="E133">
-        <v>0.69305000000000005</v>
+        <v>0.68611999999999995</v>
       </c>
       <c r="F133">
-        <v>0.69547000000000003</v>
+        <v>0.68783000000000005</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>1.529999999999998</v>
+        <v>3.0759999999999899</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3849,23 +3847,23 @@
         <v>11</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>0.71306000000000003</v>
+        <v>0.71235999999999999</v>
       </c>
       <c r="D134">
-        <v>0.72216999999999998</v>
+        <v>0.72380999999999995</v>
       </c>
       <c r="E134">
-        <v>0.70687</v>
+        <v>0.69305000000000005</v>
       </c>
       <c r="F134">
-        <v>0.71350000000000002</v>
+        <v>0.69547000000000003</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.3639999999999985</v>
+        <v>1.529999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3873,23 +3871,23 @@
         <v>11</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>0.70416999999999996</v>
+        <v>0.71306000000000003</v>
       </c>
       <c r="D135">
-        <v>0.71687999999999996</v>
+        <v>0.72216999999999998</v>
       </c>
       <c r="E135">
-        <v>0.70323999999999998</v>
+        <v>0.70687</v>
       </c>
       <c r="F135">
-        <v>0.71379000000000004</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.140999999999992</v>
+        <v>1.3639999999999985</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3897,23 +3895,23 @@
         <v>11</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>0.69879999999999998</v>
+        <v>0.70416999999999996</v>
       </c>
       <c r="D136">
-        <v>0.70848999999999995</v>
+        <v>0.71687999999999996</v>
       </c>
       <c r="E136">
-        <v>0.69708000000000003</v>
+        <v>0.70323999999999998</v>
       </c>
       <c r="F136">
-        <v>0.70420000000000005</v>
+        <v>0.71379000000000004</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.4399999999999968</v>
+        <v>1.140999999999992</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3921,23 +3919,23 @@
         <v>11</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>0.71365999999999996</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="D137">
-        <v>0.71438000000000001</v>
+        <v>0.70848999999999995</v>
       </c>
       <c r="E137">
-        <v>0.69998000000000005</v>
+        <v>0.69708000000000003</v>
       </c>
       <c r="F137">
-        <v>0.70084000000000002</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.9460000000000042</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3945,23 +3943,23 @@
         <v>11</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>0.73316999999999999</v>
+        <v>0.71365999999999996</v>
       </c>
       <c r="D138">
-        <v>0.74023000000000005</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E138">
-        <v>0.71077000000000001</v>
+        <v>0.69998000000000005</v>
       </c>
       <c r="F138">
-        <v>0.71277999999999997</v>
+        <v>0.70084000000000002</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.0140000000000047</v>
+        <v>2.9460000000000042</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3969,23 +3967,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>0.71547000000000005</v>
+        <v>0.73316999999999999</v>
       </c>
       <c r="D139">
-        <v>0.73382000000000003</v>
+        <v>0.74023000000000005</v>
       </c>
       <c r="E139">
-        <v>0.71367999999999998</v>
+        <v>0.71077000000000001</v>
       </c>
       <c r="F139">
-        <v>0.73285999999999996</v>
+        <v>0.71277999999999997</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>0.75799999999999201</v>
+        <v>2.0140000000000047</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3993,23 +3991,23 @@
         <v>11</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>0.71538999999999997</v>
+        <v>0.71547000000000005</v>
       </c>
       <c r="D140">
-        <v>0.71831999999999996</v>
+        <v>0.73382000000000003</v>
       </c>
       <c r="E140">
-        <v>0.71074000000000004</v>
+        <v>0.71367999999999998</v>
       </c>
       <c r="F140">
-        <v>0.71608000000000005</v>
+        <v>0.73285999999999996</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.8869999999999942</v>
+        <v>0.75799999999999201</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4017,23 +4015,23 @@
         <v>11</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>0.70882000000000001</v>
+        <v>0.71538999999999997</v>
       </c>
       <c r="D141">
-        <v>0.72655999999999998</v>
+        <v>0.71831999999999996</v>
       </c>
       <c r="E141">
-        <v>0.70769000000000004</v>
+        <v>0.71074000000000004</v>
       </c>
       <c r="F141">
-        <v>0.71603000000000006</v>
+        <v>0.71608000000000005</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.415999999999995</v>
+        <v>1.8869999999999942</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4041,23 +4039,23 @@
         <v>11</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>0.71433999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="D142">
-        <v>0.71753999999999996</v>
+        <v>0.72655999999999998</v>
       </c>
       <c r="E142">
-        <v>0.70338000000000001</v>
+        <v>0.70769000000000004</v>
       </c>
       <c r="F142">
-        <v>0.70882000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.0060000000000078</v>
+        <v>1.415999999999995</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4065,23 +4063,23 @@
         <v>11</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>0.72813000000000005</v>
+        <v>0.71433999999999997</v>
       </c>
       <c r="D143">
-        <v>0.73099000000000003</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="E143">
-        <v>0.71092999999999995</v>
+        <v>0.70338000000000001</v>
       </c>
       <c r="F143">
-        <v>0.71655999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.1109999999999953</v>
+        <v>2.0060000000000078</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4089,23 +4087,23 @@
         <v>11</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>0.72243999999999997</v>
+        <v>0.72813000000000005</v>
       </c>
       <c r="D144">
-        <v>0.73297999999999996</v>
+        <v>0.73099000000000003</v>
       </c>
       <c r="E144">
-        <v>0.72187000000000001</v>
+        <v>0.71092999999999995</v>
       </c>
       <c r="F144">
-        <v>0.72816999999999998</v>
+        <v>0.71655999999999997</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.4510000000000023</v>
+        <v>1.1109999999999953</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4113,23 +4111,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>0.72550999999999999</v>
+        <v>0.72243999999999997</v>
       </c>
       <c r="D145">
-        <v>0.73682000000000003</v>
+        <v>0.73297999999999996</v>
       </c>
       <c r="E145">
-        <v>0.72231000000000001</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="F145">
-        <v>0.72431000000000001</v>
+        <v>0.72816999999999998</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.2900000000000023</v>
+        <v>1.4510000000000023</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4137,23 +4135,23 @@
         <v>11</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>0.73224999999999996</v>
+        <v>0.72550999999999999</v>
       </c>
       <c r="D146">
-        <v>0.73633999999999999</v>
+        <v>0.73682000000000003</v>
       </c>
       <c r="E146">
-        <v>0.72343999999999997</v>
+        <v>0.72231000000000001</v>
       </c>
       <c r="F146">
-        <v>0.72663999999999995</v>
+        <v>0.72431000000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>2.0170000000000021</v>
+        <v>1.2900000000000023</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4161,23 +4159,23 @@
         <v>11</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>0.72841</v>
+        <v>0.73224999999999996</v>
       </c>
       <c r="D147">
-        <v>0.74848000000000003</v>
+        <v>0.73633999999999999</v>
       </c>
       <c r="E147">
-        <v>0.72831000000000001</v>
+        <v>0.72343999999999997</v>
       </c>
       <c r="F147">
-        <v>0.73233999999999999</v>
+        <v>0.72663999999999995</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.5599999999999947</v>
+        <v>2.0170000000000021</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4185,23 +4183,23 @@
         <v>11</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>0.72187000000000001</v>
+        <v>0.72841</v>
       </c>
       <c r="D148">
-        <v>0.73594999999999999</v>
+        <v>0.74848000000000003</v>
       </c>
       <c r="E148">
-        <v>0.72035000000000005</v>
+        <v>0.72831000000000001</v>
       </c>
       <c r="F148">
-        <v>0.72909000000000002</v>
+        <v>0.73233999999999999</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.7100000000000004</v>
+        <v>1.5599999999999947</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4209,23 +4207,23 @@
         <v>11</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>0.72502999999999995</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="D149">
-        <v>0.73797999999999997</v>
+        <v>0.73594999999999999</v>
       </c>
       <c r="E149">
-        <v>0.72087999999999997</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="F149">
-        <v>0.72333000000000003</v>
+        <v>0.72909000000000002</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.5730000000000022</v>
+        <v>1.7100000000000004</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4233,23 +4231,23 @@
         <v>11</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>0.71886000000000005</v>
+        <v>0.72502999999999995</v>
       </c>
       <c r="D150">
-        <v>0.73214000000000001</v>
+        <v>0.73797999999999997</v>
       </c>
       <c r="E150">
-        <v>0.71640999999999999</v>
+        <v>0.72087999999999997</v>
       </c>
       <c r="F150">
-        <v>0.72694000000000003</v>
+        <v>0.72333000000000003</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>2.2150000000000003</v>
+        <v>1.5730000000000022</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4257,23 +4255,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>0.71126999999999996</v>
+        <v>0.71886000000000005</v>
       </c>
       <c r="D151">
-        <v>0.73082000000000003</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E151">
-        <v>0.70867000000000002</v>
+        <v>0.71640999999999999</v>
       </c>
       <c r="F151">
-        <v>0.72009999999999996</v>
+        <v>0.72694000000000003</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.3479999999999936</v>
+        <v>2.2150000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4281,23 +4279,23 @@
         <v>11</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>0.71984000000000004</v>
+        <v>0.71126999999999996</v>
       </c>
       <c r="D152">
-        <v>0.72558999999999996</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="E152">
-        <v>0.71211000000000002</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F152">
-        <v>0.71357000000000004</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.7290000000000036</v>
+        <v>1.3479999999999936</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4305,23 +4303,23 @@
         <v>11</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>0.69916</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="D153">
-        <v>0.72291000000000005</v>
+        <v>0.72558999999999996</v>
       </c>
       <c r="E153">
-        <v>0.69562000000000002</v>
+        <v>0.71211000000000002</v>
       </c>
       <c r="F153">
-        <v>0.72157000000000004</v>
+        <v>0.71357000000000004</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.0090000000000052</v>
+        <v>2.7290000000000036</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4329,23 +4327,23 @@
         <v>11</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>0.71360000000000001</v>
+        <v>0.69916</v>
       </c>
       <c r="D154">
-        <v>0.71506000000000003</v>
+        <v>0.72291000000000005</v>
       </c>
       <c r="E154">
-        <v>0.69496999999999998</v>
+        <v>0.69562000000000002</v>
       </c>
       <c r="F154">
-        <v>0.70004</v>
+        <v>0.72157000000000004</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.1000000000000019</v>
+        <v>2.0090000000000052</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4353,23 +4351,23 @@
         <v>11</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>0.72850000000000004</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="D155">
-        <v>0.73238999999999999</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="E155">
-        <v>0.71138999999999997</v>
+        <v>0.69496999999999998</v>
       </c>
       <c r="F155">
-        <v>0.71257000000000004</v>
+        <v>0.70004</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.2680000000000033</v>
+        <v>2.1000000000000019</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4377,23 +4375,23 @@
         <v>11</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>0.71706000000000003</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="D156">
-        <v>0.73060000000000003</v>
+        <v>0.73238999999999999</v>
       </c>
       <c r="E156">
-        <v>0.70791999999999999</v>
+        <v>0.71138999999999997</v>
       </c>
       <c r="F156">
-        <v>0.73016000000000003</v>
+        <v>0.71257000000000004</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.1690000000000098</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4401,23 +4399,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>0.70628999999999997</v>
+        <v>0.71706000000000003</v>
       </c>
       <c r="D157">
-        <v>0.71969000000000005</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="E157">
-        <v>0.69799999999999995</v>
+        <v>0.70791999999999999</v>
       </c>
       <c r="F157">
-        <v>0.71635000000000004</v>
+        <v>0.73016000000000003</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>3.3590000000000009</v>
+        <v>2.1690000000000098</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4425,23 +4423,23 @@
         <v>11</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>0.70665999999999995</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="D158">
-        <v>0.72736000000000001</v>
+        <v>0.71969000000000005</v>
       </c>
       <c r="E158">
-        <v>0.69377</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="F158">
-        <v>0.71240000000000003</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>1.2979999999999992</v>
+        <v>3.3590000000000009</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4449,23 +4447,23 @@
         <v>11</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>0.70416000000000001</v>
+        <v>0.70665999999999995</v>
       </c>
       <c r="D159">
-        <v>0.70926999999999996</v>
+        <v>0.72736000000000001</v>
       </c>
       <c r="E159">
-        <v>0.69628999999999996</v>
+        <v>0.69377</v>
       </c>
       <c r="F159">
-        <v>0.70562000000000002</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.5480000000000058</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4473,23 +4471,23 @@
         <v>11</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>0.69396000000000002</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="D160">
-        <v>0.71472000000000002</v>
+        <v>0.70926999999999996</v>
       </c>
       <c r="E160">
-        <v>0.68923999999999996</v>
+        <v>0.69628999999999996</v>
       </c>
       <c r="F160">
-        <v>0.70630000000000004</v>
+        <v>0.70562000000000002</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.8469999999999995</v>
+        <v>2.5480000000000058</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4497,23 +4495,23 @@
         <v>11</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>0.66922000000000004</v>
+        <v>0.69396000000000002</v>
       </c>
       <c r="D161">
-        <v>0.69599999999999995</v>
+        <v>0.71472000000000002</v>
       </c>
       <c r="E161">
-        <v>0.66752999999999996</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="F161">
-        <v>0.69528999999999996</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.1929999999999996</v>
+        <v>2.8469999999999995</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4521,23 +4519,23 @@
         <v>11</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>0.67669000000000001</v>
+        <v>0.66922000000000004</v>
       </c>
       <c r="D162">
-        <v>0.68059999999999998</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E162">
-        <v>0.66866999999999999</v>
+        <v>0.66752999999999996</v>
       </c>
       <c r="F162">
-        <v>0.67013</v>
+        <v>0.69528999999999996</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.3229999999999964</v>
+        <v>1.1929999999999996</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4545,23 +4543,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>0.67618999999999996</v>
+        <v>0.67669000000000001</v>
       </c>
       <c r="D163">
-        <v>0.68418999999999996</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="E163">
-        <v>0.67096</v>
+        <v>0.66866999999999999</v>
       </c>
       <c r="F163">
-        <v>0.67678000000000005</v>
+        <v>0.67013</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.317999999999997</v>
+        <v>1.3229999999999964</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4569,23 +4567,23 @@
         <v>11</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>0.68247000000000002</v>
+        <v>0.67618999999999996</v>
       </c>
       <c r="D164">
-        <v>0.68472999999999995</v>
+        <v>0.68418999999999996</v>
       </c>
       <c r="E164">
-        <v>0.67154999999999998</v>
+        <v>0.67096</v>
       </c>
       <c r="F164">
-        <v>0.67713999999999996</v>
+        <v>0.67678000000000005</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.4660000000000015</v>
+        <v>1.317999999999997</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4593,23 +4591,23 @@
         <v>11</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>0.69789000000000001</v>
+        <v>0.68247000000000002</v>
       </c>
       <c r="D165">
-        <v>0.70530000000000004</v>
+        <v>0.68472999999999995</v>
       </c>
       <c r="E165">
-        <v>0.68064000000000002</v>
+        <v>0.67154999999999998</v>
       </c>
       <c r="F165">
-        <v>0.68411</v>
+        <v>0.67713999999999996</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.0240000000000036</v>
+        <v>2.4660000000000015</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4617,23 +4615,23 @@
         <v>11</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>0.68518999999999997</v>
+        <v>0.69789000000000001</v>
       </c>
       <c r="D166">
-        <v>0.69984000000000002</v>
+        <v>0.70530000000000004</v>
       </c>
       <c r="E166">
-        <v>0.67959999999999998</v>
+        <v>0.68064000000000002</v>
       </c>
       <c r="F166">
-        <v>0.69862999999999997</v>
+        <v>0.68411</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.189999999999992</v>
+        <v>2.0240000000000036</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4641,23 +4639,23 @@
         <v>11</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>0.68859000000000004</v>
+        <v>0.68518999999999997</v>
       </c>
       <c r="D167">
-        <v>0.70531999999999995</v>
+        <v>0.69984000000000002</v>
       </c>
       <c r="E167">
-        <v>0.68342000000000003</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="F167">
-        <v>0.68559000000000003</v>
+        <v>0.69862999999999997</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>1.6120000000000023</v>
+        <v>2.189999999999992</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4665,23 +4663,23 @@
         <v>11</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>0.6804</v>
+        <v>0.68859000000000004</v>
       </c>
       <c r="D168">
-        <v>0.69515000000000005</v>
+        <v>0.70531999999999995</v>
       </c>
       <c r="E168">
-        <v>0.67903000000000002</v>
+        <v>0.68342000000000003</v>
       </c>
       <c r="F168">
-        <v>0.69152999999999998</v>
+        <v>0.68559000000000003</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>1.4499999999999957</v>
+        <v>1.6120000000000023</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4689,23 +4687,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>0.68894</v>
+        <v>0.6804</v>
       </c>
       <c r="D169">
-        <v>0.69033999999999995</v>
+        <v>0.69515000000000005</v>
       </c>
       <c r="E169">
-        <v>0.67584</v>
+        <v>0.67903000000000002</v>
       </c>
       <c r="F169">
-        <v>0.68117000000000005</v>
+        <v>0.69152999999999998</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.9800000000000049</v>
+        <v>1.4499999999999957</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4713,23 +4711,23 @@
         <v>11</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>0.66771000000000003</v>
+        <v>0.68894</v>
       </c>
       <c r="D170">
-        <v>0.69657000000000002</v>
+        <v>0.69033999999999995</v>
       </c>
       <c r="E170">
-        <v>0.66676999999999997</v>
+        <v>0.67584</v>
       </c>
       <c r="F170">
-        <v>0.68979999999999997</v>
+        <v>0.68117000000000005</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>1.203999999999994</v>
+        <v>2.9800000000000049</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4737,23 +4735,23 @@
         <v>11</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
-        <v>0.67849000000000004</v>
+        <v>0.66771000000000003</v>
       </c>
       <c r="D171">
-        <v>0.67911999999999995</v>
+        <v>0.69657000000000002</v>
       </c>
       <c r="E171">
-        <v>0.66708000000000001</v>
+        <v>0.66676999999999997</v>
       </c>
       <c r="F171">
-        <v>0.66847999999999996</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.9889999999999972</v>
+        <v>1.203999999999994</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4761,23 +4759,23 @@
         <v>11</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>0.67249000000000003</v>
+        <v>0.67849000000000004</v>
       </c>
       <c r="D172">
-        <v>0.68735999999999997</v>
+        <v>0.67911999999999995</v>
       </c>
       <c r="E172">
-        <v>0.65747</v>
+        <v>0.66708000000000001</v>
       </c>
       <c r="F172">
-        <v>0.67923</v>
+        <v>0.66847999999999996</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>1.9610000000000016</v>
+        <v>2.9889999999999972</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4785,23 +4783,23 @@
         <v>11</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>0.67825000000000002</v>
+        <v>0.67249000000000003</v>
       </c>
       <c r="D173">
-        <v>0.68147000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E173">
-        <v>0.66186</v>
+        <v>0.65747</v>
       </c>
       <c r="F173">
-        <v>0.67437000000000002</v>
+        <v>0.67923</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>2.5359999999999938</v>
+        <v>1.9610000000000016</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4809,23 +4807,23 @@
         <v>11</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>0.65854000000000001</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="D174">
-        <v>0.68184999999999996</v>
+        <v>0.68147000000000002</v>
       </c>
       <c r="E174">
-        <v>0.65649000000000002</v>
+        <v>0.66186</v>
       </c>
       <c r="F174">
-        <v>0.68130000000000002</v>
+        <v>0.67437000000000002</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.8819999999999948</v>
+        <v>2.5359999999999938</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4833,23 +4831,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>0.66435</v>
+        <v>0.65854000000000001</v>
       </c>
       <c r="D175">
-        <v>0.67742999999999998</v>
+        <v>0.68184999999999996</v>
       </c>
       <c r="E175">
-        <v>0.65861000000000003</v>
+        <v>0.65649000000000002</v>
       </c>
       <c r="F175">
-        <v>0.66269999999999996</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.3140000000000041</v>
+        <v>1.8819999999999948</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4857,23 +4855,23 @@
         <v>11</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>0.66120000000000001</v>
+        <v>0.66435</v>
       </c>
       <c r="D176">
-        <v>0.66757</v>
+        <v>0.67742999999999998</v>
       </c>
       <c r="E176">
-        <v>0.65442999999999996</v>
+        <v>0.65861000000000003</v>
       </c>
       <c r="F176">
-        <v>0.66310999999999998</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.7500000000000071</v>
+        <v>1.3140000000000041</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4881,23 +4879,23 @@
         <v>11</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>0.66066000000000003</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="D177">
-        <v>0.67373000000000005</v>
+        <v>0.66757</v>
       </c>
       <c r="E177">
-        <v>0.65622999999999998</v>
+        <v>0.65442999999999996</v>
       </c>
       <c r="F177">
-        <v>0.66222999999999999</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>2.9679999999999929</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4905,23 +4903,23 @@
         <v>11</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>0.64739999999999998</v>
+        <v>0.66066000000000003</v>
       </c>
       <c r="D178">
-        <v>0.67452999999999996</v>
+        <v>0.67373000000000005</v>
       </c>
       <c r="E178">
-        <v>0.64485000000000003</v>
+        <v>0.65622999999999998</v>
       </c>
       <c r="F178">
-        <v>0.66293000000000002</v>
+        <v>0.66222999999999999</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>1.2700000000000045</v>
+        <v>2.9679999999999929</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4929,23 +4927,23 @@
         <v>11</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>0.64832999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="D179">
-        <v>0.65429999999999999</v>
+        <v>0.67452999999999996</v>
       </c>
       <c r="E179">
-        <v>0.64159999999999995</v>
+        <v>0.64485000000000003</v>
       </c>
       <c r="F179">
-        <v>0.64795000000000003</v>
+        <v>0.66293000000000002</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.1190000000000042</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4953,23 +4951,23 @@
         <v>11</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>0.64</v>
+        <v>0.64832999999999996</v>
       </c>
       <c r="D180">
-        <v>0.65581</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="E180">
-        <v>0.63461999999999996</v>
+        <v>0.64159999999999995</v>
       </c>
       <c r="F180">
-        <v>0.64880000000000004</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.1040000000000059</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4977,23 +4975,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>0.65485000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="D181">
-        <v>0.65885000000000005</v>
+        <v>0.65581</v>
       </c>
       <c r="E181">
-        <v>0.63780999999999999</v>
+        <v>0.63461999999999996</v>
       </c>
       <c r="F181">
-        <v>0.64676</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>2.9339999999999922</v>
+        <v>2.1040000000000059</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5001,23 +4999,23 @@
         <v>11</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>0.68196000000000001</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="D182">
-        <v>0.68347999999999998</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="E182">
-        <v>0.65414000000000005</v>
+        <v>0.63780999999999999</v>
       </c>
       <c r="F182">
-        <v>0.65525</v>
+        <v>0.64676</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0.65100000000000158</v>
+        <v>2.9339999999999922</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5025,23 +5023,23 @@
         <v>11</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>0.68213999999999997</v>
+        <v>0.68196000000000001</v>
       </c>
       <c r="D183">
-        <v>0.68827000000000005</v>
+        <v>0.68347999999999998</v>
       </c>
       <c r="E183">
-        <v>0.68176000000000003</v>
+        <v>0.65414000000000005</v>
       </c>
       <c r="F183">
-        <v>0.68300000000000005</v>
+        <v>0.65525</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.2510000000000021</v>
+        <v>0.65100000000000158</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5049,23 +5047,23 @@
         <v>11</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>0.67186000000000001</v>
+        <v>0.68213999999999997</v>
       </c>
       <c r="D184">
-        <v>0.68422000000000005</v>
+        <v>0.68827000000000005</v>
       </c>
       <c r="E184">
-        <v>0.67171000000000003</v>
+        <v>0.68176000000000003</v>
       </c>
       <c r="F184">
-        <v>0.68305000000000005</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.5750000000000042</v>
+        <v>1.2510000000000021</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5073,23 +5071,23 @@
         <v>11</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>0.67125999999999997</v>
+        <v>0.67186000000000001</v>
       </c>
       <c r="D185">
-        <v>0.68339000000000005</v>
+        <v>0.68422000000000005</v>
       </c>
       <c r="E185">
-        <v>0.66764000000000001</v>
+        <v>0.67171000000000003</v>
       </c>
       <c r="F185">
-        <v>0.67306999999999995</v>
+        <v>0.68305000000000005</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>2.2120000000000029</v>
+        <v>1.5750000000000042</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5097,23 +5095,23 @@
         <v>11</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>0.67362999999999995</v>
+        <v>0.67125999999999997</v>
       </c>
       <c r="D186">
-        <v>0.67813000000000001</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E186">
-        <v>0.65600999999999998</v>
+        <v>0.66764000000000001</v>
       </c>
       <c r="F186">
-        <v>0.67196</v>
+        <v>0.67306999999999995</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>2.7310000000000056</v>
+        <v>2.2120000000000029</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5121,23 +5119,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>0.65307999999999999</v>
+        <v>0.67362999999999995</v>
       </c>
       <c r="D187">
-        <v>0.67869000000000002</v>
+        <v>0.67813000000000001</v>
       </c>
       <c r="E187">
-        <v>0.65137999999999996</v>
+        <v>0.65600999999999998</v>
       </c>
       <c r="F187">
-        <v>0.67410999999999999</v>
+        <v>0.67196</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.032999999999995</v>
+        <v>2.7310000000000056</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5145,23 +5143,23 @@
         <v>11</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>0.65568000000000004</v>
+        <v>0.65307999999999999</v>
       </c>
       <c r="D188">
-        <v>0.65959999999999996</v>
+        <v>0.67869000000000002</v>
       </c>
       <c r="E188">
-        <v>0.64927000000000001</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="F188">
-        <v>0.65317999999999998</v>
+        <v>0.67410999999999999</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.7970000000000041</v>
+        <v>1.032999999999995</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5169,23 +5167,23 @@
         <v>11</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>0.65395999999999999</v>
+        <v>0.65568000000000004</v>
       </c>
       <c r="D189">
-        <v>0.66049000000000002</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="E189">
-        <v>0.64251999999999998</v>
+        <v>0.64927000000000001</v>
       </c>
       <c r="F189">
-        <v>0.65637000000000001</v>
+        <v>0.65317999999999998</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>0.880000000000003</v>
+        <v>1.7970000000000041</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5193,23 +5191,23 @@
         <v>11</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>0.65122000000000002</v>
+        <v>0.65395999999999999</v>
       </c>
       <c r="D190">
-        <v>0.65873000000000004</v>
+        <v>0.66049000000000002</v>
       </c>
       <c r="E190">
-        <v>0.64993000000000001</v>
+        <v>0.64251999999999998</v>
       </c>
       <c r="F190">
-        <v>0.65349000000000002</v>
+        <v>0.65637000000000001</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>2.8680000000000039</v>
+        <v>0.880000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5217,23 +5215,23 @@
         <v>11</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>0.67329000000000006</v>
+        <v>0.65122000000000002</v>
       </c>
       <c r="D191">
-        <v>0.67849999999999999</v>
+        <v>0.65873000000000004</v>
       </c>
       <c r="E191">
-        <v>0.64981999999999995</v>
+        <v>0.64993000000000001</v>
       </c>
       <c r="F191">
-        <v>0.65200000000000002</v>
+        <v>0.65349000000000002</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.9380000000000064</v>
+        <v>2.8680000000000039</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5241,23 +5239,23 @@
         <v>11</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>0.67391000000000001</v>
+        <v>0.67329000000000006</v>
       </c>
       <c r="D192">
-        <v>0.68122000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="E192">
-        <v>0.66183999999999998</v>
+        <v>0.64981999999999995</v>
       </c>
       <c r="F192">
-        <v>0.67737000000000003</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.6710000000000003</v>
+        <v>1.9380000000000064</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5265,23 +5263,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>0.68032000000000004</v>
+        <v>0.67391000000000001</v>
       </c>
       <c r="D193">
-        <v>0.68647999999999998</v>
+        <v>0.68122000000000005</v>
       </c>
       <c r="E193">
-        <v>0.66976999999999998</v>
+        <v>0.66183999999999998</v>
       </c>
       <c r="F193">
-        <v>0.67532999999999999</v>
+        <v>0.67737000000000003</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>2.795000000000003</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5289,23 +5287,23 @@
         <v>11</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>0.66801999999999995</v>
+        <v>0.68032000000000004</v>
       </c>
       <c r="D194">
-        <v>0.68959000000000004</v>
+        <v>0.68647999999999998</v>
       </c>
       <c r="E194">
-        <v>0.66164000000000001</v>
+        <v>0.66976999999999998</v>
       </c>
       <c r="F194">
-        <v>0.68130000000000002</v>
+        <v>0.67532999999999999</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>2.8420000000000001</v>
+        <v>2.795000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5313,23 +5311,23 @@
         <v>11</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>0.64498</v>
+        <v>0.66801999999999995</v>
       </c>
       <c r="D195">
-        <v>0.67210999999999999</v>
+        <v>0.68959000000000004</v>
       </c>
       <c r="E195">
-        <v>0.64368999999999998</v>
+        <v>0.66164000000000001</v>
       </c>
       <c r="F195">
-        <v>0.66939000000000004</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>1.6679999999999917</v>
+        <v>2.8420000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5337,23 +5335,23 @@
         <v>11</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>0.63619999999999999</v>
+        <v>0.64498</v>
       </c>
       <c r="D196">
-        <v>0.64549999999999996</v>
+        <v>0.67210999999999999</v>
       </c>
       <c r="E196">
-        <v>0.62882000000000005</v>
+        <v>0.64368999999999998</v>
       </c>
       <c r="F196">
-        <v>0.64402999999999999</v>
+        <v>0.66939000000000004</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.6400000000000081</v>
+        <v>1.6679999999999917</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5361,23 +5359,23 @@
         <v>11</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>0.63821000000000006</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="D197">
-        <v>0.63997000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="E197">
-        <v>0.62356999999999996</v>
+        <v>0.62882000000000005</v>
       </c>
       <c r="F197">
-        <v>0.63832999999999995</v>
+        <v>0.64402999999999999</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.6369999999999996</v>
+        <v>1.6400000000000081</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5385,23 +5383,23 @@
         <v>11</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>0.63210999999999995</v>
+        <v>0.63821000000000006</v>
       </c>
       <c r="D198">
-        <v>0.64561000000000002</v>
+        <v>0.63997000000000004</v>
       </c>
       <c r="E198">
-        <v>0.62924000000000002</v>
+        <v>0.62356999999999996</v>
       </c>
       <c r="F198">
-        <v>0.64056000000000002</v>
+        <v>0.63832999999999995</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.8129999999999979</v>
+        <v>1.6369999999999996</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5409,23 +5407,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>0.62829000000000002</v>
+        <v>0.63210999999999995</v>
       </c>
       <c r="D199">
-        <v>0.64246999999999999</v>
+        <v>0.64561000000000002</v>
       </c>
       <c r="E199">
-        <v>0.62434000000000001</v>
+        <v>0.62924000000000002</v>
       </c>
       <c r="F199">
-        <v>0.63166999999999995</v>
+        <v>0.64056000000000002</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.9749999999999934</v>
+        <v>1.8129999999999979</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5433,23 +5431,22 @@
         <v>11</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>0.64549999999999996</v>
+        <v>0.62829000000000002</v>
       </c>
       <c r="D200">
-        <v>0.64666999999999997</v>
+        <v>0.64246999999999999</v>
       </c>
       <c r="E200">
-        <v>0.62692000000000003</v>
+        <v>0.62434000000000001</v>
       </c>
       <c r="F200">
-        <v>0.62892000000000003</v>
+        <v>0.63166999999999995</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/11_NZDUSD.xlsx
+++ b/volatility/src/xls/11_NZDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="140" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>108.3</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>46015</v>
+        <v>76691</v>
       </c>
       <c r="E6" s="5">
         <v>67.2</v>
@@ -638,7 +638,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.3809999999999989</v>
+        <v>1.2450000000000072</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +679,23 @@
         <v>11</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>0.65824000000000005</v>
+        <v>0.67157</v>
       </c>
       <c r="D2">
-        <v>0.67201999999999995</v>
+        <v>0.67259000000000002</v>
       </c>
       <c r="E2">
-        <v>0.65820999999999996</v>
+        <v>0.66013999999999995</v>
       </c>
       <c r="F2">
-        <v>0.67166000000000003</v>
+        <v>0.66229000000000005</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.1809999999999987</v>
+        <v>1.3809999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +703,23 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>0.64907999999999999</v>
+        <v>0.65824000000000005</v>
       </c>
       <c r="D3">
-        <v>0.66034999999999999</v>
+        <v>0.67201999999999995</v>
       </c>
       <c r="E3">
-        <v>0.64854000000000001</v>
+        <v>0.65820999999999996</v>
       </c>
       <c r="F3">
-        <v>0.65849000000000002</v>
+        <v>0.67166000000000003</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.7340000000000022</v>
+        <v>1.1809999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +727,23 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>0.66515000000000002</v>
+        <v>0.64907999999999999</v>
       </c>
       <c r="D4">
-        <v>0.66608000000000001</v>
+        <v>0.66034999999999999</v>
       </c>
       <c r="E4">
-        <v>0.64873999999999998</v>
+        <v>0.64854000000000001</v>
       </c>
       <c r="F4">
-        <v>0.64903999999999995</v>
+        <v>0.65849000000000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.5480000000000049</v>
+        <v>1.7340000000000022</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +751,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>0.65268000000000004</v>
+        <v>0.66515000000000002</v>
       </c>
       <c r="D5">
-        <v>0.66807000000000005</v>
+        <v>0.66608000000000001</v>
       </c>
       <c r="E5">
-        <v>0.65259</v>
+        <v>0.64873999999999998</v>
       </c>
       <c r="F5">
-        <v>0.66585000000000005</v>
+        <v>0.64903999999999995</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.64400000000000013</v>
+        <v>1.5480000000000049</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +775,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>0.65473999999999999</v>
+        <v>0.65268000000000004</v>
       </c>
       <c r="D6">
-        <v>0.65585000000000004</v>
+        <v>0.66807000000000005</v>
       </c>
       <c r="E6">
-        <v>0.64941000000000004</v>
+        <v>0.65259</v>
       </c>
       <c r="F6">
-        <v>0.65369999999999995</v>
+        <v>0.66585000000000005</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.73900000000000077</v>
+        <v>0.64400000000000013</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +799,23 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>0.65264999999999995</v>
+        <v>0.65473999999999999</v>
       </c>
       <c r="D7">
-        <v>0.65549000000000002</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="E7">
-        <v>0.64810000000000001</v>
+        <v>0.64941000000000004</v>
       </c>
       <c r="F7">
-        <v>0.65512999999999999</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.8560000000000012</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +823,23 @@
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>0.65968000000000004</v>
+        <v>0.65264999999999995</v>
       </c>
       <c r="D8">
-        <v>0.65976999999999997</v>
+        <v>0.65549000000000002</v>
       </c>
       <c r="E8">
-        <v>0.65120999999999996</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="F8">
-        <v>0.65137999999999996</v>
+        <v>0.65512999999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>0.8560000000000012</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +847,23 @@
         <v>11</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>0.66130999999999995</v>
+        <v>0.65968000000000004</v>
       </c>
       <c r="D9">
-        <v>0.66286999999999996</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="E9">
-        <v>0.65244999999999997</v>
+        <v>0.65120999999999996</v>
       </c>
       <c r="F9">
-        <v>0.65954000000000002</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.78599999999999781</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +871,23 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>0.66559999999999997</v>
+        <v>0.66130999999999995</v>
       </c>
       <c r="D10">
-        <v>0.66839999999999999</v>
+        <v>0.66286999999999996</v>
       </c>
       <c r="E10">
-        <v>0.66054000000000002</v>
+        <v>0.65244999999999997</v>
       </c>
       <c r="F10">
-        <v>0.66412000000000004</v>
+        <v>0.65954000000000002</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.0880000000000001</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +895,23 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>0.66781000000000001</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="D11">
-        <v>0.66881999999999997</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="E11">
-        <v>0.65793999999999997</v>
+        <v>0.66054000000000002</v>
       </c>
       <c r="F11">
-        <v>0.66610999999999998</v>
+        <v>0.66412000000000004</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.1789999999999967</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +919,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>0.67613000000000001</v>
+        <v>0.66781000000000001</v>
       </c>
       <c r="D12">
-        <v>0.67820999999999998</v>
+        <v>0.66881999999999997</v>
       </c>
       <c r="E12">
-        <v>0.66642000000000001</v>
+        <v>0.65793999999999997</v>
       </c>
       <c r="F12">
-        <v>0.66859999999999997</v>
+        <v>0.66610999999999998</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.68099999999999827</v>
+        <v>1.1789999999999967</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +943,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>0.67279</v>
+        <v>0.67613000000000001</v>
       </c>
       <c r="D13">
-        <v>0.67808999999999997</v>
+        <v>0.67820999999999998</v>
       </c>
       <c r="E13">
-        <v>0.67127999999999999</v>
+        <v>0.66642000000000001</v>
       </c>
       <c r="F13">
-        <v>0.67608999999999997</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.1909999999999976</v>
+        <v>0.68099999999999827</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +967,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>0.68118999999999996</v>
+        <v>0.67279</v>
       </c>
       <c r="D14">
-        <v>0.68367</v>
+        <v>0.67808999999999997</v>
       </c>
       <c r="E14">
-        <v>0.67176000000000002</v>
+        <v>0.67127999999999999</v>
       </c>
       <c r="F14">
-        <v>0.67293999999999998</v>
+        <v>0.67608999999999997</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.532</v>
+        <v>1.1909999999999976</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +991,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>0.68813000000000002</v>
+        <v>0.68118999999999996</v>
       </c>
       <c r="D15">
-        <v>0.69240000000000002</v>
+        <v>0.68367</v>
       </c>
       <c r="E15">
-        <v>0.67708000000000002</v>
+        <v>0.67176000000000002</v>
       </c>
       <c r="F15">
-        <v>0.68030999999999997</v>
+        <v>0.67293999999999998</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.1089999999999933</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1015,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>0.68408000000000002</v>
+        <v>0.68813000000000002</v>
       </c>
       <c r="D16">
-        <v>0.69377999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="E16">
-        <v>0.68269000000000002</v>
+        <v>0.67708000000000002</v>
       </c>
       <c r="F16">
-        <v>0.68733999999999995</v>
+        <v>0.68030999999999997</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.82800000000000651</v>
+        <v>1.1089999999999933</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1039,23 @@
         <v>11</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>0.67896000000000001</v>
+        <v>0.68408000000000002</v>
       </c>
       <c r="D17">
-        <v>0.68722000000000005</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="E17">
-        <v>0.67893999999999999</v>
+        <v>0.68269000000000002</v>
       </c>
       <c r="F17">
-        <v>0.68445</v>
+        <v>0.68733999999999995</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.83199999999999941</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1063,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>0.68230000000000002</v>
+        <v>0.67896000000000001</v>
       </c>
       <c r="D18">
-        <v>0.68272999999999995</v>
+        <v>0.68722000000000005</v>
       </c>
       <c r="E18">
-        <v>0.67440999999999995</v>
+        <v>0.67893999999999999</v>
       </c>
       <c r="F18">
-        <v>0.68035999999999996</v>
+        <v>0.68445</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>0.83199999999999941</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1087,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>0.68577999999999995</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="D19">
-        <v>0.69023000000000001</v>
+        <v>0.68272999999999995</v>
       </c>
       <c r="E19">
-        <v>0.67932999999999999</v>
+        <v>0.67440999999999995</v>
       </c>
       <c r="F19">
-        <v>0.67964999999999998</v>
+        <v>0.68035999999999996</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.3590000000000102</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1111,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>0.68516999999999995</v>
+        <v>0.68577999999999995</v>
       </c>
       <c r="D20">
-        <v>0.68927000000000005</v>
+        <v>0.69023000000000001</v>
       </c>
       <c r="E20">
-        <v>0.67567999999999995</v>
+        <v>0.67932999999999999</v>
       </c>
       <c r="F20">
-        <v>0.68467999999999996</v>
+        <v>0.67964999999999998</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.5469999999999984</v>
+        <v>1.3590000000000102</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1135,23 @@
         <v>11</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>0.67383999999999999</v>
+        <v>0.68516999999999995</v>
       </c>
       <c r="D21">
-        <v>0.68735999999999997</v>
+        <v>0.68927000000000005</v>
       </c>
       <c r="E21">
-        <v>0.67188999999999999</v>
+        <v>0.67567999999999995</v>
       </c>
       <c r="F21">
-        <v>0.68613999999999997</v>
+        <v>0.68467999999999996</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.7630000000000035</v>
+        <v>1.5469999999999984</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1159,23 @@
         <v>11</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>0.68923999999999996</v>
+        <v>0.67383999999999999</v>
       </c>
       <c r="D22">
-        <v>0.69052000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E22">
-        <v>0.67288999999999999</v>
+        <v>0.67188999999999999</v>
       </c>
       <c r="F22">
-        <v>0.67476000000000003</v>
+        <v>0.68613999999999997</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.261000000000001</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1183,23 @@
         <v>11</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>0.68262</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="D23">
-        <v>0.69410000000000005</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="E23">
-        <v>0.68149000000000004</v>
+        <v>0.67288999999999999</v>
       </c>
       <c r="F23">
-        <v>0.68964999999999999</v>
+        <v>0.67476000000000003</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.261000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1207,23 @@
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>0.67522000000000004</v>
+        <v>0.68262</v>
       </c>
       <c r="D24">
-        <v>0.68501000000000001</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="E24">
-        <v>0.67059999999999997</v>
+        <v>0.68149000000000004</v>
       </c>
       <c r="F24">
-        <v>0.68388000000000004</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1231,23 @@
         <v>11</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>0.68220000000000003</v>
+        <v>0.67522000000000004</v>
       </c>
       <c r="D25">
-        <v>0.68479000000000001</v>
+        <v>0.68501000000000001</v>
       </c>
       <c r="E25">
-        <v>0.67269000000000001</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="F25">
-        <v>0.67413000000000001</v>
+        <v>0.68388000000000004</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.3630000000000031</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1255,23 @@
         <v>11</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>0.67396</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="D26">
-        <v>0.68430000000000002</v>
+        <v>0.68479000000000001</v>
       </c>
       <c r="E26">
-        <v>0.67066999999999999</v>
+        <v>0.67269000000000001</v>
       </c>
       <c r="F26">
-        <v>0.68335000000000001</v>
+        <v>0.67413000000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.2299999999999986</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1279,23 @@
         <v>11</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>0.67086999999999997</v>
+        <v>0.67396</v>
       </c>
       <c r="D27">
-        <v>0.67513000000000001</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="E27">
-        <v>0.65283000000000002</v>
+        <v>0.67066999999999999</v>
       </c>
       <c r="F27">
-        <v>0.67393999999999998</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.53600000000000314</v>
+        <v>2.2299999999999986</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1303,23 @@
         <v>11</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
-        <v>0.67220000000000002</v>
+        <v>0.67086999999999997</v>
       </c>
       <c r="D28">
-        <v>0.67454000000000003</v>
+        <v>0.67513000000000001</v>
       </c>
       <c r="E28">
-        <v>0.66918</v>
+        <v>0.65283000000000002</v>
       </c>
       <c r="F28">
-        <v>0.67042999999999997</v>
+        <v>0.67393999999999998</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.7400000000000082</v>
+        <v>0.53600000000000314</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1327,23 @@
         <v>11</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>0.67930000000000001</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D29">
-        <v>0.68793000000000004</v>
+        <v>0.67454000000000003</v>
       </c>
       <c r="E29">
-        <v>0.67052999999999996</v>
+        <v>0.66918</v>
       </c>
       <c r="F29">
-        <v>0.67074</v>
+        <v>0.67042999999999997</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.3369999999999993</v>
+        <v>1.7400000000000082</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1351,23 @@
         <v>11</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>0.68659999999999999</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="D30">
-        <v>0.69108000000000003</v>
+        <v>0.68793000000000004</v>
       </c>
       <c r="E30">
-        <v>0.67771000000000003</v>
+        <v>0.67052999999999996</v>
       </c>
       <c r="F30">
-        <v>0.67974000000000001</v>
+        <v>0.67074</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.2310000000000043</v>
+        <v>1.3369999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1375,23 @@
         <v>11</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>0.69133</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="D31">
-        <v>0.69686999999999999</v>
+        <v>0.69108000000000003</v>
       </c>
       <c r="E31">
-        <v>0.68455999999999995</v>
+        <v>0.67771000000000003</v>
       </c>
       <c r="F31">
-        <v>0.68598000000000003</v>
+        <v>0.67974000000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.3509999999999911</v>
+        <v>1.2310000000000043</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1399,23 @@
         <v>11</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>0.67557</v>
+        <v>0.69133</v>
       </c>
       <c r="D32">
-        <v>0.68862999999999996</v>
+        <v>0.69686999999999999</v>
       </c>
       <c r="E32">
-        <v>0.67512000000000005</v>
+        <v>0.68455999999999995</v>
       </c>
       <c r="F32">
-        <v>0.6875</v>
+        <v>0.68598000000000003</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.0750000000000037</v>
+        <v>1.3509999999999911</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1423,23 @@
         <v>11</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>0.68605000000000005</v>
+        <v>0.67557</v>
       </c>
       <c r="D33">
-        <v>0.68732000000000004</v>
+        <v>0.68862999999999996</v>
       </c>
       <c r="E33">
-        <v>0.67657</v>
+        <v>0.67512000000000005</v>
       </c>
       <c r="F33">
-        <v>0.67718</v>
+        <v>0.6875</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7859999999999987</v>
+        <v>1.0750000000000037</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1447,23 @@
         <v>11</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>0.67235</v>
+        <v>0.68605000000000005</v>
       </c>
       <c r="D34">
-        <v>0.68830999999999998</v>
+        <v>0.68732000000000004</v>
       </c>
       <c r="E34">
-        <v>0.67044999999999999</v>
+        <v>0.67657</v>
       </c>
       <c r="F34">
-        <v>0.68777999999999995</v>
+        <v>0.67718</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.7869999999999941</v>
+        <v>1.7859999999999987</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1471,23 @@
         <v>11</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>0.66310999999999998</v>
+        <v>0.67235</v>
       </c>
       <c r="D35">
-        <v>0.68096999999999996</v>
+        <v>0.68830999999999998</v>
       </c>
       <c r="E35">
-        <v>0.66310000000000002</v>
+        <v>0.67044999999999999</v>
       </c>
       <c r="F35">
-        <v>0.67384999999999995</v>
+        <v>0.68777999999999995</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.7850000000000033</v>
+        <v>1.7869999999999941</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1495,23 @@
         <v>11</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>0.65188000000000001</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="D36">
-        <v>0.66888000000000003</v>
+        <v>0.68096999999999996</v>
       </c>
       <c r="E36">
-        <v>0.65103</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="F36">
-        <v>0.66457999999999995</v>
+        <v>0.67384999999999995</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1519,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>0.65971000000000002</v>
+        <v>0.65188000000000001</v>
       </c>
       <c r="D37">
-        <v>0.66030999999999995</v>
+        <v>0.66888000000000003</v>
       </c>
       <c r="E37">
-        <v>0.64642999999999995</v>
+        <v>0.65103</v>
       </c>
       <c r="F37">
-        <v>0.65207000000000004</v>
+        <v>0.66457999999999995</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1543,23 @@
         <v>11</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>0.64947999999999995</v>
+        <v>0.65971000000000002</v>
       </c>
       <c r="D38">
-        <v>0.66063000000000005</v>
+        <v>0.66030999999999995</v>
       </c>
       <c r="E38">
-        <v>0.64937</v>
+        <v>0.64642999999999995</v>
       </c>
       <c r="F38">
-        <v>0.65890000000000004</v>
+        <v>0.65207000000000004</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1567,23 @@
         <v>11</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>0.64373000000000002</v>
+        <v>0.64947999999999995</v>
       </c>
       <c r="D39">
-        <v>0.65327000000000002</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="E39">
-        <v>0.64237</v>
+        <v>0.64937</v>
       </c>
       <c r="F39">
-        <v>0.65047999999999995</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.9639999999999991</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1591,23 @@
         <v>11</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>0.66151000000000004</v>
+        <v>0.64373000000000002</v>
       </c>
       <c r="D40">
-        <v>0.66278999999999999</v>
+        <v>0.65327000000000002</v>
       </c>
       <c r="E40">
-        <v>0.64315</v>
+        <v>0.64237</v>
       </c>
       <c r="F40">
-        <v>0.64431000000000005</v>
+        <v>0.65047999999999995</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>0.97599999999999909</v>
+        <v>1.9639999999999991</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1615,23 @@
         <v>11</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>0.66657999999999995</v>
+        <v>0.66151000000000004</v>
       </c>
       <c r="D41">
-        <v>0.66952999999999996</v>
+        <v>0.66278999999999999</v>
       </c>
       <c r="E41">
-        <v>0.65976999999999997</v>
+        <v>0.64315</v>
       </c>
       <c r="F41">
-        <v>0.66224000000000005</v>
+        <v>0.64431000000000005</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.6050000000000009</v>
+        <v>0.97599999999999909</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1639,23 @@
         <v>11</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
-        <v>0.65481999999999996</v>
+        <v>0.66657999999999995</v>
       </c>
       <c r="D42">
-        <v>0.66983999999999999</v>
+        <v>0.66952999999999996</v>
       </c>
       <c r="E42">
-        <v>0.65378999999999998</v>
+        <v>0.65976999999999997</v>
       </c>
       <c r="F42">
-        <v>0.66793000000000002</v>
+        <v>0.66224000000000005</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>0.94699999999999784</v>
+        <v>1.6050000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1663,23 @@
         <v>11</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>0.65290000000000004</v>
+        <v>0.65481999999999996</v>
       </c>
       <c r="D43">
-        <v>0.65947999999999996</v>
+        <v>0.66983999999999999</v>
       </c>
       <c r="E43">
-        <v>0.65000999999999998</v>
+        <v>0.65378999999999998</v>
       </c>
       <c r="F43">
-        <v>0.65466000000000002</v>
+        <v>0.66793000000000002</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>0.93300000000000605</v>
+        <v>0.94699999999999784</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1687,23 @@
         <v>11</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>0.66142999999999996</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="D44">
-        <v>0.66207000000000005</v>
+        <v>0.65947999999999996</v>
       </c>
       <c r="E44">
-        <v>0.65273999999999999</v>
+        <v>0.65000999999999998</v>
       </c>
       <c r="F44">
-        <v>0.65298</v>
+        <v>0.65466000000000002</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.1979999999999991</v>
+        <v>0.93300000000000605</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1711,23 @@
         <v>11</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>0.66842999999999997</v>
+        <v>0.66142999999999996</v>
       </c>
       <c r="D45">
-        <v>0.67261000000000004</v>
+        <v>0.66207000000000005</v>
       </c>
       <c r="E45">
-        <v>0.66063000000000005</v>
+        <v>0.65273999999999999</v>
       </c>
       <c r="F45">
-        <v>0.66195999999999999</v>
+        <v>0.65298</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.0900000000000021</v>
+        <v>1.1979999999999991</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1735,23 @@
         <v>11</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>0.66266999999999998</v>
+        <v>0.66842999999999997</v>
       </c>
       <c r="D46">
-        <v>0.67191000000000001</v>
+        <v>0.67261000000000004</v>
       </c>
       <c r="E46">
-        <v>0.66100999999999999</v>
+        <v>0.66063000000000005</v>
       </c>
       <c r="F46">
-        <v>0.66920000000000002</v>
+        <v>0.66195999999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.9020000000000028</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1759,23 @@
         <v>11</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>0.65742999999999996</v>
+        <v>0.66266999999999998</v>
       </c>
       <c r="D47">
-        <v>0.66339999999999999</v>
+        <v>0.67191000000000001</v>
       </c>
       <c r="E47">
-        <v>0.65437999999999996</v>
+        <v>0.66100999999999999</v>
       </c>
       <c r="F47">
-        <v>0.66303000000000001</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.9199999999999995</v>
+        <v>0.9020000000000028</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1783,23 @@
         <v>11</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>0.67410000000000003</v>
+        <v>0.65742999999999996</v>
       </c>
       <c r="D48">
-        <v>0.67617000000000005</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="E48">
-        <v>0.65697000000000005</v>
+        <v>0.65437999999999996</v>
       </c>
       <c r="F48">
-        <v>0.65791999999999995</v>
+        <v>0.66303000000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.1420000000000097</v>
+        <v>1.9199999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1807,23 @@
         <v>11</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>0.67908999999999997</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="D49">
-        <v>0.68339000000000005</v>
+        <v>0.67617000000000005</v>
       </c>
       <c r="E49">
-        <v>0.67196999999999996</v>
+        <v>0.65697000000000005</v>
       </c>
       <c r="F49">
-        <v>0.67464000000000002</v>
+        <v>0.65791999999999995</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0.882000000000005</v>
+        <v>1.1420000000000097</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1831,23 @@
         <v>11</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>0.67949999999999999</v>
+        <v>0.67908999999999997</v>
       </c>
       <c r="D50">
-        <v>0.68500000000000005</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E50">
-        <v>0.67618</v>
+        <v>0.67196999999999996</v>
       </c>
       <c r="F50">
-        <v>0.6794</v>
+        <v>0.67464000000000002</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.2669999999999959</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1855,23 @@
         <v>11</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>0.67573000000000005</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="D51">
-        <v>0.68398999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E51">
-        <v>0.67132000000000003</v>
+        <v>0.67618</v>
       </c>
       <c r="F51">
-        <v>0.68081999999999998</v>
+        <v>0.6794</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.3340000000000019</v>
+        <v>1.2669999999999959</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1879,23 @@
         <v>11</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>0.68332000000000004</v>
+        <v>0.67573000000000005</v>
       </c>
       <c r="D52">
-        <v>0.68581000000000003</v>
+        <v>0.68398999999999999</v>
       </c>
       <c r="E52">
-        <v>0.67247000000000001</v>
+        <v>0.67132000000000003</v>
       </c>
       <c r="F52">
-        <v>0.67673000000000005</v>
+        <v>0.68081999999999998</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.5610000000000013</v>
+        <v>1.3340000000000019</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1903,23 @@
         <v>11</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>0.67769999999999997</v>
+        <v>0.68332000000000004</v>
       </c>
       <c r="D53">
-        <v>0.68432999999999999</v>
+        <v>0.68581000000000003</v>
       </c>
       <c r="E53">
-        <v>0.66871999999999998</v>
+        <v>0.67247000000000001</v>
       </c>
       <c r="F53">
-        <v>0.68430000000000002</v>
+        <v>0.67673000000000005</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.8580000000000041</v>
+        <v>1.5610000000000013</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1927,23 @@
         <v>11</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>0.69106000000000001</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="D54">
-        <v>0.69211</v>
+        <v>0.68432999999999999</v>
       </c>
       <c r="E54">
-        <v>0.67352999999999996</v>
+        <v>0.66871999999999998</v>
       </c>
       <c r="F54">
-        <v>0.67834000000000005</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.3009999999999966</v>
+        <v>1.8580000000000041</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1951,23 @@
         <v>11</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>0.69313000000000002</v>
+        <v>0.69106000000000001</v>
       </c>
       <c r="D55">
-        <v>0.69550999999999996</v>
+        <v>0.69211</v>
       </c>
       <c r="E55">
-        <v>0.6825</v>
+        <v>0.67352999999999996</v>
       </c>
       <c r="F55">
-        <v>0.69128999999999996</v>
+        <v>0.67834000000000005</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.258999999999999</v>
+        <v>1.3009999999999966</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1975,23 @@
         <v>11</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>0.70225000000000004</v>
+        <v>0.69313000000000002</v>
       </c>
       <c r="D56">
-        <v>0.70528000000000002</v>
+        <v>0.69550999999999996</v>
       </c>
       <c r="E56">
-        <v>0.69269000000000003</v>
+        <v>0.6825</v>
       </c>
       <c r="F56">
-        <v>0.69404999999999994</v>
+        <v>0.69128999999999996</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0.82900000000000196</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +1999,23 @@
         <v>11</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
-        <v>0.69825000000000004</v>
+        <v>0.70225000000000004</v>
       </c>
       <c r="D57">
-        <v>0.70594000000000001</v>
+        <v>0.70528000000000002</v>
       </c>
       <c r="E57">
-        <v>0.69764999999999999</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="F57">
-        <v>0.70308999999999999</v>
+        <v>0.69404999999999994</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.4070000000000027</v>
+        <v>0.82900000000000196</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2023,23 @@
         <v>11</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>0.69225000000000003</v>
+        <v>0.69825000000000004</v>
       </c>
       <c r="D58">
-        <v>0.70230000000000004</v>
+        <v>0.70594000000000001</v>
       </c>
       <c r="E58">
-        <v>0.68823000000000001</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="F58">
-        <v>0.6986</v>
+        <v>0.70308999999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>0.9040000000000048</v>
+        <v>1.4070000000000027</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2047,23 @@
         <v>11</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>0.69254000000000004</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="D59">
-        <v>0.69737000000000005</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="E59">
-        <v>0.68833</v>
+        <v>0.68823000000000001</v>
       </c>
       <c r="F59">
-        <v>0.69167999999999996</v>
+        <v>0.6986</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.2319999999999998</v>
+        <v>0.9040000000000048</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2071,23 @@
         <v>11</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>0.69584999999999997</v>
+        <v>0.69254000000000004</v>
       </c>
       <c r="D60">
-        <v>0.69735999999999998</v>
+        <v>0.69737000000000005</v>
       </c>
       <c r="E60">
-        <v>0.68503999999999998</v>
+        <v>0.68833</v>
       </c>
       <c r="F60">
-        <v>0.69203000000000003</v>
+        <v>0.69167999999999996</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.3880000000000003</v>
+        <v>1.2319999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2095,23 @@
         <v>11</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>0.70132000000000005</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="D61">
-        <v>0.70406000000000002</v>
+        <v>0.69735999999999998</v>
       </c>
       <c r="E61">
-        <v>0.69018000000000002</v>
+        <v>0.68503999999999998</v>
       </c>
       <c r="F61">
-        <v>0.69681999999999999</v>
+        <v>0.69203000000000003</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.041000000000003</v>
+        <v>1.3880000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2119,23 @@
         <v>11</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>0.70796000000000003</v>
+        <v>0.70132000000000005</v>
       </c>
       <c r="D62">
-        <v>0.70884000000000003</v>
+        <v>0.70406000000000002</v>
       </c>
       <c r="E62">
-        <v>0.69843</v>
+        <v>0.69018000000000002</v>
       </c>
       <c r="F62">
-        <v>0.70193000000000005</v>
+        <v>0.69681999999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.041000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2143,23 @@
         <v>11</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>0.72123999999999999</v>
+        <v>0.70796000000000003</v>
       </c>
       <c r="D63">
-        <v>0.72174000000000005</v>
+        <v>0.70884000000000003</v>
       </c>
       <c r="E63">
-        <v>0.70354000000000005</v>
+        <v>0.69843</v>
       </c>
       <c r="F63">
-        <v>0.70855000000000001</v>
+        <v>0.70193000000000005</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.7159999999999953</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2167,23 @@
         <v>11</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>0.73485999999999996</v>
+        <v>0.72123999999999999</v>
       </c>
       <c r="D64">
-        <v>0.73716999999999999</v>
+        <v>0.72174000000000005</v>
       </c>
       <c r="E64">
-        <v>0.72001000000000004</v>
+        <v>0.70354000000000005</v>
       </c>
       <c r="F64">
-        <v>0.72092999999999996</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.7159999999999953</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2191,23 @@
         <v>11</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>0.72662000000000004</v>
+        <v>0.73485999999999996</v>
       </c>
       <c r="D65">
-        <v>0.73945000000000005</v>
+        <v>0.73716999999999999</v>
       </c>
       <c r="E65">
-        <v>0.72652000000000005</v>
+        <v>0.72001000000000004</v>
       </c>
       <c r="F65">
-        <v>0.73516999999999999</v>
+        <v>0.72092999999999996</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.2709999999999999</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2215,23 @@
         <v>11</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>0.72345000000000004</v>
+        <v>0.72662000000000004</v>
       </c>
       <c r="D66">
-        <v>0.73214000000000001</v>
+        <v>0.73945000000000005</v>
       </c>
       <c r="E66">
-        <v>0.71943000000000001</v>
+        <v>0.72652000000000005</v>
       </c>
       <c r="F66">
-        <v>0.72772999999999999</v>
+        <v>0.73516999999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.1539999999999995</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2239,23 @@
         <v>11</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>0.72299000000000002</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="D67">
-        <v>0.73028000000000004</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E67">
-        <v>0.71874000000000005</v>
+        <v>0.71943000000000001</v>
       </c>
       <c r="F67">
-        <v>0.72382999999999997</v>
+        <v>0.72772999999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.2049999999999894</v>
+        <v>1.1539999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2263,23 @@
         <v>11</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>0.72124999999999995</v>
+        <v>0.72299000000000002</v>
       </c>
       <c r="D68">
-        <v>0.72729999999999995</v>
+        <v>0.73028000000000004</v>
       </c>
       <c r="E68">
-        <v>0.71525000000000005</v>
+        <v>0.71874000000000005</v>
       </c>
       <c r="F68">
-        <v>0.72394999999999998</v>
+        <v>0.72382999999999997</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.4670000000000072</v>
+        <v>1.2049999999999894</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2287,23 @@
         <v>11</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>0.72836000000000001</v>
+        <v>0.72124999999999995</v>
       </c>
       <c r="D69">
-        <v>0.73540000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="E69">
-        <v>0.72072999999999998</v>
+        <v>0.71525000000000005</v>
       </c>
       <c r="F69">
-        <v>0.72138000000000002</v>
+        <v>0.72394999999999998</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.0800000000000032</v>
+        <v>1.4670000000000072</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2311,23 @@
         <v>11</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>0.72318000000000005</v>
+        <v>0.72836000000000001</v>
       </c>
       <c r="D70">
-        <v>0.73101000000000005</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="E70">
-        <v>0.72021000000000002</v>
+        <v>0.72072999999999998</v>
       </c>
       <c r="F70">
-        <v>0.72889000000000004</v>
+        <v>0.72138000000000002</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.588999999999996</v>
+        <v>1.0800000000000032</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2335,23 @@
         <v>11</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>0.72884000000000004</v>
+        <v>0.72318000000000005</v>
       </c>
       <c r="D71">
-        <v>0.73443999999999998</v>
+        <v>0.73101000000000005</v>
       </c>
       <c r="E71">
-        <v>0.71855000000000002</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="F71">
-        <v>0.72360000000000002</v>
+        <v>0.72889000000000004</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.3869999999999938</v>
+        <v>1.588999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2359,23 @@
         <v>11</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>0.73736999999999997</v>
+        <v>0.72884000000000004</v>
       </c>
       <c r="D72">
-        <v>0.74087999999999998</v>
+        <v>0.73443999999999998</v>
       </c>
       <c r="E72">
-        <v>0.72701000000000005</v>
+        <v>0.71855000000000002</v>
       </c>
       <c r="F72">
-        <v>0.72897999999999996</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>2.0489999999999897</v>
+        <v>1.3869999999999938</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2383,23 @@
         <v>11</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>0.72375999999999996</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D73">
-        <v>0.74361999999999995</v>
+        <v>0.74087999999999998</v>
       </c>
       <c r="E73">
-        <v>0.72313000000000005</v>
+        <v>0.72701000000000005</v>
       </c>
       <c r="F73">
-        <v>0.73928000000000005</v>
+        <v>0.72897999999999996</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.7460000000000031</v>
+        <v>2.0489999999999897</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2407,23 @@
         <v>11</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>0.72857000000000005</v>
+        <v>0.72375999999999996</v>
       </c>
       <c r="D74">
-        <v>0.73507</v>
+        <v>0.74361999999999995</v>
       </c>
       <c r="E74">
-        <v>0.71760999999999997</v>
+        <v>0.72313000000000005</v>
       </c>
       <c r="F74">
-        <v>0.72558</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.4050000000000007</v>
+        <v>1.7460000000000031</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2431,23 @@
         <v>11</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>0.7339</v>
+        <v>0.72857000000000005</v>
       </c>
       <c r="D75">
-        <v>0.74192999999999998</v>
+        <v>0.73507</v>
       </c>
       <c r="E75">
-        <v>0.72787999999999997</v>
+        <v>0.71760999999999997</v>
       </c>
       <c r="F75">
-        <v>0.73016999999999999</v>
+        <v>0.72558</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.6920000000000046</v>
+        <v>1.4050000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2455,23 @@
         <v>11</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>0.72809999999999997</v>
+        <v>0.7339</v>
       </c>
       <c r="D76">
-        <v>0.74360999999999999</v>
+        <v>0.74192999999999998</v>
       </c>
       <c r="E76">
-        <v>0.72668999999999995</v>
+        <v>0.72787999999999997</v>
       </c>
       <c r="F76">
-        <v>0.73543999999999998</v>
+        <v>0.73016999999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>0.97199999999999509</v>
+        <v>1.6920000000000046</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2479,23 @@
         <v>11</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>0.72336</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D77">
-        <v>0.73307999999999995</v>
+        <v>0.74360999999999999</v>
       </c>
       <c r="E77">
-        <v>0.72336</v>
+        <v>0.72668999999999995</v>
       </c>
       <c r="F77">
-        <v>0.72809999999999997</v>
+        <v>0.73543999999999998</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.3630000000000031</v>
+        <v>0.97199999999999509</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2503,23 @@
         <v>11</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>0.71603000000000006</v>
+        <v>0.72336</v>
       </c>
       <c r="D78">
-        <v>0.72755999999999998</v>
+        <v>0.73307999999999995</v>
       </c>
       <c r="E78">
-        <v>0.71392999999999995</v>
+        <v>0.72336</v>
       </c>
       <c r="F78">
-        <v>0.72570999999999997</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>1.3630000000000031</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2527,23 @@
         <v>11</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>0.71016000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="D79">
-        <v>0.71860000000000002</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="E79">
-        <v>0.69908999999999999</v>
+        <v>0.71392999999999995</v>
       </c>
       <c r="F79">
-        <v>0.71677999999999997</v>
+        <v>0.72570999999999997</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.2519999999999976</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2551,23 @@
         <v>11</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>0.69979000000000002</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D80">
-        <v>0.71231</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E80">
-        <v>0.69979000000000002</v>
+        <v>0.69908999999999999</v>
       </c>
       <c r="F80">
-        <v>0.7087</v>
+        <v>0.71677999999999997</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0.73799999999999422</v>
+        <v>1.2519999999999976</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2575,23 @@
         <v>11</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>0.69943999999999995</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D81">
-        <v>0.70272999999999997</v>
+        <v>0.71231</v>
       </c>
       <c r="E81">
-        <v>0.69535000000000002</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="F81">
-        <v>0.70248999999999995</v>
+        <v>0.7087</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.0020000000000038</v>
+        <v>0.73799999999999422</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2599,23 @@
         <v>11</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>0.68362000000000001</v>
+        <v>0.69943999999999995</v>
       </c>
       <c r="D82">
-        <v>0.70330999999999999</v>
+        <v>0.70272999999999997</v>
       </c>
       <c r="E82">
-        <v>0.68328999999999995</v>
+        <v>0.69535000000000002</v>
       </c>
       <c r="F82">
-        <v>0.69911000000000001</v>
+        <v>0.70248999999999995</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0.94499999999999584</v>
+        <v>2.0020000000000038</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2623,23 @@
         <v>11</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>0.68579999999999997</v>
+        <v>0.68362000000000001</v>
       </c>
       <c r="D83">
-        <v>0.69160999999999995</v>
+        <v>0.70330999999999999</v>
       </c>
       <c r="E83">
-        <v>0.68215999999999999</v>
+        <v>0.68328999999999995</v>
       </c>
       <c r="F83">
-        <v>0.68357999999999997</v>
+        <v>0.69911000000000001</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.2839999999999963</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2647,23 @@
         <v>11</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>0.68781000000000003</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="D84">
-        <v>0.69447999999999999</v>
+        <v>0.69160999999999995</v>
       </c>
       <c r="E84">
-        <v>0.68164000000000002</v>
+        <v>0.68215999999999999</v>
       </c>
       <c r="F84">
-        <v>0.68866000000000005</v>
+        <v>0.68357999999999997</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.1600000000000055</v>
+        <v>1.2839999999999963</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2671,23 @@
         <v>11</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>0.68015999999999999</v>
+        <v>0.68781000000000003</v>
       </c>
       <c r="D85">
-        <v>0.69045000000000001</v>
+        <v>0.69447999999999999</v>
       </c>
       <c r="E85">
-        <v>0.67884999999999995</v>
+        <v>0.68164000000000002</v>
       </c>
       <c r="F85">
-        <v>0.68779999999999997</v>
+        <v>0.68866000000000005</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.5689999999999982</v>
+        <v>1.1600000000000055</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2695,23 @@
         <v>11</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>0.69210000000000005</v>
+        <v>0.68015999999999999</v>
       </c>
       <c r="D86">
-        <v>0.69367999999999996</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="E86">
-        <v>0.67798999999999998</v>
+        <v>0.67884999999999995</v>
       </c>
       <c r="F86">
-        <v>0.68142999999999998</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.0499999999999954</v>
+        <v>1.5689999999999982</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2719,23 @@
         <v>11</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>0.69038999999999995</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="D87">
-        <v>0.69791999999999998</v>
+        <v>0.69367999999999996</v>
       </c>
       <c r="E87">
-        <v>0.68742000000000003</v>
+        <v>0.67798999999999998</v>
       </c>
       <c r="F87">
-        <v>0.69277</v>
+        <v>0.68142999999999998</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.2029999999999985</v>
+        <v>1.0499999999999954</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2743,23 @@
         <v>11</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>0.68622000000000005</v>
+        <v>0.69038999999999995</v>
       </c>
       <c r="D88">
-        <v>0.69506999999999997</v>
+        <v>0.69791999999999998</v>
       </c>
       <c r="E88">
-        <v>0.68303999999999998</v>
+        <v>0.68742000000000003</v>
       </c>
       <c r="F88">
-        <v>0.69052000000000002</v>
+        <v>0.69277</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.857999999999993</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2767,23 @@
         <v>11</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>0.69428000000000001</v>
+        <v>0.68622000000000005</v>
       </c>
       <c r="D89">
-        <v>0.70035999999999998</v>
+        <v>0.69506999999999997</v>
       </c>
       <c r="E89">
-        <v>0.68178000000000005</v>
+        <v>0.68303999999999998</v>
       </c>
       <c r="F89">
-        <v>0.68718999999999997</v>
+        <v>0.69052000000000002</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>2.5389999999999913</v>
+        <v>1.857999999999993</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2791,23 @@
         <v>11</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>0.71731999999999996</v>
+        <v>0.69428000000000001</v>
       </c>
       <c r="D90">
-        <v>0.72070999999999996</v>
+        <v>0.70035999999999998</v>
       </c>
       <c r="E90">
-        <v>0.69532000000000005</v>
+        <v>0.68178000000000005</v>
       </c>
       <c r="F90">
-        <v>0.69630000000000003</v>
+        <v>0.68718999999999997</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.4090000000000047</v>
+        <v>2.5389999999999913</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2815,23 @@
         <v>11</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>0.70626</v>
+        <v>0.71731999999999996</v>
       </c>
       <c r="D91">
-        <v>0.71960000000000002</v>
+        <v>0.72070999999999996</v>
       </c>
       <c r="E91">
-        <v>0.70550999999999997</v>
+        <v>0.69532000000000005</v>
       </c>
       <c r="F91">
-        <v>0.71862999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.6710000000000003</v>
+        <v>1.4090000000000047</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2839,23 @@
         <v>11</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>0.72075</v>
+        <v>0.70626</v>
       </c>
       <c r="D92">
-        <v>0.72253999999999996</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="E92">
-        <v>0.70582999999999996</v>
+        <v>0.70550999999999997</v>
       </c>
       <c r="F92">
-        <v>0.70882000000000001</v>
+        <v>0.71862999999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.5809999999999991</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2863,23 @@
         <v>11</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>0.73228000000000004</v>
+        <v>0.72075</v>
       </c>
       <c r="D93">
-        <v>0.73241000000000001</v>
+        <v>0.72253999999999996</v>
       </c>
       <c r="E93">
-        <v>0.71660000000000001</v>
+        <v>0.70582999999999996</v>
       </c>
       <c r="F93">
-        <v>0.72182000000000002</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.8789999999999973</v>
+        <v>1.5809999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2887,23 @@
         <v>11</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>0.72833000000000003</v>
+        <v>0.73228000000000004</v>
       </c>
       <c r="D94">
-        <v>0.74348999999999998</v>
+        <v>0.73241000000000001</v>
       </c>
       <c r="E94">
-        <v>0.72470000000000001</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="F94">
-        <v>0.73255999999999999</v>
+        <v>0.72182000000000002</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>1.8789999999999973</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2911,23 @@
         <v>11</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>0.72552000000000005</v>
+        <v>0.72833000000000003</v>
       </c>
       <c r="D95">
-        <v>0.73202</v>
+        <v>0.74348999999999998</v>
       </c>
       <c r="E95">
-        <v>0.71828999999999998</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="F95">
-        <v>0.72912999999999994</v>
+        <v>0.73255999999999999</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.8569999999999975</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2935,23 @@
         <v>11</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>0.71514</v>
+        <v>0.72552000000000005</v>
       </c>
       <c r="D96">
-        <v>0.73370999999999997</v>
+        <v>0.73202</v>
       </c>
       <c r="E96">
-        <v>0.71514</v>
+        <v>0.71828999999999998</v>
       </c>
       <c r="F96">
-        <v>0.72667999999999999</v>
+        <v>0.72912999999999994</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.698999999999995</v>
+        <v>1.8569999999999975</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2959,23 @@
         <v>11</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>0.72343000000000002</v>
+        <v>0.71514</v>
       </c>
       <c r="D97">
-        <v>0.7298</v>
+        <v>0.73370999999999997</v>
       </c>
       <c r="E97">
-        <v>0.71281000000000005</v>
+        <v>0.71514</v>
       </c>
       <c r="F97">
-        <v>0.71604000000000001</v>
+        <v>0.72667999999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.4560000000000017</v>
+        <v>1.698999999999995</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2983,23 @@
         <v>11</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>0.73097999999999996</v>
+        <v>0.72343000000000002</v>
       </c>
       <c r="D98">
-        <v>0.73365999999999998</v>
+        <v>0.7298</v>
       </c>
       <c r="E98">
-        <v>0.71909999999999996</v>
+        <v>0.71281000000000005</v>
       </c>
       <c r="F98">
-        <v>0.72406000000000004</v>
+        <v>0.71604000000000001</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.1190000000000033</v>
+        <v>1.4560000000000017</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3007,23 @@
         <v>11</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>0.73126999999999998</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="D99">
-        <v>0.73346</v>
+        <v>0.73365999999999998</v>
       </c>
       <c r="E99">
-        <v>0.72226999999999997</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="F99">
-        <v>0.73134999999999994</v>
+        <v>0.72406000000000004</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.646000000000003</v>
+        <v>1.1190000000000033</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3031,23 @@
         <v>11</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>0.74012</v>
+        <v>0.73126999999999998</v>
       </c>
       <c r="D100">
-        <v>0.74158000000000002</v>
+        <v>0.73346</v>
       </c>
       <c r="E100">
-        <v>0.72511999999999999</v>
+        <v>0.72226999999999997</v>
       </c>
       <c r="F100">
-        <v>0.73209000000000002</v>
+        <v>0.73134999999999994</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.3379999999999947</v>
+        <v>1.646000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3055,23 @@
         <v>11</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>0.74985999999999997</v>
+        <v>0.74012</v>
       </c>
       <c r="D101">
-        <v>0.75239999999999996</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="E101">
-        <v>0.73902000000000001</v>
+        <v>0.72511999999999999</v>
       </c>
       <c r="F101">
-        <v>0.74175000000000002</v>
+        <v>0.73209000000000002</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.5679999999999916</v>
+        <v>1.3379999999999947</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3079,23 @@
         <v>11</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>0.74424999999999997</v>
+        <v>0.74985999999999997</v>
       </c>
       <c r="D102">
-        <v>0.75573999999999997</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E102">
-        <v>0.74006000000000005</v>
+        <v>0.73902000000000001</v>
       </c>
       <c r="F102">
-        <v>0.75194000000000005</v>
+        <v>0.74175000000000002</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.5679999999999916</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3103,23 @@
         <v>11</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>0.73424999999999996</v>
+        <v>0.74424999999999997</v>
       </c>
       <c r="D103">
-        <v>0.74575999999999998</v>
+        <v>0.75573999999999997</v>
       </c>
       <c r="E103">
-        <v>0.72619999999999996</v>
+        <v>0.74006000000000005</v>
       </c>
       <c r="F103">
-        <v>0.74563000000000001</v>
+        <v>0.75194000000000005</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.6689999999999983</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3127,23 @@
         <v>11</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>0.72690999999999995</v>
+        <v>0.73424999999999996</v>
       </c>
       <c r="D104">
-        <v>0.73678999999999994</v>
+        <v>0.74575999999999998</v>
       </c>
       <c r="E104">
-        <v>0.72009999999999996</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="F104">
-        <v>0.73412999999999995</v>
+        <v>0.74563000000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.0109999999999952</v>
+        <v>1.6689999999999983</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3151,23 @@
         <v>11</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>0.73212999999999995</v>
+        <v>0.72690999999999995</v>
       </c>
       <c r="D105">
-        <v>0.73446</v>
+        <v>0.73678999999999994</v>
       </c>
       <c r="E105">
-        <v>0.72435000000000005</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="F105">
-        <v>0.72750000000000004</v>
+        <v>0.73412999999999995</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.93100000000000405</v>
+        <v>1.0109999999999952</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3175,23 @@
         <v>11</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>0.72755999999999998</v>
+        <v>0.73212999999999995</v>
       </c>
       <c r="D106">
-        <v>0.73458000000000001</v>
+        <v>0.73446</v>
       </c>
       <c r="E106">
-        <v>0.72526999999999997</v>
+        <v>0.72435000000000005</v>
       </c>
       <c r="F106">
-        <v>0.73243000000000003</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0.9199999999999986</v>
+        <v>0.93100000000000405</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3199,23 @@
         <v>11</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>0.72470000000000001</v>
+        <v>0.72755999999999998</v>
       </c>
       <c r="D107">
-        <v>0.72975999999999996</v>
+        <v>0.73458000000000001</v>
       </c>
       <c r="E107">
-        <v>0.72055999999999998</v>
+        <v>0.72526999999999997</v>
       </c>
       <c r="F107">
-        <v>0.72829999999999995</v>
+        <v>0.73243000000000003</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.4839999999999964</v>
+        <v>0.9199999999999986</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3223,23 @@
         <v>11</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>0.72026000000000001</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="D108">
-        <v>0.73185</v>
+        <v>0.72975999999999996</v>
       </c>
       <c r="E108">
-        <v>0.71701000000000004</v>
+        <v>0.72055999999999998</v>
       </c>
       <c r="F108">
-        <v>0.72531999999999996</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.0900000000000021</v>
+        <v>1.4839999999999964</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3247,23 @@
         <v>11</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>0.71318000000000004</v>
+        <v>0.72026000000000001</v>
       </c>
       <c r="D109">
-        <v>0.72223000000000004</v>
+        <v>0.73185</v>
       </c>
       <c r="E109">
-        <v>0.71133000000000002</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="F109">
-        <v>0.72104999999999997</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.1199999999999988</v>
+        <v>1.0900000000000021</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3271,23 @@
         <v>11</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>0.70515000000000005</v>
+        <v>0.71318000000000004</v>
       </c>
       <c r="D110">
-        <v>0.71462999999999999</v>
+        <v>0.72223000000000004</v>
       </c>
       <c r="E110">
-        <v>0.70343</v>
+        <v>0.71133000000000002</v>
       </c>
       <c r="F110">
-        <v>0.71458999999999995</v>
+        <v>0.72104999999999997</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.5979999999999994</v>
+        <v>1.1199999999999988</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3295,23 @@
         <v>11</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>0.69162000000000001</v>
+        <v>0.70515000000000005</v>
       </c>
       <c r="D111">
-        <v>0.70760000000000001</v>
+        <v>0.71462999999999999</v>
       </c>
       <c r="E111">
-        <v>0.69162000000000001</v>
+        <v>0.70343</v>
       </c>
       <c r="F111">
-        <v>0.70647000000000004</v>
+        <v>0.71458999999999995</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.1149999999999993</v>
+        <v>1.5979999999999994</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3319,23 @@
         <v>11</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>0.68542999999999998</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="D112">
-        <v>0.69493000000000005</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="E112">
-        <v>0.68378000000000005</v>
+        <v>0.69162000000000001</v>
       </c>
       <c r="F112">
-        <v>0.69294999999999995</v>
+        <v>0.70647000000000004</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.3299999999999979</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3343,23 @@
         <v>11</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>0.68998000000000004</v>
+        <v>0.68542999999999998</v>
       </c>
       <c r="D113">
-        <v>0.69501000000000002</v>
+        <v>0.69493000000000005</v>
       </c>
       <c r="E113">
-        <v>0.68171000000000004</v>
+        <v>0.68378000000000005</v>
       </c>
       <c r="F113">
-        <v>0.68606999999999996</v>
+        <v>0.69294999999999995</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.2979999999999992</v>
+        <v>1.3299999999999979</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3367,23 @@
         <v>11</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>0.68608000000000002</v>
+        <v>0.68998000000000004</v>
       </c>
       <c r="D114">
-        <v>0.69681000000000004</v>
+        <v>0.69501000000000002</v>
       </c>
       <c r="E114">
-        <v>0.68383000000000005</v>
+        <v>0.68171000000000004</v>
       </c>
       <c r="F114">
-        <v>0.69237000000000004</v>
+        <v>0.68606999999999996</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>1.9880000000000009</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3391,23 @@
         <v>11</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>0.7026</v>
+        <v>0.68608000000000002</v>
       </c>
       <c r="D115">
-        <v>0.70464000000000004</v>
+        <v>0.69681000000000004</v>
       </c>
       <c r="E115">
-        <v>0.68476000000000004</v>
+        <v>0.68383000000000005</v>
       </c>
       <c r="F115">
-        <v>0.68632000000000004</v>
+        <v>0.69237000000000004</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.69200000000000372</v>
+        <v>1.9880000000000009</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3415,23 @@
         <v>11</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>0.69986999999999999</v>
+        <v>0.7026</v>
       </c>
       <c r="D116">
-        <v>0.70521</v>
+        <v>0.70464000000000004</v>
       </c>
       <c r="E116">
-        <v>0.69828999999999997</v>
+        <v>0.68476000000000004</v>
       </c>
       <c r="F116">
-        <v>0.70306000000000002</v>
+        <v>0.68632000000000004</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>1.0589999999999988</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3439,23 @@
         <v>11</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>0.69335000000000002</v>
+        <v>0.69986999999999999</v>
       </c>
       <c r="D117">
-        <v>0.70143999999999995</v>
+        <v>0.70521</v>
       </c>
       <c r="E117">
-        <v>0.69084999999999996</v>
+        <v>0.69828999999999997</v>
       </c>
       <c r="F117">
-        <v>0.70028000000000001</v>
+        <v>0.70306000000000002</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.96100000000000074</v>
+        <v>1.0589999999999988</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3463,23 @@
         <v>11</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>0.70004999999999995</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="D118">
-        <v>0.70213999999999999</v>
+        <v>0.70143999999999995</v>
       </c>
       <c r="E118">
-        <v>0.69252999999999998</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="F118">
-        <v>0.69303999999999999</v>
+        <v>0.70028000000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.92599999999999349</v>
+        <v>0.96100000000000074</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3487,23 @@
         <v>11</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>0.70326999999999995</v>
+        <v>0.70004999999999995</v>
       </c>
       <c r="D119">
-        <v>0.70670999999999995</v>
+        <v>0.70213999999999999</v>
       </c>
       <c r="E119">
-        <v>0.69745000000000001</v>
+        <v>0.69252999999999998</v>
       </c>
       <c r="F119">
-        <v>0.70109999999999995</v>
+        <v>0.69303999999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>0.95300000000000384</v>
+        <v>0.92599999999999349</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3511,23 @@
         <v>11</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>0.70133999999999996</v>
+        <v>0.70326999999999995</v>
       </c>
       <c r="D120">
-        <v>0.70891000000000004</v>
+        <v>0.70670999999999995</v>
       </c>
       <c r="E120">
-        <v>0.69938</v>
+        <v>0.69745000000000001</v>
       </c>
       <c r="F120">
-        <v>0.70296000000000003</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.5539999999999998</v>
+        <v>0.95300000000000384</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3535,23 @@
         <v>11</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>0.69291000000000003</v>
+        <v>0.70133999999999996</v>
       </c>
       <c r="D121">
-        <v>0.70484999999999998</v>
+        <v>0.70891000000000004</v>
       </c>
       <c r="E121">
-        <v>0.68930999999999998</v>
+        <v>0.69938</v>
       </c>
       <c r="F121">
-        <v>0.70118999999999998</v>
+        <v>0.70296000000000003</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.5510000000000024</v>
+        <v>1.5539999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3559,23 @@
         <v>11</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>0.70189999999999997</v>
+        <v>0.69291000000000003</v>
       </c>
       <c r="D122">
-        <v>0.70447000000000004</v>
+        <v>0.70484999999999998</v>
       </c>
       <c r="E122">
-        <v>0.68896000000000002</v>
+        <v>0.68930999999999998</v>
       </c>
       <c r="F122">
-        <v>0.69264999999999999</v>
+        <v>0.70118999999999998</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.3720000000000074</v>
+        <v>1.5510000000000024</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3583,23 @@
         <v>11</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>0.71955000000000002</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="D123">
-        <v>0.72367000000000004</v>
+        <v>0.70447000000000004</v>
       </c>
       <c r="E123">
-        <v>0.69994999999999996</v>
+        <v>0.68896000000000002</v>
       </c>
       <c r="F123">
-        <v>0.70386000000000004</v>
+        <v>0.69264999999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.1660000000000004</v>
+        <v>2.3720000000000074</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3607,23 @@
         <v>11</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>0.71914999999999996</v>
+        <v>0.71955000000000002</v>
       </c>
       <c r="D124">
-        <v>0.72458999999999996</v>
+        <v>0.72367000000000004</v>
       </c>
       <c r="E124">
-        <v>0.71292999999999995</v>
+        <v>0.69994999999999996</v>
       </c>
       <c r="F124">
-        <v>0.71945000000000003</v>
+        <v>0.70386000000000004</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.0830000000000006</v>
+        <v>1.1660000000000004</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3631,23 @@
         <v>11</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>0.71987999999999996</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="D125">
-        <v>0.72421000000000002</v>
+        <v>0.72458999999999996</v>
       </c>
       <c r="E125">
-        <v>0.71338000000000001</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="F125">
-        <v>0.71828000000000003</v>
+        <v>0.71945000000000003</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.0299999999999985</v>
+        <v>1.0830000000000006</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3655,23 @@
         <v>11</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>0.73029999999999995</v>
+        <v>0.71987999999999996</v>
       </c>
       <c r="D126">
-        <v>0.73753000000000002</v>
+        <v>0.72421000000000002</v>
       </c>
       <c r="E126">
-        <v>0.71723000000000003</v>
+        <v>0.71338000000000001</v>
       </c>
       <c r="F126">
-        <v>0.71967999999999999</v>
+        <v>0.71828000000000003</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.21</v>
+        <v>2.0299999999999985</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3679,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>0.72675000000000001</v>
+        <v>0.73029999999999995</v>
       </c>
       <c r="D127">
-        <v>0.73494000000000004</v>
+        <v>0.73753000000000002</v>
       </c>
       <c r="E127">
-        <v>0.72284000000000004</v>
+        <v>0.71723000000000003</v>
       </c>
       <c r="F127">
-        <v>0.73080000000000001</v>
+        <v>0.71967999999999999</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.5919999999999934</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3703,23 @@
         <v>11</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>0.71508000000000005</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="D128">
-        <v>0.73099999999999998</v>
+        <v>0.73494000000000004</v>
       </c>
       <c r="E128">
-        <v>0.71508000000000005</v>
+        <v>0.72284000000000004</v>
       </c>
       <c r="F128">
-        <v>0.72636999999999996</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.4880000000000004</v>
+        <v>1.5919999999999934</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3727,23 @@
         <v>11</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>0.70909</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="D129">
-        <v>0.72243000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E129">
-        <v>0.70755000000000001</v>
+        <v>0.71508000000000005</v>
       </c>
       <c r="F129">
-        <v>0.71657999999999999</v>
+        <v>0.72636999999999996</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>1.4880000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3751,23 @@
         <v>11</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>0.69610000000000005</v>
+        <v>0.70909</v>
       </c>
       <c r="D130">
-        <v>0.71438000000000001</v>
+        <v>0.72243000000000002</v>
       </c>
       <c r="E130">
-        <v>0.69481999999999999</v>
+        <v>0.70755000000000001</v>
       </c>
       <c r="F130">
-        <v>0.71253999999999995</v>
+        <v>0.71657999999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.5859999999999985</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3775,23 @@
         <v>11</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>0.69096999999999997</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="D131">
-        <v>0.70426</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E131">
-        <v>0.68840000000000001</v>
+        <v>0.69481999999999999</v>
       </c>
       <c r="F131">
-        <v>0.69571000000000005</v>
+        <v>0.71253999999999995</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>1.2419999999999987</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3799,23 @@
         <v>11</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>0.68532000000000004</v>
+        <v>0.69096999999999997</v>
       </c>
       <c r="D132">
-        <v>0.6976</v>
+        <v>0.70426</v>
       </c>
       <c r="E132">
-        <v>0.68518000000000001</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="F132">
-        <v>0.69323000000000001</v>
+        <v>0.69571000000000005</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>1.2700000000000045</v>
+        <v>1.2419999999999987</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3823,23 @@
         <v>11</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>0.69633999999999996</v>
+        <v>0.68532000000000004</v>
       </c>
       <c r="D133">
-        <v>0.69882</v>
+        <v>0.6976</v>
       </c>
       <c r="E133">
-        <v>0.68611999999999995</v>
+        <v>0.68518000000000001</v>
       </c>
       <c r="F133">
-        <v>0.68783000000000005</v>
+        <v>0.69323000000000001</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.0759999999999899</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3847,23 @@
         <v>11</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>0.71235999999999999</v>
+        <v>0.69633999999999996</v>
       </c>
       <c r="D134">
-        <v>0.72380999999999995</v>
+        <v>0.69882</v>
       </c>
       <c r="E134">
-        <v>0.69305000000000005</v>
+        <v>0.68611999999999995</v>
       </c>
       <c r="F134">
-        <v>0.69547000000000003</v>
+        <v>0.68783000000000005</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.529999999999998</v>
+        <v>3.0759999999999899</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3871,23 @@
         <v>11</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>0.71306000000000003</v>
+        <v>0.71235999999999999</v>
       </c>
       <c r="D135">
-        <v>0.72216999999999998</v>
+        <v>0.72380999999999995</v>
       </c>
       <c r="E135">
-        <v>0.70687</v>
+        <v>0.69305000000000005</v>
       </c>
       <c r="F135">
-        <v>0.71350000000000002</v>
+        <v>0.69547000000000003</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.3639999999999985</v>
+        <v>1.529999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3895,23 @@
         <v>11</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>0.70416999999999996</v>
+        <v>0.71306000000000003</v>
       </c>
       <c r="D136">
-        <v>0.71687999999999996</v>
+        <v>0.72216999999999998</v>
       </c>
       <c r="E136">
-        <v>0.70323999999999998</v>
+        <v>0.70687</v>
       </c>
       <c r="F136">
-        <v>0.71379000000000004</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.140999999999992</v>
+        <v>1.3639999999999985</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3919,23 @@
         <v>11</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>0.69879999999999998</v>
+        <v>0.70416999999999996</v>
       </c>
       <c r="D137">
-        <v>0.70848999999999995</v>
+        <v>0.71687999999999996</v>
       </c>
       <c r="E137">
-        <v>0.69708000000000003</v>
+        <v>0.70323999999999998</v>
       </c>
       <c r="F137">
-        <v>0.70420000000000005</v>
+        <v>0.71379000000000004</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.4399999999999968</v>
+        <v>1.140999999999992</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3943,23 @@
         <v>11</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>0.71365999999999996</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="D138">
-        <v>0.71438000000000001</v>
+        <v>0.70848999999999995</v>
       </c>
       <c r="E138">
-        <v>0.69998000000000005</v>
+        <v>0.69708000000000003</v>
       </c>
       <c r="F138">
-        <v>0.70084000000000002</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.9460000000000042</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3967,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>0.73316999999999999</v>
+        <v>0.71365999999999996</v>
       </c>
       <c r="D139">
-        <v>0.74023000000000005</v>
+        <v>0.71438000000000001</v>
       </c>
       <c r="E139">
-        <v>0.71077000000000001</v>
+        <v>0.69998000000000005</v>
       </c>
       <c r="F139">
-        <v>0.71277999999999997</v>
+        <v>0.70084000000000002</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>2.0140000000000047</v>
+        <v>2.9460000000000042</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3991,23 @@
         <v>11</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>0.71547000000000005</v>
+        <v>0.73316999999999999</v>
       </c>
       <c r="D140">
-        <v>0.73382000000000003</v>
+        <v>0.74023000000000005</v>
       </c>
       <c r="E140">
-        <v>0.71367999999999998</v>
+        <v>0.71077000000000001</v>
       </c>
       <c r="F140">
-        <v>0.73285999999999996</v>
+        <v>0.71277999999999997</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>0.75799999999999201</v>
+        <v>2.0140000000000047</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4015,23 @@
         <v>11</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>0.71538999999999997</v>
+        <v>0.71547000000000005</v>
       </c>
       <c r="D141">
-        <v>0.71831999999999996</v>
+        <v>0.73382000000000003</v>
       </c>
       <c r="E141">
-        <v>0.71074000000000004</v>
+        <v>0.71367999999999998</v>
       </c>
       <c r="F141">
-        <v>0.71608000000000005</v>
+        <v>0.73285999999999996</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.8869999999999942</v>
+        <v>0.75799999999999201</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4039,23 @@
         <v>11</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>0.70882000000000001</v>
+        <v>0.71538999999999997</v>
       </c>
       <c r="D142">
-        <v>0.72655999999999998</v>
+        <v>0.71831999999999996</v>
       </c>
       <c r="E142">
-        <v>0.70769000000000004</v>
+        <v>0.71074000000000004</v>
       </c>
       <c r="F142">
-        <v>0.71603000000000006</v>
+        <v>0.71608000000000005</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.415999999999995</v>
+        <v>1.8869999999999942</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4063,23 @@
         <v>11</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>0.71433999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="D143">
-        <v>0.71753999999999996</v>
+        <v>0.72655999999999998</v>
       </c>
       <c r="E143">
-        <v>0.70338000000000001</v>
+        <v>0.70769000000000004</v>
       </c>
       <c r="F143">
-        <v>0.70882000000000001</v>
+        <v>0.71603000000000006</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.0060000000000078</v>
+        <v>1.415999999999995</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4087,23 @@
         <v>11</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>0.72813000000000005</v>
+        <v>0.71433999999999997</v>
       </c>
       <c r="D144">
-        <v>0.73099000000000003</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="E144">
-        <v>0.71092999999999995</v>
+        <v>0.70338000000000001</v>
       </c>
       <c r="F144">
-        <v>0.71655999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.1109999999999953</v>
+        <v>2.0060000000000078</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4111,23 @@
         <v>11</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>0.72243999999999997</v>
+        <v>0.72813000000000005</v>
       </c>
       <c r="D145">
-        <v>0.73297999999999996</v>
+        <v>0.73099000000000003</v>
       </c>
       <c r="E145">
-        <v>0.72187000000000001</v>
+        <v>0.71092999999999995</v>
       </c>
       <c r="F145">
-        <v>0.72816999999999998</v>
+        <v>0.71655999999999997</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.4510000000000023</v>
+        <v>1.1109999999999953</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4135,23 @@
         <v>11</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>0.72550999999999999</v>
+        <v>0.72243999999999997</v>
       </c>
       <c r="D146">
-        <v>0.73682000000000003</v>
+        <v>0.73297999999999996</v>
       </c>
       <c r="E146">
-        <v>0.72231000000000001</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="F146">
-        <v>0.72431000000000001</v>
+        <v>0.72816999999999998</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.2900000000000023</v>
+        <v>1.4510000000000023</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4159,23 @@
         <v>11</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>0.73224999999999996</v>
+        <v>0.72550999999999999</v>
       </c>
       <c r="D147">
-        <v>0.73633999999999999</v>
+        <v>0.73682000000000003</v>
       </c>
       <c r="E147">
-        <v>0.72343999999999997</v>
+        <v>0.72231000000000001</v>
       </c>
       <c r="F147">
-        <v>0.72663999999999995</v>
+        <v>0.72431000000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>2.0170000000000021</v>
+        <v>1.2900000000000023</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4183,23 @@
         <v>11</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>0.72841</v>
+        <v>0.73224999999999996</v>
       </c>
       <c r="D148">
-        <v>0.74848000000000003</v>
+        <v>0.73633999999999999</v>
       </c>
       <c r="E148">
-        <v>0.72831000000000001</v>
+        <v>0.72343999999999997</v>
       </c>
       <c r="F148">
-        <v>0.73233999999999999</v>
+        <v>0.72663999999999995</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.5599999999999947</v>
+        <v>2.0170000000000021</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4207,23 @@
         <v>11</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>0.72187000000000001</v>
+        <v>0.72841</v>
       </c>
       <c r="D149">
-        <v>0.73594999999999999</v>
+        <v>0.74848000000000003</v>
       </c>
       <c r="E149">
-        <v>0.72035000000000005</v>
+        <v>0.72831000000000001</v>
       </c>
       <c r="F149">
-        <v>0.72909000000000002</v>
+        <v>0.73233999999999999</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.7100000000000004</v>
+        <v>1.5599999999999947</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4231,23 @@
         <v>11</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>0.72502999999999995</v>
+        <v>0.72187000000000001</v>
       </c>
       <c r="D150">
-        <v>0.73797999999999997</v>
+        <v>0.73594999999999999</v>
       </c>
       <c r="E150">
-        <v>0.72087999999999997</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="F150">
-        <v>0.72333000000000003</v>
+        <v>0.72909000000000002</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.5730000000000022</v>
+        <v>1.7100000000000004</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4255,23 @@
         <v>11</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>0.71886000000000005</v>
+        <v>0.72502999999999995</v>
       </c>
       <c r="D151">
-        <v>0.73214000000000001</v>
+        <v>0.73797999999999997</v>
       </c>
       <c r="E151">
-        <v>0.71640999999999999</v>
+        <v>0.72087999999999997</v>
       </c>
       <c r="F151">
-        <v>0.72694000000000003</v>
+        <v>0.72333000000000003</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.2150000000000003</v>
+        <v>1.5730000000000022</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4279,23 @@
         <v>11</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>0.71126999999999996</v>
+        <v>0.71886000000000005</v>
       </c>
       <c r="D152">
-        <v>0.73082000000000003</v>
+        <v>0.73214000000000001</v>
       </c>
       <c r="E152">
-        <v>0.70867000000000002</v>
+        <v>0.71640999999999999</v>
       </c>
       <c r="F152">
-        <v>0.72009999999999996</v>
+        <v>0.72694000000000003</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.3479999999999936</v>
+        <v>2.2150000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4303,23 @@
         <v>11</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>0.71984000000000004</v>
+        <v>0.71126999999999996</v>
       </c>
       <c r="D153">
-        <v>0.72558999999999996</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="E153">
-        <v>0.71211000000000002</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F153">
-        <v>0.71357000000000004</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.7290000000000036</v>
+        <v>1.3479999999999936</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4327,23 @@
         <v>11</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>0.69916</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="D154">
-        <v>0.72291000000000005</v>
+        <v>0.72558999999999996</v>
       </c>
       <c r="E154">
-        <v>0.69562000000000002</v>
+        <v>0.71211000000000002</v>
       </c>
       <c r="F154">
-        <v>0.72157000000000004</v>
+        <v>0.71357000000000004</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.0090000000000052</v>
+        <v>2.7290000000000036</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4351,23 @@
         <v>11</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>0.71360000000000001</v>
+        <v>0.69916</v>
       </c>
       <c r="D155">
-        <v>0.71506000000000003</v>
+        <v>0.72291000000000005</v>
       </c>
       <c r="E155">
-        <v>0.69496999999999998</v>
+        <v>0.69562000000000002</v>
       </c>
       <c r="F155">
-        <v>0.70004</v>
+        <v>0.72157000000000004</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.1000000000000019</v>
+        <v>2.0090000000000052</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4375,23 @@
         <v>11</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>0.72850000000000004</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="D156">
-        <v>0.73238999999999999</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="E156">
-        <v>0.71138999999999997</v>
+        <v>0.69496999999999998</v>
       </c>
       <c r="F156">
-        <v>0.71257000000000004</v>
+        <v>0.70004</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.2680000000000033</v>
+        <v>2.1000000000000019</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4399,23 @@
         <v>11</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>0.71706000000000003</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="D157">
-        <v>0.73060000000000003</v>
+        <v>0.73238999999999999</v>
       </c>
       <c r="E157">
-        <v>0.70791999999999999</v>
+        <v>0.71138999999999997</v>
       </c>
       <c r="F157">
-        <v>0.73016000000000003</v>
+        <v>0.71257000000000004</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>2.1690000000000098</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4423,23 @@
         <v>11</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>0.70628999999999997</v>
+        <v>0.71706000000000003</v>
       </c>
       <c r="D158">
-        <v>0.71969000000000005</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="E158">
-        <v>0.69799999999999995</v>
+        <v>0.70791999999999999</v>
       </c>
       <c r="F158">
-        <v>0.71635000000000004</v>
+        <v>0.73016000000000003</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.3590000000000009</v>
+        <v>2.1690000000000098</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4447,23 @@
         <v>11</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>0.70665999999999995</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="D159">
-        <v>0.72736000000000001</v>
+        <v>0.71969000000000005</v>
       </c>
       <c r="E159">
-        <v>0.69377</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="F159">
-        <v>0.71240000000000003</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>1.2979999999999992</v>
+        <v>3.3590000000000009</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4471,23 @@
         <v>11</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>0.70416000000000001</v>
+        <v>0.70665999999999995</v>
       </c>
       <c r="D160">
-        <v>0.70926999999999996</v>
+        <v>0.72736000000000001</v>
       </c>
       <c r="E160">
-        <v>0.69628999999999996</v>
+        <v>0.69377</v>
       </c>
       <c r="F160">
-        <v>0.70562000000000002</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.5480000000000058</v>
+        <v>1.2979999999999992</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4495,23 @@
         <v>11</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>0.69396000000000002</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="D161">
-        <v>0.71472000000000002</v>
+        <v>0.70926999999999996</v>
       </c>
       <c r="E161">
-        <v>0.68923999999999996</v>
+        <v>0.69628999999999996</v>
       </c>
       <c r="F161">
-        <v>0.70630000000000004</v>
+        <v>0.70562000000000002</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.8469999999999995</v>
+        <v>2.5480000000000058</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4519,23 @@
         <v>11</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>0.66922000000000004</v>
+        <v>0.69396000000000002</v>
       </c>
       <c r="D162">
-        <v>0.69599999999999995</v>
+        <v>0.71472000000000002</v>
       </c>
       <c r="E162">
-        <v>0.66752999999999996</v>
+        <v>0.68923999999999996</v>
       </c>
       <c r="F162">
-        <v>0.69528999999999996</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.1929999999999996</v>
+        <v>2.8469999999999995</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4543,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>0.67669000000000001</v>
+        <v>0.66922000000000004</v>
       </c>
       <c r="D163">
-        <v>0.68059999999999998</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E163">
-        <v>0.66866999999999999</v>
+        <v>0.66752999999999996</v>
       </c>
       <c r="F163">
-        <v>0.67013</v>
+        <v>0.69528999999999996</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.3229999999999964</v>
+        <v>1.1929999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4567,23 @@
         <v>11</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>0.67618999999999996</v>
+        <v>0.67669000000000001</v>
       </c>
       <c r="D164">
-        <v>0.68418999999999996</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="E164">
-        <v>0.67096</v>
+        <v>0.66866999999999999</v>
       </c>
       <c r="F164">
-        <v>0.67678000000000005</v>
+        <v>0.67013</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>1.317999999999997</v>
+        <v>1.3229999999999964</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4591,23 @@
         <v>11</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>0.68247000000000002</v>
+        <v>0.67618999999999996</v>
       </c>
       <c r="D165">
-        <v>0.68472999999999995</v>
+        <v>0.68418999999999996</v>
       </c>
       <c r="E165">
-        <v>0.67154999999999998</v>
+        <v>0.67096</v>
       </c>
       <c r="F165">
-        <v>0.67713999999999996</v>
+        <v>0.67678000000000005</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.4660000000000015</v>
+        <v>1.317999999999997</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4615,23 @@
         <v>11</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>0.69789000000000001</v>
+        <v>0.68247000000000002</v>
       </c>
       <c r="D166">
-        <v>0.70530000000000004</v>
+        <v>0.68472999999999995</v>
       </c>
       <c r="E166">
-        <v>0.68064000000000002</v>
+        <v>0.67154999999999998</v>
       </c>
       <c r="F166">
-        <v>0.68411</v>
+        <v>0.67713999999999996</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.0240000000000036</v>
+        <v>2.4660000000000015</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4639,23 @@
         <v>11</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>0.68518999999999997</v>
+        <v>0.69789000000000001</v>
       </c>
       <c r="D167">
-        <v>0.69984000000000002</v>
+        <v>0.70530000000000004</v>
       </c>
       <c r="E167">
-        <v>0.67959999999999998</v>
+        <v>0.68064000000000002</v>
       </c>
       <c r="F167">
-        <v>0.69862999999999997</v>
+        <v>0.68411</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>2.189999999999992</v>
+        <v>2.0240000000000036</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4663,23 @@
         <v>11</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>0.68859000000000004</v>
+        <v>0.68518999999999997</v>
       </c>
       <c r="D168">
-        <v>0.70531999999999995</v>
+        <v>0.69984000000000002</v>
       </c>
       <c r="E168">
-        <v>0.68342000000000003</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="F168">
-        <v>0.68559000000000003</v>
+        <v>0.69862999999999997</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>1.6120000000000023</v>
+        <v>2.189999999999992</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4687,23 @@
         <v>11</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>0.6804</v>
+        <v>0.68859000000000004</v>
       </c>
       <c r="D169">
-        <v>0.69515000000000005</v>
+        <v>0.70531999999999995</v>
       </c>
       <c r="E169">
-        <v>0.67903000000000002</v>
+        <v>0.68342000000000003</v>
       </c>
       <c r="F169">
-        <v>0.69152999999999998</v>
+        <v>0.68559000000000003</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>1.4499999999999957</v>
+        <v>1.6120000000000023</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4711,23 @@
         <v>11</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>0.68894</v>
+        <v>0.6804</v>
       </c>
       <c r="D170">
-        <v>0.69033999999999995</v>
+        <v>0.69515000000000005</v>
       </c>
       <c r="E170">
-        <v>0.67584</v>
+        <v>0.67903000000000002</v>
       </c>
       <c r="F170">
-        <v>0.68117000000000005</v>
+        <v>0.69152999999999998</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.9800000000000049</v>
+        <v>1.4499999999999957</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4735,23 @@
         <v>11</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>0.66771000000000003</v>
+        <v>0.68894</v>
       </c>
       <c r="D171">
-        <v>0.69657000000000002</v>
+        <v>0.69033999999999995</v>
       </c>
       <c r="E171">
-        <v>0.66676999999999997</v>
+        <v>0.67584</v>
       </c>
       <c r="F171">
-        <v>0.68979999999999997</v>
+        <v>0.68117000000000005</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>1.203999999999994</v>
+        <v>2.9800000000000049</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4759,23 @@
         <v>11</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
-        <v>0.67849000000000004</v>
+        <v>0.66771000000000003</v>
       </c>
       <c r="D172">
-        <v>0.67911999999999995</v>
+        <v>0.69657000000000002</v>
       </c>
       <c r="E172">
-        <v>0.66708000000000001</v>
+        <v>0.66676999999999997</v>
       </c>
       <c r="F172">
-        <v>0.66847999999999996</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.9889999999999972</v>
+        <v>1.203999999999994</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4783,23 @@
         <v>11</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>0.67249000000000003</v>
+        <v>0.67849000000000004</v>
       </c>
       <c r="D173">
-        <v>0.68735999999999997</v>
+        <v>0.67911999999999995</v>
       </c>
       <c r="E173">
-        <v>0.65747</v>
+        <v>0.66708000000000001</v>
       </c>
       <c r="F173">
-        <v>0.67923</v>
+        <v>0.66847999999999996</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.9610000000000016</v>
+        <v>2.9889999999999972</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4807,23 @@
         <v>11</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>0.67825000000000002</v>
+        <v>0.67249000000000003</v>
       </c>
       <c r="D174">
-        <v>0.68147000000000002</v>
+        <v>0.68735999999999997</v>
       </c>
       <c r="E174">
-        <v>0.66186</v>
+        <v>0.65747</v>
       </c>
       <c r="F174">
-        <v>0.67437000000000002</v>
+        <v>0.67923</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>2.5359999999999938</v>
+        <v>1.9610000000000016</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4831,23 @@
         <v>11</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>0.65854000000000001</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="D175">
-        <v>0.68184999999999996</v>
+        <v>0.68147000000000002</v>
       </c>
       <c r="E175">
-        <v>0.65649000000000002</v>
+        <v>0.66186</v>
       </c>
       <c r="F175">
-        <v>0.68130000000000002</v>
+        <v>0.67437000000000002</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.8819999999999948</v>
+        <v>2.5359999999999938</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4855,23 @@
         <v>11</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>0.66435</v>
+        <v>0.65854000000000001</v>
       </c>
       <c r="D176">
-        <v>0.67742999999999998</v>
+        <v>0.68184999999999996</v>
       </c>
       <c r="E176">
-        <v>0.65861000000000003</v>
+        <v>0.65649000000000002</v>
       </c>
       <c r="F176">
-        <v>0.66269999999999996</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.3140000000000041</v>
+        <v>1.8819999999999948</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4879,23 @@
         <v>11</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>0.66120000000000001</v>
+        <v>0.66435</v>
       </c>
       <c r="D177">
-        <v>0.66757</v>
+        <v>0.67742999999999998</v>
       </c>
       <c r="E177">
-        <v>0.65442999999999996</v>
+        <v>0.65861000000000003</v>
       </c>
       <c r="F177">
-        <v>0.66310999999999998</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>1.7500000000000071</v>
+        <v>1.3140000000000041</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4903,23 @@
         <v>11</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>0.66066000000000003</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="D178">
-        <v>0.67373000000000005</v>
+        <v>0.66757</v>
       </c>
       <c r="E178">
-        <v>0.65622999999999998</v>
+        <v>0.65442999999999996</v>
       </c>
       <c r="F178">
-        <v>0.66222999999999999</v>
+        <v>0.66310999999999998</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.9679999999999929</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4927,23 @@
         <v>11</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>0.64739999999999998</v>
+        <v>0.66066000000000003</v>
       </c>
       <c r="D179">
-        <v>0.67452999999999996</v>
+        <v>0.67373000000000005</v>
       </c>
       <c r="E179">
-        <v>0.64485000000000003</v>
+        <v>0.65622999999999998</v>
       </c>
       <c r="F179">
-        <v>0.66293000000000002</v>
+        <v>0.66222999999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>1.2700000000000045</v>
+        <v>2.9679999999999929</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4951,23 @@
         <v>11</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>0.64832999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="D180">
-        <v>0.65429999999999999</v>
+        <v>0.67452999999999996</v>
       </c>
       <c r="E180">
-        <v>0.64159999999999995</v>
+        <v>0.64485000000000003</v>
       </c>
       <c r="F180">
-        <v>0.64795000000000003</v>
+        <v>0.66293000000000002</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.1190000000000042</v>
+        <v>1.2700000000000045</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4975,23 @@
         <v>11</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>0.64</v>
+        <v>0.64832999999999996</v>
       </c>
       <c r="D181">
-        <v>0.65581</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="E181">
-        <v>0.63461999999999996</v>
+        <v>0.64159999999999995</v>
       </c>
       <c r="F181">
-        <v>0.64880000000000004</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>2.1040000000000059</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +4999,23 @@
         <v>11</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>0.65485000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="D182">
-        <v>0.65885000000000005</v>
+        <v>0.65581</v>
       </c>
       <c r="E182">
-        <v>0.63780999999999999</v>
+        <v>0.63461999999999996</v>
       </c>
       <c r="F182">
-        <v>0.64676</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>2.9339999999999922</v>
+        <v>2.1040000000000059</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5023,23 @@
         <v>11</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>0.68196000000000001</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="D183">
-        <v>0.68347999999999998</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="E183">
-        <v>0.65414000000000005</v>
+        <v>0.63780999999999999</v>
       </c>
       <c r="F183">
-        <v>0.65525</v>
+        <v>0.64676</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0.65100000000000158</v>
+        <v>2.9339999999999922</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5047,23 @@
         <v>11</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>0.68213999999999997</v>
+        <v>0.68196000000000001</v>
       </c>
       <c r="D184">
-        <v>0.68827000000000005</v>
+        <v>0.68347999999999998</v>
       </c>
       <c r="E184">
-        <v>0.68176000000000003</v>
+        <v>0.65414000000000005</v>
       </c>
       <c r="F184">
-        <v>0.68300000000000005</v>
+        <v>0.65525</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.2510000000000021</v>
+        <v>0.65100000000000158</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5071,23 @@
         <v>11</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>0.67186000000000001</v>
+        <v>0.68213999999999997</v>
       </c>
       <c r="D185">
-        <v>0.68422000000000005</v>
+        <v>0.68827000000000005</v>
       </c>
       <c r="E185">
-        <v>0.67171000000000003</v>
+        <v>0.68176000000000003</v>
       </c>
       <c r="F185">
-        <v>0.68305000000000005</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>1.5750000000000042</v>
+        <v>1.2510000000000021</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5095,23 @@
         <v>11</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>0.67125999999999997</v>
+        <v>0.67186000000000001</v>
       </c>
       <c r="D186">
-        <v>0.68339000000000005</v>
+        <v>0.68422000000000005</v>
       </c>
       <c r="E186">
-        <v>0.66764000000000001</v>
+        <v>0.67171000000000003</v>
       </c>
       <c r="F186">
-        <v>0.67306999999999995</v>
+        <v>0.68305000000000005</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>2.2120000000000029</v>
+        <v>1.5750000000000042</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5119,23 @@
         <v>11</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>0.67362999999999995</v>
+        <v>0.67125999999999997</v>
       </c>
       <c r="D187">
-        <v>0.67813000000000001</v>
+        <v>0.68339000000000005</v>
       </c>
       <c r="E187">
-        <v>0.65600999999999998</v>
+        <v>0.66764000000000001</v>
       </c>
       <c r="F187">
-        <v>0.67196</v>
+        <v>0.67306999999999995</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>2.7310000000000056</v>
+        <v>2.2120000000000029</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5143,23 @@
         <v>11</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>0.65307999999999999</v>
+        <v>0.67362999999999995</v>
       </c>
       <c r="D188">
-        <v>0.67869000000000002</v>
+        <v>0.67813000000000001</v>
       </c>
       <c r="E188">
-        <v>0.65137999999999996</v>
+        <v>0.65600999999999998</v>
       </c>
       <c r="F188">
-        <v>0.67410999999999999</v>
+        <v>0.67196</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.032999999999995</v>
+        <v>2.7310000000000056</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5167,23 @@
         <v>11</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>0.65568000000000004</v>
+        <v>0.65307999999999999</v>
       </c>
       <c r="D189">
-        <v>0.65959999999999996</v>
+        <v>0.67869000000000002</v>
       </c>
       <c r="E189">
-        <v>0.64927000000000001</v>
+        <v>0.65137999999999996</v>
       </c>
       <c r="F189">
-        <v>0.65317999999999998</v>
+        <v>0.67410999999999999</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.7970000000000041</v>
+        <v>1.032999999999995</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5191,23 @@
         <v>11</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>0.65395999999999999</v>
+        <v>0.65568000000000004</v>
       </c>
       <c r="D190">
-        <v>0.66049000000000002</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="E190">
-        <v>0.64251999999999998</v>
+        <v>0.64927000000000001</v>
       </c>
       <c r="F190">
-        <v>0.65637000000000001</v>
+        <v>0.65317999999999998</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>0.880000000000003</v>
+        <v>1.7970000000000041</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5215,23 @@
         <v>11</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>0.65122000000000002</v>
+        <v>0.65395999999999999</v>
       </c>
       <c r="D191">
-        <v>0.65873000000000004</v>
+        <v>0.66049000000000002</v>
       </c>
       <c r="E191">
-        <v>0.64993000000000001</v>
+        <v>0.64251999999999998</v>
       </c>
       <c r="F191">
-        <v>0.65349000000000002</v>
+        <v>0.65637000000000001</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.8680000000000039</v>
+        <v>0.880000000000003</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5239,23 @@
         <v>11</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>0.67329000000000006</v>
+        <v>0.65122000000000002</v>
       </c>
       <c r="D192">
-        <v>0.67849999999999999</v>
+        <v>0.65873000000000004</v>
       </c>
       <c r="E192">
-        <v>0.64981999999999995</v>
+        <v>0.64993000000000001</v>
       </c>
       <c r="F192">
-        <v>0.65200000000000002</v>
+        <v>0.65349000000000002</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.9380000000000064</v>
+        <v>2.8680000000000039</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5263,23 @@
         <v>11</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>0.67391000000000001</v>
+        <v>0.67329000000000006</v>
       </c>
       <c r="D193">
-        <v>0.68122000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="E193">
-        <v>0.66183999999999998</v>
+        <v>0.64981999999999995</v>
       </c>
       <c r="F193">
-        <v>0.67737000000000003</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.6710000000000003</v>
+        <v>1.9380000000000064</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5287,23 @@
         <v>11</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>0.68032000000000004</v>
+        <v>0.67391000000000001</v>
       </c>
       <c r="D194">
-        <v>0.68647999999999998</v>
+        <v>0.68122000000000005</v>
       </c>
       <c r="E194">
-        <v>0.66976999999999998</v>
+        <v>0.66183999999999998</v>
       </c>
       <c r="F194">
-        <v>0.67532999999999999</v>
+        <v>0.67737000000000003</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>2.795000000000003</v>
+        <v>1.6710000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5311,23 @@
         <v>11</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>0.66801999999999995</v>
+        <v>0.68032000000000004</v>
       </c>
       <c r="D195">
-        <v>0.68959000000000004</v>
+        <v>0.68647999999999998</v>
       </c>
       <c r="E195">
-        <v>0.66164000000000001</v>
+        <v>0.66976999999999998</v>
       </c>
       <c r="F195">
-        <v>0.68130000000000002</v>
+        <v>0.67532999999999999</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>2.8420000000000001</v>
+        <v>2.795000000000003</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5335,23 @@
         <v>11</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>0.64498</v>
+        <v>0.66801999999999995</v>
       </c>
       <c r="D196">
-        <v>0.67210999999999999</v>
+        <v>0.68959000000000004</v>
       </c>
       <c r="E196">
-        <v>0.64368999999999998</v>
+        <v>0.66164000000000001</v>
       </c>
       <c r="F196">
-        <v>0.66939000000000004</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.6679999999999917</v>
+        <v>2.8420000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5359,23 @@
         <v>11</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>0.63619999999999999</v>
+        <v>0.64498</v>
       </c>
       <c r="D197">
-        <v>0.64549999999999996</v>
+        <v>0.67210999999999999</v>
       </c>
       <c r="E197">
-        <v>0.62882000000000005</v>
+        <v>0.64368999999999998</v>
       </c>
       <c r="F197">
-        <v>0.64402999999999999</v>
+        <v>0.66939000000000004</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.6400000000000081</v>
+        <v>1.6679999999999917</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5383,23 @@
         <v>11</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>0.63821000000000006</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="D198">
-        <v>0.63997000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="E198">
-        <v>0.62356999999999996</v>
+        <v>0.62882000000000005</v>
       </c>
       <c r="F198">
-        <v>0.63832999999999995</v>
+        <v>0.64402999999999999</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.6369999999999996</v>
+        <v>1.6400000000000081</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5407,23 @@
         <v>11</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>0.63210999999999995</v>
+        <v>0.63821000000000006</v>
       </c>
       <c r="D199">
-        <v>0.64561000000000002</v>
+        <v>0.63997000000000004</v>
       </c>
       <c r="E199">
-        <v>0.62924000000000002</v>
+        <v>0.62356999999999996</v>
       </c>
       <c r="F199">
-        <v>0.64056000000000002</v>
+        <v>0.63832999999999995</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.8129999999999979</v>
+        <v>1.6369999999999996</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5431,19 @@
         <v>11</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>0.62829000000000002</v>
+        <v>0.63210999999999995</v>
       </c>
       <c r="D200">
-        <v>0.64246999999999999</v>
+        <v>0.64561000000000002</v>
       </c>
       <c r="E200">
-        <v>0.62434000000000001</v>
+        <v>0.62924000000000002</v>
       </c>
       <c r="F200">
-        <v>0.63166999999999995</v>
+        <v>0.64056000000000002</v>
       </c>
     </row>
   </sheetData>
